--- a/VanCalster_etal_2020_Gunstig abiotisch bereik per milieuvariabele en habitatsubtype.xlsx
+++ b/VanCalster_etal_2020_Gunstig abiotisch bereik per milieuvariabele en habitatsubtype.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\INBO\Projecten\Turnhouts-Vennegebied\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florian_vanhecke\Documents\Statistiek\Turnhouts-Vennengebied\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2728,7 +2728,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -3799,6 +3799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3881,7 +3882,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -3932,7 +3933,7 @@
       </c>
       <c r="S2" s="29"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -3983,7 +3984,7 @@
       </c>
       <c r="S3" s="29"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -4030,7 +4031,7 @@
       </c>
       <c r="S4" s="29"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -4081,7 +4082,7 @@
       </c>
       <c r="S5" s="29"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -4132,7 +4133,7 @@
       </c>
       <c r="S6" s="29"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -4179,7 +4180,7 @@
       </c>
       <c r="S7" s="29"/>
     </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -4230,7 +4231,7 @@
       </c>
       <c r="S8" s="29"/>
     </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>8</v>
       </c>
@@ -4283,7 +4284,7 @@
       </c>
       <c r="S9" s="29"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>9</v>
       </c>
@@ -4330,7 +4331,7 @@
       </c>
       <c r="S10" s="29"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -4381,7 +4382,7 @@
       </c>
       <c r="S11" s="29"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -4434,7 +4435,7 @@
       </c>
       <c r="S12" s="29"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -4487,7 +4488,7 @@
       </c>
       <c r="S13" s="29"/>
     </row>
-    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -4534,7 +4535,7 @@
       </c>
       <c r="S14" s="29"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -4585,7 +4586,7 @@
       </c>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -4632,7 +4633,7 @@
       </c>
       <c r="S16" s="29"/>
     </row>
-    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -4683,7 +4684,7 @@
       </c>
       <c r="S17" s="29"/>
     </row>
-    <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -4732,7 +4733,7 @@
       </c>
       <c r="S18" s="29"/>
     </row>
-    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -4779,7 +4780,7 @@
       </c>
       <c r="S19" s="29"/>
     </row>
-    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>19</v>
       </c>
@@ -4830,7 +4831,7 @@
       </c>
       <c r="S20" s="29"/>
     </row>
-    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>20</v>
       </c>
@@ -4881,7 +4882,7 @@
       </c>
       <c r="S21" s="29"/>
     </row>
-    <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>21</v>
       </c>
@@ -4934,7 +4935,7 @@
       </c>
       <c r="S22" s="29"/>
     </row>
-    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>22</v>
       </c>
@@ -4987,7 +4988,7 @@
       </c>
       <c r="S23" s="29"/>
     </row>
-    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>23</v>
       </c>
@@ -5036,7 +5037,7 @@
       </c>
       <c r="S24" s="29"/>
     </row>
-    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>24</v>
       </c>
@@ -5085,7 +5086,7 @@
       </c>
       <c r="S25" s="29"/>
     </row>
-    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -5134,7 +5135,7 @@
       </c>
       <c r="S26" s="29"/>
     </row>
-    <row r="27" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>26</v>
       </c>
@@ -5187,7 +5188,7 @@
       </c>
       <c r="S27" s="29"/>
     </row>
-    <row r="28" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>27</v>
       </c>
@@ -5240,7 +5241,7 @@
       </c>
       <c r="S28" s="29"/>
     </row>
-    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -5293,7 +5294,7 @@
       </c>
       <c r="S29" s="29"/>
     </row>
-    <row r="30" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>29</v>
       </c>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="S30" s="29"/>
     </row>
-    <row r="31" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -5399,7 +5400,7 @@
       </c>
       <c r="S31" s="29"/>
     </row>
-    <row r="32" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>31</v>
       </c>
@@ -5452,7 +5453,7 @@
       </c>
       <c r="S32" s="29"/>
     </row>
-    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>32</v>
       </c>
@@ -5505,7 +5506,7 @@
       </c>
       <c r="S33" s="29"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>33</v>
       </c>
@@ -5558,7 +5559,7 @@
       </c>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>34</v>
       </c>
@@ -5611,7 +5612,7 @@
       </c>
       <c r="S35" s="29"/>
     </row>
-    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>35</v>
       </c>
@@ -5664,7 +5665,7 @@
       </c>
       <c r="S36" s="29"/>
     </row>
-    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36</v>
       </c>
@@ -5717,7 +5718,7 @@
       </c>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>37</v>
       </c>
@@ -5764,7 +5765,7 @@
       </c>
       <c r="S38" s="29"/>
     </row>
-    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>38</v>
       </c>
@@ -5817,7 +5818,7 @@
       </c>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>39</v>
       </c>
@@ -5866,7 +5867,7 @@
       </c>
       <c r="S40" s="29"/>
     </row>
-    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>40</v>
       </c>
@@ -5919,7 +5920,7 @@
       </c>
       <c r="S41" s="29"/>
     </row>
-    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>41</v>
       </c>
@@ -5972,7 +5973,7 @@
       </c>
       <c r="S42" s="29"/>
     </row>
-    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>42</v>
       </c>
@@ -6025,7 +6026,7 @@
       </c>
       <c r="S43" s="29"/>
     </row>
-    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>43</v>
       </c>
@@ -6078,7 +6079,7 @@
       </c>
       <c r="S44" s="29"/>
     </row>
-    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>44</v>
       </c>
@@ -6131,7 +6132,7 @@
       </c>
       <c r="S45" s="29"/>
     </row>
-    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>45</v>
       </c>
@@ -6184,7 +6185,7 @@
       </c>
       <c r="S46" s="29"/>
     </row>
-    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>47</v>
       </c>
@@ -6235,7 +6236,7 @@
       </c>
       <c r="S47" s="29"/>
     </row>
-    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>48</v>
       </c>
@@ -6288,7 +6289,7 @@
       </c>
       <c r="S48" s="29"/>
     </row>
-    <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>49</v>
       </c>
@@ -6341,7 +6342,7 @@
       </c>
       <c r="S49" s="29"/>
     </row>
-    <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>50</v>
       </c>
@@ -6394,7 +6395,7 @@
       </c>
       <c r="S50" s="29"/>
     </row>
-    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>51</v>
       </c>
@@ -6445,7 +6446,7 @@
       </c>
       <c r="S51" s="29"/>
     </row>
-    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>52</v>
       </c>
@@ -6496,7 +6497,7 @@
       </c>
       <c r="S52" s="29"/>
     </row>
-    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>55</v>
       </c>
@@ -6543,7 +6544,7 @@
       </c>
       <c r="S53" s="29"/>
     </row>
-    <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>56</v>
       </c>
@@ -6590,7 +6591,7 @@
       </c>
       <c r="S54" s="29"/>
     </row>
-    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>57</v>
       </c>
@@ -6637,7 +6638,7 @@
       </c>
       <c r="S55" s="29"/>
     </row>
-    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>58</v>
       </c>
@@ -6690,7 +6691,7 @@
       </c>
       <c r="S56" s="29"/>
     </row>
-    <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>59</v>
       </c>
@@ -6739,7 +6740,7 @@
       </c>
       <c r="S57" s="29"/>
     </row>
-    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>60</v>
       </c>
@@ -6792,7 +6793,7 @@
       </c>
       <c r="S58" s="29"/>
     </row>
-    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>61</v>
       </c>
@@ -6845,7 +6846,7 @@
       </c>
       <c r="S59" s="29"/>
     </row>
-    <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>62</v>
       </c>
@@ -6898,7 +6899,7 @@
       </c>
       <c r="S60" s="29"/>
     </row>
-    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>63</v>
       </c>
@@ -6951,7 +6952,7 @@
       </c>
       <c r="S61" s="29"/>
     </row>
-    <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>64</v>
       </c>
@@ -7004,7 +7005,7 @@
       </c>
       <c r="S62" s="29"/>
     </row>
-    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>65</v>
       </c>
@@ -7057,7 +7058,7 @@
       </c>
       <c r="S63" s="29"/>
     </row>
-    <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>66</v>
       </c>
@@ -7104,7 +7105,7 @@
       </c>
       <c r="S64" s="29"/>
     </row>
-    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>72</v>
       </c>
@@ -7157,7 +7158,7 @@
       </c>
       <c r="S65" s="40"/>
     </row>
-    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>73</v>
       </c>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="S66" s="29"/>
     </row>
-    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>74</v>
       </c>
@@ -7259,7 +7260,7 @@
       </c>
       <c r="S67" s="29"/>
     </row>
-    <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>75</v>
       </c>
@@ -7312,7 +7313,7 @@
       </c>
       <c r="S68" s="29"/>
     </row>
-    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>76</v>
       </c>
@@ -7365,7 +7366,7 @@
       </c>
       <c r="S69" s="29"/>
     </row>
-    <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>77</v>
       </c>
@@ -7418,7 +7419,7 @@
       </c>
       <c r="S70" s="29"/>
     </row>
-    <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>78</v>
       </c>
@@ -7471,7 +7472,7 @@
       </c>
       <c r="S71" s="29"/>
     </row>
-    <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>79</v>
       </c>
@@ -7524,7 +7525,7 @@
       </c>
       <c r="S72" s="29"/>
     </row>
-    <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>80</v>
       </c>
@@ -7571,7 +7572,7 @@
       </c>
       <c r="S73" s="29"/>
     </row>
-    <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>81</v>
       </c>
@@ -7622,7 +7623,7 @@
       </c>
       <c r="S74" s="29"/>
     </row>
-    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>82</v>
       </c>
@@ -7669,7 +7670,7 @@
       </c>
       <c r="S75" s="29"/>
     </row>
-    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>83</v>
       </c>
@@ -7720,7 +7721,7 @@
       </c>
       <c r="S76" s="29"/>
     </row>
-    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>84</v>
       </c>
@@ -7767,7 +7768,7 @@
       </c>
       <c r="S77" s="29"/>
     </row>
-    <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>85</v>
       </c>
@@ -7818,7 +7819,7 @@
       </c>
       <c r="S78" s="29"/>
     </row>
-    <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>86</v>
       </c>
@@ -7869,7 +7870,7 @@
       </c>
       <c r="S79" s="29"/>
     </row>
-    <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>87</v>
       </c>
@@ -7920,7 +7921,7 @@
       </c>
       <c r="S80" s="29"/>
     </row>
-    <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>88</v>
       </c>
@@ -7971,7 +7972,7 @@
       </c>
       <c r="S81" s="29"/>
     </row>
-    <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>89</v>
       </c>
@@ -8022,7 +8023,7 @@
       </c>
       <c r="S82" s="29"/>
     </row>
-    <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>90</v>
       </c>
@@ -8069,7 +8070,7 @@
       </c>
       <c r="S83" s="29"/>
     </row>
-    <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>91</v>
       </c>
@@ -8116,7 +8117,7 @@
       </c>
       <c r="S84" s="29"/>
     </row>
-    <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>92</v>
       </c>
@@ -8165,7 +8166,7 @@
       </c>
       <c r="S85" s="29"/>
     </row>
-    <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>93</v>
       </c>
@@ -8212,7 +8213,7 @@
       </c>
       <c r="S86" s="29"/>
     </row>
-    <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>94</v>
       </c>
@@ -8259,7 +8260,7 @@
       </c>
       <c r="S87" s="29"/>
     </row>
-    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>95</v>
       </c>
@@ -8306,7 +8307,7 @@
       </c>
       <c r="S88" s="29"/>
     </row>
-    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>96</v>
       </c>
@@ -8353,7 +8354,7 @@
       </c>
       <c r="S89" s="29"/>
     </row>
-    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>97</v>
       </c>
@@ -8400,7 +8401,7 @@
       </c>
       <c r="S90" s="29"/>
     </row>
-    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>98</v>
       </c>
@@ -8447,7 +8448,7 @@
       </c>
       <c r="S91" s="29"/>
     </row>
-    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>99</v>
       </c>
@@ -8494,7 +8495,7 @@
       </c>
       <c r="S92" s="29"/>
     </row>
-    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>100</v>
       </c>
@@ -8541,7 +8542,7 @@
       </c>
       <c r="S93" s="29"/>
     </row>
-    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>101</v>
       </c>
@@ -8594,7 +8595,7 @@
       </c>
       <c r="S94" s="29"/>
     </row>
-    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>102</v>
       </c>
@@ -8641,7 +8642,7 @@
       </c>
       <c r="S95" s="29"/>
     </row>
-    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>103</v>
       </c>
@@ -8688,7 +8689,7 @@
       </c>
       <c r="S96" s="29"/>
     </row>
-    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>104</v>
       </c>
@@ -8735,7 +8736,7 @@
       </c>
       <c r="S97" s="29"/>
     </row>
-    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>105</v>
       </c>
@@ -8786,7 +8787,7 @@
       </c>
       <c r="S98" s="29"/>
     </row>
-    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>106</v>
       </c>
@@ -8833,7 +8834,7 @@
       </c>
       <c r="S99" s="29"/>
     </row>
-    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>107</v>
       </c>
@@ -8880,7 +8881,7 @@
       </c>
       <c r="S100" s="29"/>
     </row>
-    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>108</v>
       </c>
@@ -8935,7 +8936,7 @@
       </c>
       <c r="S101" s="29"/>
     </row>
-    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>109</v>
       </c>
@@ -8988,7 +8989,7 @@
       </c>
       <c r="S102" s="29"/>
     </row>
-    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>110</v>
       </c>
@@ -9037,7 +9038,7 @@
       </c>
       <c r="S103" s="29"/>
     </row>
-    <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>111</v>
       </c>
@@ -9088,7 +9089,7 @@
       </c>
       <c r="S104" s="29"/>
     </row>
-    <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>112</v>
       </c>
@@ -9139,7 +9140,7 @@
       </c>
       <c r="S105" s="29"/>
     </row>
-    <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>113</v>
       </c>
@@ -9194,7 +9195,7 @@
       </c>
       <c r="S106" s="29"/>
     </row>
-    <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>114</v>
       </c>
@@ -9243,7 +9244,7 @@
       </c>
       <c r="S107" s="29"/>
     </row>
-    <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>115</v>
       </c>
@@ -9292,7 +9293,7 @@
       </c>
       <c r="S108" s="29"/>
     </row>
-    <row r="109" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>116</v>
       </c>
@@ -9341,7 +9342,7 @@
       </c>
       <c r="S109" s="29"/>
     </row>
-    <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>117</v>
       </c>
@@ -9441,7 +9442,7 @@
       </c>
       <c r="S111" s="29"/>
     </row>
-    <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>119</v>
       </c>
@@ -9492,7 +9493,7 @@
       </c>
       <c r="S112" s="29"/>
     </row>
-    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>120</v>
       </c>
@@ -9543,7 +9544,7 @@
       </c>
       <c r="S113" s="29"/>
     </row>
-    <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>121</v>
       </c>
@@ -9594,7 +9595,7 @@
       </c>
       <c r="S114" s="29"/>
     </row>
-    <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>122</v>
       </c>
@@ -9645,7 +9646,7 @@
       </c>
       <c r="S115" s="29"/>
     </row>
-    <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>123</v>
       </c>
@@ -9694,7 +9695,7 @@
       </c>
       <c r="S116" s="29"/>
     </row>
-    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>124</v>
       </c>
@@ -9743,7 +9744,7 @@
       </c>
       <c r="S117" s="29"/>
     </row>
-    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>125</v>
       </c>
@@ -9798,7 +9799,7 @@
       </c>
       <c r="S118" s="29"/>
     </row>
-    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>126</v>
       </c>
@@ -9849,7 +9850,7 @@
       </c>
       <c r="S119" s="29"/>
     </row>
-    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>127</v>
       </c>
@@ -9898,7 +9899,7 @@
       </c>
       <c r="S120" s="29"/>
     </row>
-    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>128</v>
       </c>
@@ -9949,7 +9950,7 @@
       </c>
       <c r="S121" s="29"/>
     </row>
-    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>129</v>
       </c>
@@ -10002,7 +10003,7 @@
       </c>
       <c r="S122" s="29"/>
     </row>
-    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>130</v>
       </c>
@@ -10051,7 +10052,7 @@
       </c>
       <c r="S123" s="29"/>
     </row>
-    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>131</v>
       </c>
@@ -10102,7 +10103,7 @@
       </c>
       <c r="S124" s="29"/>
     </row>
-    <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>132</v>
       </c>
@@ -10155,7 +10156,7 @@
       </c>
       <c r="S125" s="29"/>
     </row>
-    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>133</v>
       </c>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="S126" s="29"/>
     </row>
-    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>134</v>
       </c>
@@ -10257,7 +10258,7 @@
       </c>
       <c r="S127" s="29"/>
     </row>
-    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>135</v>
       </c>
@@ -10308,7 +10309,7 @@
       </c>
       <c r="S128" s="29"/>
     </row>
-    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>136</v>
       </c>
@@ -10363,7 +10364,7 @@
       </c>
       <c r="S129" s="29"/>
     </row>
-    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>137</v>
       </c>
@@ -10412,7 +10413,7 @@
       </c>
       <c r="S130" s="29"/>
     </row>
-    <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>138</v>
       </c>
@@ -10461,7 +10462,7 @@
       </c>
       <c r="S131" s="29"/>
     </row>
-    <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>139</v>
       </c>
@@ -10510,7 +10511,7 @@
       </c>
       <c r="S132" s="29"/>
     </row>
-    <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>140</v>
       </c>
@@ -10610,7 +10611,7 @@
       </c>
       <c r="S134" s="29"/>
     </row>
-    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>142</v>
       </c>
@@ -10661,7 +10662,7 @@
       </c>
       <c r="S135" s="29"/>
     </row>
-    <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>143</v>
       </c>
@@ -10712,7 +10713,7 @@
       </c>
       <c r="S136" s="29"/>
     </row>
-    <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>144</v>
       </c>
@@ -10763,7 +10764,7 @@
       </c>
       <c r="S137" s="29"/>
     </row>
-    <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>145</v>
       </c>
@@ -10814,7 +10815,7 @@
       </c>
       <c r="S138" s="29"/>
     </row>
-    <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>146</v>
       </c>
@@ -10863,7 +10864,7 @@
       </c>
       <c r="S139" s="29"/>
     </row>
-    <row r="140" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>147</v>
       </c>
@@ -10912,7 +10913,7 @@
       </c>
       <c r="S140" s="29"/>
     </row>
-    <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>148</v>
       </c>
@@ -10967,7 +10968,7 @@
       </c>
       <c r="S141" s="29"/>
     </row>
-    <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>149</v>
       </c>
@@ -11018,7 +11019,7 @@
       </c>
       <c r="S142" s="29"/>
     </row>
-    <row r="143" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>150</v>
       </c>
@@ -11067,7 +11068,7 @@
       </c>
       <c r="S143" s="29"/>
     </row>
-    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>151</v>
       </c>
@@ -11118,7 +11119,7 @@
       </c>
       <c r="S144" s="29"/>
     </row>
-    <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>152</v>
       </c>
@@ -11171,7 +11172,7 @@
       </c>
       <c r="S145" s="29"/>
     </row>
-    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>153</v>
       </c>
@@ -11220,7 +11221,7 @@
       </c>
       <c r="S146" s="29"/>
     </row>
-    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>154</v>
       </c>
@@ -11271,7 +11272,7 @@
       </c>
       <c r="S147" s="29"/>
     </row>
-    <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>155</v>
       </c>
@@ -11324,7 +11325,7 @@
       </c>
       <c r="S148" s="29"/>
     </row>
-    <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>156</v>
       </c>
@@ -11375,7 +11376,7 @@
       </c>
       <c r="S149" s="29"/>
     </row>
-    <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>157</v>
       </c>
@@ -11426,7 +11427,7 @@
       </c>
       <c r="S150" s="29"/>
     </row>
-    <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>158</v>
       </c>
@@ -11477,7 +11478,7 @@
       </c>
       <c r="S151" s="29"/>
     </row>
-    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>159</v>
       </c>
@@ -11532,7 +11533,7 @@
       </c>
       <c r="S152" s="29"/>
     </row>
-    <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>160</v>
       </c>
@@ -11581,7 +11582,7 @@
       </c>
       <c r="S153" s="29"/>
     </row>
-    <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>161</v>
       </c>
@@ -11630,7 +11631,7 @@
       </c>
       <c r="S154" s="29"/>
     </row>
-    <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>162</v>
       </c>
@@ -11679,7 +11680,7 @@
       </c>
       <c r="S155" s="29"/>
     </row>
-    <row r="156" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>163</v>
       </c>
@@ -11779,7 +11780,7 @@
       </c>
       <c r="S157" s="29"/>
     </row>
-    <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>165</v>
       </c>
@@ -11830,7 +11831,7 @@
       </c>
       <c r="S158" s="29"/>
     </row>
-    <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>166</v>
       </c>
@@ -11881,7 +11882,7 @@
       </c>
       <c r="S159" s="29"/>
     </row>
-    <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>167</v>
       </c>
@@ -11932,7 +11933,7 @@
       </c>
       <c r="S160" s="29"/>
     </row>
-    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>168</v>
       </c>
@@ -11983,7 +11984,7 @@
       </c>
       <c r="S161" s="29"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>169</v>
       </c>
@@ -12032,7 +12033,7 @@
       </c>
       <c r="S162" s="29"/>
     </row>
-    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>170</v>
       </c>
@@ -12081,7 +12082,7 @@
       </c>
       <c r="S163" s="29"/>
     </row>
-    <row r="164" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>171</v>
       </c>
@@ -12136,7 +12137,7 @@
       </c>
       <c r="S164" s="29"/>
     </row>
-    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>172</v>
       </c>
@@ -12187,7 +12188,7 @@
       </c>
       <c r="S165" s="29"/>
     </row>
-    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>173</v>
       </c>
@@ -12236,7 +12237,7 @@
       </c>
       <c r="S166" s="29"/>
     </row>
-    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>174</v>
       </c>
@@ -12287,7 +12288,7 @@
       </c>
       <c r="S167" s="29"/>
     </row>
-    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>175</v>
       </c>
@@ -12340,7 +12341,7 @@
       </c>
       <c r="S168" s="29"/>
     </row>
-    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>176</v>
       </c>
@@ -12389,7 +12390,7 @@
       </c>
       <c r="S169" s="29"/>
     </row>
-    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>177</v>
       </c>
@@ -12440,7 +12441,7 @@
       </c>
       <c r="S170" s="29"/>
     </row>
-    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>178</v>
       </c>
@@ -12493,7 +12494,7 @@
       </c>
       <c r="S171" s="29"/>
     </row>
-    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>179</v>
       </c>
@@ -12544,7 +12545,7 @@
       </c>
       <c r="S172" s="29"/>
     </row>
-    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>180</v>
       </c>
@@ -12595,7 +12596,7 @@
       </c>
       <c r="S173" s="29"/>
     </row>
-    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>181</v>
       </c>
@@ -12646,7 +12647,7 @@
       </c>
       <c r="S174" s="29"/>
     </row>
-    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>182</v>
       </c>
@@ -12701,7 +12702,7 @@
       </c>
       <c r="S175" s="29"/>
     </row>
-    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>183</v>
       </c>
@@ -12750,7 +12751,7 @@
       </c>
       <c r="S176" s="29"/>
     </row>
-    <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>184</v>
       </c>
@@ -12799,7 +12800,7 @@
       </c>
       <c r="S177" s="29"/>
     </row>
-    <row r="178" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>185</v>
       </c>
@@ -12848,7 +12849,7 @@
       </c>
       <c r="S178" s="29"/>
     </row>
-    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>186</v>
       </c>
@@ -12948,7 +12949,7 @@
       </c>
       <c r="S180" s="29"/>
     </row>
-    <row r="181" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>188</v>
       </c>
@@ -12999,7 +13000,7 @@
       </c>
       <c r="S181" s="29"/>
     </row>
-    <row r="182" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>189</v>
       </c>
@@ -13050,7 +13051,7 @@
       </c>
       <c r="S182" s="29"/>
     </row>
-    <row r="183" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>190</v>
       </c>
@@ -13101,7 +13102,7 @@
       </c>
       <c r="S183" s="29"/>
     </row>
-    <row r="184" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>191</v>
       </c>
@@ -13152,7 +13153,7 @@
       </c>
       <c r="S184" s="29"/>
     </row>
-    <row r="185" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>192</v>
       </c>
@@ -13201,7 +13202,7 @@
       </c>
       <c r="S185" s="29"/>
     </row>
-    <row r="186" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>193</v>
       </c>
@@ -13250,7 +13251,7 @@
       </c>
       <c r="S186" s="29"/>
     </row>
-    <row r="187" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>194</v>
       </c>
@@ -13305,7 +13306,7 @@
       </c>
       <c r="S187" s="29"/>
     </row>
-    <row r="188" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>195</v>
       </c>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="S188" s="29"/>
     </row>
-    <row r="189" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>196</v>
       </c>
@@ -13405,7 +13406,7 @@
       </c>
       <c r="S189" s="29"/>
     </row>
-    <row r="190" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>197</v>
       </c>
@@ -13456,7 +13457,7 @@
       </c>
       <c r="S190" s="29"/>
     </row>
-    <row r="191" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>198</v>
       </c>
@@ -13509,7 +13510,7 @@
       </c>
       <c r="S191" s="29"/>
     </row>
-    <row r="192" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>199</v>
       </c>
@@ -13558,7 +13559,7 @@
       </c>
       <c r="S192" s="29"/>
     </row>
-    <row r="193" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>200</v>
       </c>
@@ -13609,7 +13610,7 @@
       </c>
       <c r="S193" s="29"/>
     </row>
-    <row r="194" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>201</v>
       </c>
@@ -13662,7 +13663,7 @@
       </c>
       <c r="S194" s="29"/>
     </row>
-    <row r="195" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>202</v>
       </c>
@@ -13713,7 +13714,7 @@
       </c>
       <c r="S195" s="29"/>
     </row>
-    <row r="196" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>203</v>
       </c>
@@ -13764,7 +13765,7 @@
       </c>
       <c r="S196" s="29"/>
     </row>
-    <row r="197" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>204</v>
       </c>
@@ -13813,7 +13814,7 @@
       </c>
       <c r="S197" s="29"/>
     </row>
-    <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>205</v>
       </c>
@@ -13868,7 +13869,7 @@
       </c>
       <c r="S198" s="29"/>
     </row>
-    <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>206</v>
       </c>
@@ -13917,7 +13918,7 @@
       </c>
       <c r="S199" s="29"/>
     </row>
-    <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>207</v>
       </c>
@@ -13966,7 +13967,7 @@
       </c>
       <c r="S200" s="29"/>
     </row>
-    <row r="201" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>208</v>
       </c>
@@ -14015,7 +14016,7 @@
       </c>
       <c r="S201" s="29"/>
     </row>
-    <row r="202" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>209</v>
       </c>
@@ -14064,7 +14065,7 @@
       </c>
       <c r="S202" s="29"/>
     </row>
-    <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>210</v>
       </c>
@@ -14113,7 +14114,7 @@
       </c>
       <c r="S203" s="29"/>
     </row>
-    <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>211</v>
       </c>
@@ -14164,7 +14165,7 @@
       </c>
       <c r="S204" s="29"/>
     </row>
-    <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>212</v>
       </c>
@@ -14213,7 +14214,7 @@
       </c>
       <c r="S205" s="29"/>
     </row>
-    <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>213</v>
       </c>
@@ -14262,7 +14263,7 @@
       </c>
       <c r="S206" s="29"/>
     </row>
-    <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>214</v>
       </c>
@@ -14311,7 +14312,7 @@
       </c>
       <c r="S207" s="29"/>
     </row>
-    <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>215</v>
       </c>
@@ -14366,7 +14367,7 @@
       </c>
       <c r="S208" s="29"/>
     </row>
-    <row r="209" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>216</v>
       </c>
@@ -14417,7 +14418,7 @@
       </c>
       <c r="S209" s="29"/>
     </row>
-    <row r="210" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>217</v>
       </c>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="S210" s="29"/>
     </row>
-    <row r="211" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>218</v>
       </c>
@@ -14517,7 +14518,7 @@
       </c>
       <c r="S211" s="29"/>
     </row>
-    <row r="212" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>219</v>
       </c>
@@ -14570,7 +14571,7 @@
       </c>
       <c r="S212" s="29"/>
     </row>
-    <row r="213" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>220</v>
       </c>
@@ -14619,7 +14620,7 @@
       </c>
       <c r="S213" s="29"/>
     </row>
-    <row r="214" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>221</v>
       </c>
@@ -14670,7 +14671,7 @@
       </c>
       <c r="S214" s="29"/>
     </row>
-    <row r="215" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>222</v>
       </c>
@@ -14723,7 +14724,7 @@
       </c>
       <c r="S215" s="29"/>
     </row>
-    <row r="216" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>223</v>
       </c>
@@ -14774,7 +14775,7 @@
       </c>
       <c r="S216" s="29"/>
     </row>
-    <row r="217" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>224</v>
       </c>
@@ -14825,7 +14826,7 @@
       </c>
       <c r="S217" s="29"/>
     </row>
-    <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>225</v>
       </c>
@@ -14874,7 +14875,7 @@
       </c>
       <c r="S218" s="29"/>
     </row>
-    <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>226</v>
       </c>
@@ -14929,7 +14930,7 @@
       </c>
       <c r="S219" s="29"/>
     </row>
-    <row r="220" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>227</v>
       </c>
@@ -14978,7 +14979,7 @@
       </c>
       <c r="S220" s="29"/>
     </row>
-    <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>228</v>
       </c>
@@ -15027,7 +15028,7 @@
       </c>
       <c r="S221" s="29"/>
     </row>
-    <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>229</v>
       </c>
@@ -15076,7 +15077,7 @@
       </c>
       <c r="S222" s="29"/>
     </row>
-    <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>230</v>
       </c>
@@ -15125,7 +15126,7 @@
       </c>
       <c r="S223" s="29"/>
     </row>
-    <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>231</v>
       </c>
@@ -15174,7 +15175,7 @@
       </c>
       <c r="S224" s="29"/>
     </row>
-    <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>232</v>
       </c>
@@ -15225,7 +15226,7 @@
       </c>
       <c r="S225" s="29"/>
     </row>
-    <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>233</v>
       </c>
@@ -15274,7 +15275,7 @@
       </c>
       <c r="S226" s="29"/>
     </row>
-    <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>234</v>
       </c>
@@ -15323,7 +15324,7 @@
       </c>
       <c r="S227" s="29"/>
     </row>
-    <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>235</v>
       </c>
@@ -15372,7 +15373,7 @@
       </c>
       <c r="S228" s="29"/>
     </row>
-    <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>236</v>
       </c>
@@ -15427,7 +15428,7 @@
       </c>
       <c r="S229" s="29"/>
     </row>
-    <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>237</v>
       </c>
@@ -15478,7 +15479,7 @@
       </c>
       <c r="S230" s="29"/>
     </row>
-    <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>238</v>
       </c>
@@ -15529,7 +15530,7 @@
       </c>
       <c r="S231" s="29"/>
     </row>
-    <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>239</v>
       </c>
@@ -15578,7 +15579,7 @@
       </c>
       <c r="S232" s="29"/>
     </row>
-    <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>240</v>
       </c>
@@ -15629,7 +15630,7 @@
       </c>
       <c r="S233" s="29"/>
     </row>
-    <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>241</v>
       </c>
@@ -15682,7 +15683,7 @@
       </c>
       <c r="S234" s="29"/>
     </row>
-    <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>242</v>
       </c>
@@ -15731,7 +15732,7 @@
       </c>
       <c r="S235" s="29"/>
     </row>
-    <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>243</v>
       </c>
@@ -15782,7 +15783,7 @@
       </c>
       <c r="S236" s="29"/>
     </row>
-    <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>244</v>
       </c>
@@ -15835,7 +15836,7 @@
       </c>
       <c r="S237" s="29"/>
     </row>
-    <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>245</v>
       </c>
@@ -15886,7 +15887,7 @@
       </c>
       <c r="S238" s="29"/>
     </row>
-    <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>246</v>
       </c>
@@ -15937,7 +15938,7 @@
       </c>
       <c r="S239" s="29"/>
     </row>
-    <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>247</v>
       </c>
@@ -15986,7 +15987,7 @@
       </c>
       <c r="S240" s="29"/>
     </row>
-    <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>248</v>
       </c>
@@ -16041,7 +16042,7 @@
       </c>
       <c r="S241" s="29"/>
     </row>
-    <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>249</v>
       </c>
@@ -16090,7 +16091,7 @@
       </c>
       <c r="S242" s="29"/>
     </row>
-    <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>250</v>
       </c>
@@ -16139,7 +16140,7 @@
       </c>
       <c r="S243" s="29"/>
     </row>
-    <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>251</v>
       </c>
@@ -16188,7 +16189,7 @@
       </c>
       <c r="S244" s="29"/>
     </row>
-    <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>252</v>
       </c>
@@ -16237,7 +16238,7 @@
       </c>
       <c r="S245" s="29"/>
     </row>
-    <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>253</v>
       </c>
@@ -16286,7 +16287,7 @@
       </c>
       <c r="S246" s="29"/>
     </row>
-    <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>254</v>
       </c>
@@ -16337,7 +16338,7 @@
       </c>
       <c r="S247" s="29"/>
     </row>
-    <row r="248" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>255</v>
       </c>
@@ -16386,7 +16387,7 @@
       </c>
       <c r="S248" s="29"/>
     </row>
-    <row r="249" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>256</v>
       </c>
@@ -16435,7 +16436,7 @@
       </c>
       <c r="S249" s="29"/>
     </row>
-    <row r="250" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>257</v>
       </c>
@@ -16484,7 +16485,7 @@
       </c>
       <c r="S250" s="29"/>
     </row>
-    <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>258</v>
       </c>
@@ -16539,7 +16540,7 @@
       </c>
       <c r="S251" s="29"/>
     </row>
-    <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>259</v>
       </c>
@@ -16590,7 +16591,7 @@
       </c>
       <c r="S252" s="29"/>
     </row>
-    <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>260</v>
       </c>
@@ -16641,7 +16642,7 @@
       </c>
       <c r="S253" s="29"/>
     </row>
-    <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>261</v>
       </c>
@@ -16690,7 +16691,7 @@
       </c>
       <c r="S254" s="29"/>
     </row>
-    <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>262</v>
       </c>
@@ -16741,7 +16742,7 @@
       </c>
       <c r="S255" s="29"/>
     </row>
-    <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>263</v>
       </c>
@@ -16794,7 +16795,7 @@
       </c>
       <c r="S256" s="29"/>
     </row>
-    <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>264</v>
       </c>
@@ -16843,7 +16844,7 @@
       </c>
       <c r="S257" s="29"/>
     </row>
-    <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>265</v>
       </c>
@@ -16894,7 +16895,7 @@
       </c>
       <c r="S258" s="29"/>
     </row>
-    <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>266</v>
       </c>
@@ -16947,7 +16948,7 @@
       </c>
       <c r="S259" s="29"/>
     </row>
-    <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>267</v>
       </c>
@@ -16998,7 +16999,7 @@
       </c>
       <c r="S260" s="29"/>
     </row>
-    <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>268</v>
       </c>
@@ -17049,7 +17050,7 @@
       </c>
       <c r="S261" s="29"/>
     </row>
-    <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>269</v>
       </c>
@@ -17098,7 +17099,7 @@
       </c>
       <c r="S262" s="29"/>
     </row>
-    <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>270</v>
       </c>
@@ -17153,7 +17154,7 @@
       </c>
       <c r="S263" s="29"/>
     </row>
-    <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>271</v>
       </c>
@@ -17202,7 +17203,7 @@
       </c>
       <c r="S264" s="29"/>
     </row>
-    <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>272</v>
       </c>
@@ -17251,7 +17252,7 @@
       </c>
       <c r="S265" s="29"/>
     </row>
-    <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>273</v>
       </c>
@@ -17300,7 +17301,7 @@
       </c>
       <c r="S266" s="29"/>
     </row>
-    <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>274</v>
       </c>
@@ -17349,7 +17350,7 @@
       </c>
       <c r="S267" s="29"/>
     </row>
-    <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>275</v>
       </c>
@@ -17398,7 +17399,7 @@
       </c>
       <c r="S268" s="29"/>
     </row>
-    <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>276</v>
       </c>
@@ -17449,7 +17450,7 @@
       </c>
       <c r="S269" s="29"/>
     </row>
-    <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>277</v>
       </c>
@@ -17498,7 +17499,7 @@
       </c>
       <c r="S270" s="29"/>
     </row>
-    <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>278</v>
       </c>
@@ -17547,7 +17548,7 @@
       </c>
       <c r="S271" s="29"/>
     </row>
-    <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>279</v>
       </c>
@@ -17596,7 +17597,7 @@
       </c>
       <c r="S272" s="29"/>
     </row>
-    <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>280</v>
       </c>
@@ -17651,7 +17652,7 @@
       </c>
       <c r="S273" s="29"/>
     </row>
-    <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>281</v>
       </c>
@@ -17702,7 +17703,7 @@
       </c>
       <c r="S274" s="29"/>
     </row>
-    <row r="275" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>282</v>
       </c>
@@ -17751,7 +17752,7 @@
       </c>
       <c r="S275" s="29"/>
     </row>
-    <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>283</v>
       </c>
@@ -17802,7 +17803,7 @@
       </c>
       <c r="S276" s="29"/>
     </row>
-    <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <v>284</v>
       </c>
@@ -17855,7 +17856,7 @@
       </c>
       <c r="S277" s="29"/>
     </row>
-    <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>285</v>
       </c>
@@ -17904,7 +17905,7 @@
       </c>
       <c r="S278" s="29"/>
     </row>
-    <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>286</v>
       </c>
@@ -17955,7 +17956,7 @@
       </c>
       <c r="S279" s="29"/>
     </row>
-    <row r="280" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>287</v>
       </c>
@@ -18008,7 +18009,7 @@
       </c>
       <c r="S280" s="29"/>
     </row>
-    <row r="281" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>288</v>
       </c>
@@ -18059,7 +18060,7 @@
       </c>
       <c r="S281" s="29"/>
     </row>
-    <row r="282" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>289</v>
       </c>
@@ -18110,7 +18111,7 @@
       </c>
       <c r="S282" s="29"/>
     </row>
-    <row r="283" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>290</v>
       </c>
@@ -18159,7 +18160,7 @@
       </c>
       <c r="S283" s="29"/>
     </row>
-    <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>291</v>
       </c>
@@ -18208,7 +18209,7 @@
       </c>
       <c r="S284" s="29"/>
     </row>
-    <row r="285" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>292</v>
       </c>
@@ -18257,7 +18258,7 @@
       </c>
       <c r="S285" s="29"/>
     </row>
-    <row r="286" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>293</v>
       </c>
@@ -18306,7 +18307,7 @@
       </c>
       <c r="S286" s="29"/>
     </row>
-    <row r="287" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>294</v>
       </c>
@@ -18359,7 +18360,7 @@
       </c>
       <c r="S287" s="29"/>
     </row>
-    <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>295</v>
       </c>
@@ -18408,7 +18409,7 @@
       </c>
       <c r="S288" s="29"/>
     </row>
-    <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>296</v>
       </c>
@@ -18457,7 +18458,7 @@
       </c>
       <c r="S289" s="29"/>
     </row>
-    <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>297</v>
       </c>
@@ -18506,7 +18507,7 @@
       </c>
       <c r="S290" s="29"/>
     </row>
-    <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>298</v>
       </c>
@@ -18557,7 +18558,7 @@
       </c>
       <c r="S291" s="29"/>
     </row>
-    <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>299</v>
       </c>
@@ -18606,7 +18607,7 @@
       </c>
       <c r="S292" s="29"/>
     </row>
-    <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>300</v>
       </c>
@@ -18659,7 +18660,7 @@
       </c>
       <c r="S293" s="29"/>
     </row>
-    <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>301</v>
       </c>
@@ -18710,7 +18711,7 @@
       </c>
       <c r="S294" s="29"/>
     </row>
-    <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>302</v>
       </c>
@@ -18759,7 +18760,7 @@
       </c>
       <c r="S295" s="29"/>
     </row>
-    <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>303</v>
       </c>
@@ -18808,7 +18809,7 @@
       </c>
       <c r="S296" s="29"/>
     </row>
-    <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>304</v>
       </c>
@@ -18857,7 +18858,7 @@
       </c>
       <c r="S297" s="29"/>
     </row>
-    <row r="298" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>305</v>
       </c>
@@ -18906,7 +18907,7 @@
       </c>
       <c r="S298" s="29"/>
     </row>
-    <row r="299" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>306</v>
       </c>
@@ -18957,7 +18958,7 @@
       </c>
       <c r="S299" s="29"/>
     </row>
-    <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>307</v>
       </c>
@@ -19006,7 +19007,7 @@
       </c>
       <c r="S300" s="29"/>
     </row>
-    <row r="301" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>308</v>
       </c>
@@ -19055,7 +19056,7 @@
       </c>
       <c r="S301" s="29"/>
     </row>
-    <row r="302" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>309</v>
       </c>
@@ -19104,7 +19105,7 @@
       </c>
       <c r="S302" s="29"/>
     </row>
-    <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>310</v>
       </c>
@@ -19159,7 +19160,7 @@
       </c>
       <c r="S303" s="29"/>
     </row>
-    <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>311</v>
       </c>
@@ -19210,7 +19211,7 @@
       </c>
       <c r="S304" s="29"/>
     </row>
-    <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>312</v>
       </c>
@@ -19261,7 +19262,7 @@
       </c>
       <c r="S305" s="29"/>
     </row>
-    <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>313</v>
       </c>
@@ -19312,7 +19313,7 @@
       </c>
       <c r="S306" s="29"/>
     </row>
-    <row r="307" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>314</v>
       </c>
@@ -19365,7 +19366,7 @@
       </c>
       <c r="S307" s="29"/>
     </row>
-    <row r="308" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>315</v>
       </c>
@@ -19414,7 +19415,7 @@
       </c>
       <c r="S308" s="29"/>
     </row>
-    <row r="309" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>316</v>
       </c>
@@ -19463,7 +19464,7 @@
       </c>
       <c r="S309" s="29"/>
     </row>
-    <row r="310" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>317</v>
       </c>
@@ -19516,7 +19517,7 @@
       </c>
       <c r="S310" s="29"/>
     </row>
-    <row r="311" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>318</v>
       </c>
@@ -19567,7 +19568,7 @@
       </c>
       <c r="S311" s="29"/>
     </row>
-    <row r="312" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>319</v>
       </c>
@@ -19618,7 +19619,7 @@
       </c>
       <c r="S312" s="29"/>
     </row>
-    <row r="313" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>320</v>
       </c>
@@ -19667,7 +19668,7 @@
       </c>
       <c r="S313" s="29"/>
     </row>
-    <row r="314" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>321</v>
       </c>
@@ -19716,7 +19717,7 @@
       </c>
       <c r="S314" s="29"/>
     </row>
-    <row r="315" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>322</v>
       </c>
@@ -19765,7 +19766,7 @@
       </c>
       <c r="S315" s="29"/>
     </row>
-    <row r="316" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>323</v>
       </c>
@@ -19814,7 +19815,7 @@
       </c>
       <c r="S316" s="29"/>
     </row>
-    <row r="317" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>324</v>
       </c>
@@ -19865,7 +19866,7 @@
       </c>
       <c r="S317" s="29"/>
     </row>
-    <row r="318" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>325</v>
       </c>
@@ -19914,7 +19915,7 @@
       </c>
       <c r="S318" s="29"/>
     </row>
-    <row r="319" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>326</v>
       </c>
@@ -19963,7 +19964,7 @@
       </c>
       <c r="S319" s="29"/>
     </row>
-    <row r="320" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>327</v>
       </c>
@@ -20012,7 +20013,7 @@
       </c>
       <c r="S320" s="29"/>
     </row>
-    <row r="321" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>328</v>
       </c>
@@ -20067,7 +20068,7 @@
       </c>
       <c r="S321" s="29"/>
     </row>
-    <row r="322" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>329</v>
       </c>
@@ -20118,7 +20119,7 @@
       </c>
       <c r="S322" s="29"/>
     </row>
-    <row r="323" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>330</v>
       </c>
@@ -20169,7 +20170,7 @@
       </c>
       <c r="S323" s="29"/>
     </row>
-    <row r="324" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>331</v>
       </c>
@@ -20220,7 +20221,7 @@
       </c>
       <c r="S324" s="29"/>
     </row>
-    <row r="325" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>332</v>
       </c>
@@ -20273,7 +20274,7 @@
       </c>
       <c r="S325" s="29"/>
     </row>
-    <row r="326" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>333</v>
       </c>
@@ -20322,7 +20323,7 @@
       </c>
       <c r="S326" s="29"/>
     </row>
-    <row r="327" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>334</v>
       </c>
@@ -20371,7 +20372,7 @@
       </c>
       <c r="S327" s="29"/>
     </row>
-    <row r="328" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>335</v>
       </c>
@@ -20424,7 +20425,7 @@
       </c>
       <c r="S328" s="29"/>
     </row>
-    <row r="329" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>336</v>
       </c>
@@ -20475,7 +20476,7 @@
       </c>
       <c r="S329" s="29"/>
     </row>
-    <row r="330" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>337</v>
       </c>
@@ -20526,7 +20527,7 @@
       </c>
       <c r="S330" s="29"/>
     </row>
-    <row r="331" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>338</v>
       </c>
@@ -20575,7 +20576,7 @@
       </c>
       <c r="S331" s="29"/>
     </row>
-    <row r="332" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>339</v>
       </c>
@@ -20624,7 +20625,7 @@
       </c>
       <c r="S332" s="29"/>
     </row>
-    <row r="333" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>340</v>
       </c>
@@ -20673,7 +20674,7 @@
       </c>
       <c r="S333" s="29"/>
     </row>
-    <row r="334" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>341</v>
       </c>
@@ -20722,7 +20723,7 @@
       </c>
       <c r="S334" s="29"/>
     </row>
-    <row r="335" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>342</v>
       </c>
@@ -20773,7 +20774,7 @@
       </c>
       <c r="S335" s="29"/>
     </row>
-    <row r="336" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>343</v>
       </c>
@@ -20822,7 +20823,7 @@
       </c>
       <c r="S336" s="29"/>
     </row>
-    <row r="337" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>344</v>
       </c>
@@ -20871,7 +20872,7 @@
       </c>
       <c r="S337" s="29"/>
     </row>
-    <row r="338" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>345</v>
       </c>
@@ -20920,7 +20921,7 @@
       </c>
       <c r="S338" s="29"/>
     </row>
-    <row r="339" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>346</v>
       </c>
@@ -20975,7 +20976,7 @@
       </c>
       <c r="S339" s="29"/>
     </row>
-    <row r="340" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>347</v>
       </c>
@@ -21026,7 +21027,7 @@
       </c>
       <c r="S340" s="29"/>
     </row>
-    <row r="341" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>348</v>
       </c>
@@ -21077,7 +21078,7 @@
       </c>
       <c r="S341" s="29"/>
     </row>
-    <row r="342" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>349</v>
       </c>
@@ -21128,7 +21129,7 @@
       </c>
       <c r="S342" s="29"/>
     </row>
-    <row r="343" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>350</v>
       </c>
@@ -21181,7 +21182,7 @@
       </c>
       <c r="S343" s="29"/>
     </row>
-    <row r="344" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <v>351</v>
       </c>
@@ -21230,7 +21231,7 @@
       </c>
       <c r="S344" s="29"/>
     </row>
-    <row r="345" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>352</v>
       </c>
@@ -21279,7 +21280,7 @@
       </c>
       <c r="S345" s="29"/>
     </row>
-    <row r="346" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>353</v>
       </c>
@@ -21332,7 +21333,7 @@
       </c>
       <c r="S346" s="29"/>
     </row>
-    <row r="347" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>354</v>
       </c>
@@ -21383,7 +21384,7 @@
       </c>
       <c r="S347" s="29"/>
     </row>
-    <row r="348" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>355</v>
       </c>
@@ -21434,7 +21435,7 @@
       </c>
       <c r="S348" s="29"/>
     </row>
-    <row r="349" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>356</v>
       </c>
@@ -21483,7 +21484,7 @@
       </c>
       <c r="S349" s="29"/>
     </row>
-    <row r="350" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>357</v>
       </c>
@@ -21532,7 +21533,7 @@
       </c>
       <c r="S350" s="29"/>
     </row>
-    <row r="351" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>358</v>
       </c>
@@ -21581,7 +21582,7 @@
       </c>
       <c r="S351" s="29"/>
     </row>
-    <row r="352" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>359</v>
       </c>
@@ -21630,7 +21631,7 @@
       </c>
       <c r="S352" s="29"/>
     </row>
-    <row r="353" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>360</v>
       </c>
@@ -21681,7 +21682,7 @@
       </c>
       <c r="S353" s="29"/>
     </row>
-    <row r="354" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <v>361</v>
       </c>
@@ -21730,7 +21731,7 @@
       </c>
       <c r="S354" s="29"/>
     </row>
-    <row r="355" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>362</v>
       </c>
@@ -21779,7 +21780,7 @@
       </c>
       <c r="S355" s="29"/>
     </row>
-    <row r="356" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>363</v>
       </c>
@@ -21828,7 +21829,7 @@
       </c>
       <c r="S356" s="29"/>
     </row>
-    <row r="357" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>364</v>
       </c>
@@ -21883,7 +21884,7 @@
       </c>
       <c r="S357" s="29"/>
     </row>
-    <row r="358" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <v>365</v>
       </c>
@@ -21934,7 +21935,7 @@
       </c>
       <c r="S358" s="29"/>
     </row>
-    <row r="359" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <v>366</v>
       </c>
@@ -21985,7 +21986,7 @@
       </c>
       <c r="S359" s="29"/>
     </row>
-    <row r="360" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>367</v>
       </c>
@@ -22036,7 +22037,7 @@
       </c>
       <c r="S360" s="29"/>
     </row>
-    <row r="361" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <v>368</v>
       </c>
@@ -22089,7 +22090,7 @@
       </c>
       <c r="S361" s="29"/>
     </row>
-    <row r="362" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <v>369</v>
       </c>
@@ -22138,7 +22139,7 @@
       </c>
       <c r="S362" s="29"/>
     </row>
-    <row r="363" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>370</v>
       </c>
@@ -22187,7 +22188,7 @@
       </c>
       <c r="S363" s="29"/>
     </row>
-    <row r="364" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <v>371</v>
       </c>
@@ -22240,7 +22241,7 @@
       </c>
       <c r="S364" s="29"/>
     </row>
-    <row r="365" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <v>372</v>
       </c>
@@ -22291,7 +22292,7 @@
       </c>
       <c r="S365" s="29"/>
     </row>
-    <row r="366" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>373</v>
       </c>
@@ -22342,7 +22343,7 @@
       </c>
       <c r="S366" s="29"/>
     </row>
-    <row r="367" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <v>374</v>
       </c>
@@ -22391,7 +22392,7 @@
       </c>
       <c r="S367" s="29"/>
     </row>
-    <row r="368" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>375</v>
       </c>
@@ -22440,7 +22441,7 @@
       </c>
       <c r="S368" s="29"/>
     </row>
-    <row r="369" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>376</v>
       </c>
@@ -22489,7 +22490,7 @@
       </c>
       <c r="S369" s="29"/>
     </row>
-    <row r="370" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>377</v>
       </c>
@@ -22538,7 +22539,7 @@
       </c>
       <c r="S370" s="29"/>
     </row>
-    <row r="371" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>378</v>
       </c>
@@ -22589,7 +22590,7 @@
       </c>
       <c r="S371" s="29"/>
     </row>
-    <row r="372" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <v>379</v>
       </c>
@@ -22638,7 +22639,7 @@
       </c>
       <c r="S372" s="29"/>
     </row>
-    <row r="373" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <v>380</v>
       </c>
@@ -22687,7 +22688,7 @@
       </c>
       <c r="S373" s="29"/>
     </row>
-    <row r="374" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <v>381</v>
       </c>
@@ -22736,7 +22737,7 @@
       </c>
       <c r="S374" s="29"/>
     </row>
-    <row r="375" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>382</v>
       </c>
@@ -22791,7 +22792,7 @@
       </c>
       <c r="S375" s="29"/>
     </row>
-    <row r="376" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <v>383</v>
       </c>
@@ -22842,7 +22843,7 @@
       </c>
       <c r="S376" s="29"/>
     </row>
-    <row r="377" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <v>384</v>
       </c>
@@ -22893,7 +22894,7 @@
       </c>
       <c r="S377" s="29"/>
     </row>
-    <row r="378" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="23">
         <v>385</v>
       </c>
@@ -22944,7 +22945,7 @@
       </c>
       <c r="S378" s="29"/>
     </row>
-    <row r="379" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>386</v>
       </c>
@@ -22997,7 +22998,7 @@
       </c>
       <c r="S379" s="29"/>
     </row>
-    <row r="380" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>387</v>
       </c>
@@ -23046,7 +23047,7 @@
       </c>
       <c r="S380" s="29"/>
     </row>
-    <row r="381" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <v>388</v>
       </c>
@@ -23095,7 +23096,7 @@
       </c>
       <c r="S381" s="29"/>
     </row>
-    <row r="382" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <v>389</v>
       </c>
@@ -23148,7 +23149,7 @@
       </c>
       <c r="S382" s="29"/>
     </row>
-    <row r="383" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>390</v>
       </c>
@@ -23199,7 +23200,7 @@
       </c>
       <c r="S383" s="29"/>
     </row>
-    <row r="384" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <v>391</v>
       </c>
@@ -23250,7 +23251,7 @@
       </c>
       <c r="S384" s="29"/>
     </row>
-    <row r="385" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>392</v>
       </c>
@@ -23299,7 +23300,7 @@
       </c>
       <c r="S385" s="29"/>
     </row>
-    <row r="386" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <v>393</v>
       </c>
@@ -23348,7 +23349,7 @@
       </c>
       <c r="S386" s="29"/>
     </row>
-    <row r="387" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>394</v>
       </c>
@@ -23397,7 +23398,7 @@
       </c>
       <c r="S387" s="29"/>
     </row>
-    <row r="388" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <v>395</v>
       </c>
@@ -23446,7 +23447,7 @@
       </c>
       <c r="S388" s="29"/>
     </row>
-    <row r="389" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <v>396</v>
       </c>
@@ -23497,7 +23498,7 @@
       </c>
       <c r="S389" s="29"/>
     </row>
-    <row r="390" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <v>397</v>
       </c>
@@ -23546,7 +23547,7 @@
       </c>
       <c r="S390" s="29"/>
     </row>
-    <row r="391" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <v>398</v>
       </c>
@@ -23595,7 +23596,7 @@
       </c>
       <c r="S391" s="29"/>
     </row>
-    <row r="392" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <v>399</v>
       </c>
@@ -23644,7 +23645,7 @@
       </c>
       <c r="S392" s="29"/>
     </row>
-    <row r="393" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <v>400</v>
       </c>
@@ -23699,7 +23700,7 @@
       </c>
       <c r="S393" s="29"/>
     </row>
-    <row r="394" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>401</v>
       </c>
@@ -23750,7 +23751,7 @@
       </c>
       <c r="S394" s="29"/>
     </row>
-    <row r="395" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <v>402</v>
       </c>
@@ -23801,7 +23802,7 @@
       </c>
       <c r="S395" s="29"/>
     </row>
-    <row r="396" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <v>403</v>
       </c>
@@ -23852,7 +23853,7 @@
       </c>
       <c r="S396" s="29"/>
     </row>
-    <row r="397" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <v>404</v>
       </c>
@@ -23905,7 +23906,7 @@
       </c>
       <c r="S397" s="29"/>
     </row>
-    <row r="398" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <v>405</v>
       </c>
@@ -23954,7 +23955,7 @@
       </c>
       <c r="S398" s="29"/>
     </row>
-    <row r="399" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <v>406</v>
       </c>
@@ -24003,7 +24004,7 @@
       </c>
       <c r="S399" s="29"/>
     </row>
-    <row r="400" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <v>407</v>
       </c>
@@ -24056,7 +24057,7 @@
       </c>
       <c r="S400" s="29"/>
     </row>
-    <row r="401" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <v>408</v>
       </c>
@@ -24107,7 +24108,7 @@
       </c>
       <c r="S401" s="29"/>
     </row>
-    <row r="402" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <v>409</v>
       </c>
@@ -24158,7 +24159,7 @@
       </c>
       <c r="S402" s="29"/>
     </row>
-    <row r="403" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>410</v>
       </c>
@@ -24207,7 +24208,7 @@
       </c>
       <c r="S403" s="29"/>
     </row>
-    <row r="404" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>411</v>
       </c>
@@ -24256,7 +24257,7 @@
       </c>
       <c r="S404" s="29"/>
     </row>
-    <row r="405" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>412</v>
       </c>
@@ -24305,7 +24306,7 @@
       </c>
       <c r="S405" s="29"/>
     </row>
-    <row r="406" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <v>413</v>
       </c>
@@ -24354,7 +24355,7 @@
       </c>
       <c r="S406" s="29"/>
     </row>
-    <row r="407" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <v>414</v>
       </c>
@@ -24405,7 +24406,7 @@
       </c>
       <c r="S407" s="29"/>
     </row>
-    <row r="408" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>415</v>
       </c>
@@ -24454,7 +24455,7 @@
       </c>
       <c r="S408" s="29"/>
     </row>
-    <row r="409" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>416</v>
       </c>
@@ -24503,7 +24504,7 @@
       </c>
       <c r="S409" s="29"/>
     </row>
-    <row r="410" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>417</v>
       </c>
@@ -24552,7 +24553,7 @@
       </c>
       <c r="S410" s="29"/>
     </row>
-    <row r="411" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>418</v>
       </c>
@@ -24607,7 +24608,7 @@
       </c>
       <c r="S411" s="29"/>
     </row>
-    <row r="412" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <v>419</v>
       </c>
@@ -24658,7 +24659,7 @@
       </c>
       <c r="S412" s="29"/>
     </row>
-    <row r="413" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <v>420</v>
       </c>
@@ -24709,7 +24710,7 @@
       </c>
       <c r="S413" s="29"/>
     </row>
-    <row r="414" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <v>421</v>
       </c>
@@ -24760,7 +24761,7 @@
       </c>
       <c r="S414" s="29"/>
     </row>
-    <row r="415" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>422</v>
       </c>
@@ -24813,7 +24814,7 @@
       </c>
       <c r="S415" s="29"/>
     </row>
-    <row r="416" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <v>423</v>
       </c>
@@ -24862,7 +24863,7 @@
       </c>
       <c r="S416" s="29"/>
     </row>
-    <row r="417" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <v>424</v>
       </c>
@@ -24911,7 +24912,7 @@
       </c>
       <c r="S417" s="29"/>
     </row>
-    <row r="418" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <v>425</v>
       </c>
@@ -24964,7 +24965,7 @@
       </c>
       <c r="S418" s="29"/>
     </row>
-    <row r="419" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>426</v>
       </c>
@@ -25015,7 +25016,7 @@
       </c>
       <c r="S419" s="29"/>
     </row>
-    <row r="420" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <v>427</v>
       </c>
@@ -25064,7 +25065,7 @@
       </c>
       <c r="S420" s="29"/>
     </row>
-    <row r="421" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <v>428</v>
       </c>
@@ -25113,7 +25114,7 @@
       </c>
       <c r="S421" s="29"/>
     </row>
-    <row r="422" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <v>429</v>
       </c>
@@ -25162,7 +25163,7 @@
       </c>
       <c r="S422" s="29"/>
     </row>
-    <row r="423" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <v>430</v>
       </c>
@@ -25211,7 +25212,7 @@
       </c>
       <c r="S423" s="29"/>
     </row>
-    <row r="424" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <v>431</v>
       </c>
@@ -25262,7 +25263,7 @@
       </c>
       <c r="S424" s="29"/>
     </row>
-    <row r="425" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="23">
         <v>432</v>
       </c>
@@ -25311,7 +25312,7 @@
       </c>
       <c r="S425" s="29"/>
     </row>
-    <row r="426" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <v>433</v>
       </c>
@@ -25360,7 +25361,7 @@
       </c>
       <c r="S426" s="29"/>
     </row>
-    <row r="427" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <v>434</v>
       </c>
@@ -25409,7 +25410,7 @@
       </c>
       <c r="S427" s="29"/>
     </row>
-    <row r="428" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <v>435</v>
       </c>
@@ -25464,7 +25465,7 @@
       </c>
       <c r="S428" s="29"/>
     </row>
-    <row r="429" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <v>436</v>
       </c>
@@ -25515,7 +25516,7 @@
       </c>
       <c r="S429" s="29"/>
     </row>
-    <row r="430" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <v>437</v>
       </c>
@@ -25566,7 +25567,7 @@
       </c>
       <c r="S430" s="29"/>
     </row>
-    <row r="431" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <v>438</v>
       </c>
@@ -25617,7 +25618,7 @@
       </c>
       <c r="S431" s="29"/>
     </row>
-    <row r="432" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <v>439</v>
       </c>
@@ -25670,7 +25671,7 @@
       </c>
       <c r="S432" s="29"/>
     </row>
-    <row r="433" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <v>440</v>
       </c>
@@ -25719,7 +25720,7 @@
       </c>
       <c r="S433" s="29"/>
     </row>
-    <row r="434" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <v>441</v>
       </c>
@@ -25768,7 +25769,7 @@
       </c>
       <c r="S434" s="29"/>
     </row>
-    <row r="435" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <v>442</v>
       </c>
@@ -25821,7 +25822,7 @@
       </c>
       <c r="S435" s="29"/>
     </row>
-    <row r="436" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="23">
         <v>443</v>
       </c>
@@ -25872,7 +25873,7 @@
       </c>
       <c r="S436" s="29"/>
     </row>
-    <row r="437" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <v>444</v>
       </c>
@@ -25923,7 +25924,7 @@
       </c>
       <c r="S437" s="29"/>
     </row>
-    <row r="438" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <v>445</v>
       </c>
@@ -25972,7 +25973,7 @@
       </c>
       <c r="S438" s="29"/>
     </row>
-    <row r="439" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <v>446</v>
       </c>
@@ -26021,7 +26022,7 @@
       </c>
       <c r="S439" s="29"/>
     </row>
-    <row r="440" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <v>447</v>
       </c>
@@ -26070,7 +26071,7 @@
       </c>
       <c r="S440" s="29"/>
     </row>
-    <row r="441" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <v>448</v>
       </c>
@@ -26119,7 +26120,7 @@
       </c>
       <c r="S441" s="29"/>
     </row>
-    <row r="442" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="23">
         <v>449</v>
       </c>
@@ -26168,7 +26169,7 @@
       </c>
       <c r="S442" s="29"/>
     </row>
-    <row r="443" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <v>450</v>
       </c>
@@ -26217,7 +26218,7 @@
       </c>
       <c r="S443" s="29"/>
     </row>
-    <row r="444" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <v>451</v>
       </c>
@@ -26270,7 +26271,7 @@
       </c>
       <c r="S444" s="29"/>
     </row>
-    <row r="445" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <v>452</v>
       </c>
@@ -26319,7 +26320,7 @@
       </c>
       <c r="S445" s="29"/>
     </row>
-    <row r="446" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <v>453</v>
       </c>
@@ -26368,7 +26369,7 @@
       </c>
       <c r="S446" s="29"/>
     </row>
-    <row r="447" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <v>454</v>
       </c>
@@ -26423,7 +26424,7 @@
       </c>
       <c r="S447" s="29"/>
     </row>
-    <row r="448" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="23">
         <v>455</v>
       </c>
@@ -26474,7 +26475,7 @@
       </c>
       <c r="S448" s="29"/>
     </row>
-    <row r="449" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <v>456</v>
       </c>
@@ -26525,7 +26526,7 @@
       </c>
       <c r="S449" s="29"/>
     </row>
-    <row r="450" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <v>457</v>
       </c>
@@ -26576,7 +26577,7 @@
       </c>
       <c r="S450" s="29"/>
     </row>
-    <row r="451" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <v>458</v>
       </c>
@@ -26625,7 +26626,7 @@
       </c>
       <c r="S451" s="29"/>
     </row>
-    <row r="452" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="23">
         <v>459</v>
       </c>
@@ -26678,7 +26679,7 @@
       </c>
       <c r="S452" s="29"/>
     </row>
-    <row r="453" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="23">
         <v>460</v>
       </c>
@@ -26727,7 +26728,7 @@
       </c>
       <c r="S453" s="29"/>
     </row>
-    <row r="454" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <v>461</v>
       </c>
@@ -26778,7 +26779,7 @@
       </c>
       <c r="S454" s="29"/>
     </row>
-    <row r="455" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="23">
         <v>462</v>
       </c>
@@ -26833,7 +26834,7 @@
       </c>
       <c r="S455" s="29"/>
     </row>
-    <row r="456" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="23">
         <v>463</v>
       </c>
@@ -26884,7 +26885,7 @@
       </c>
       <c r="S456" s="29"/>
     </row>
-    <row r="457" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="23">
         <v>464</v>
       </c>
@@ -26935,7 +26936,7 @@
       </c>
       <c r="S457" s="29"/>
     </row>
-    <row r="458" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="23">
         <v>465</v>
       </c>
@@ -26984,7 +26985,7 @@
       </c>
       <c r="S458" s="29"/>
     </row>
-    <row r="459" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <v>466</v>
       </c>
@@ -27033,7 +27034,7 @@
       </c>
       <c r="S459" s="29"/>
     </row>
-    <row r="460" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="23">
         <v>467</v>
       </c>
@@ -27082,7 +27083,7 @@
       </c>
       <c r="S460" s="29"/>
     </row>
-    <row r="461" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="23">
         <v>468</v>
       </c>
@@ -27131,7 +27132,7 @@
       </c>
       <c r="S461" s="29"/>
     </row>
-    <row r="462" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <v>469</v>
       </c>
@@ -27180,7 +27181,7 @@
       </c>
       <c r="S462" s="29"/>
     </row>
-    <row r="463" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <v>470</v>
       </c>
@@ -27229,7 +27230,7 @@
       </c>
       <c r="S463" s="29"/>
     </row>
-    <row r="464" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <v>471</v>
       </c>
@@ -27282,7 +27283,7 @@
       </c>
       <c r="S464" s="29"/>
     </row>
-    <row r="465" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="23">
         <v>472</v>
       </c>
@@ -27331,7 +27332,7 @@
       </c>
       <c r="S465" s="29"/>
     </row>
-    <row r="466" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <v>473</v>
       </c>
@@ -27380,7 +27381,7 @@
       </c>
       <c r="S466" s="29"/>
     </row>
-    <row r="467" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="23">
         <v>474</v>
       </c>
@@ -27435,7 +27436,7 @@
       </c>
       <c r="S467" s="29"/>
     </row>
-    <row r="468" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="23">
         <v>475</v>
       </c>
@@ -27486,7 +27487,7 @@
       </c>
       <c r="S468" s="29"/>
     </row>
-    <row r="469" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <v>476</v>
       </c>
@@ -27537,7 +27538,7 @@
       </c>
       <c r="S469" s="29"/>
     </row>
-    <row r="470" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <v>477</v>
       </c>
@@ -27586,7 +27587,7 @@
       </c>
       <c r="S470" s="29"/>
     </row>
-    <row r="471" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <v>478</v>
       </c>
@@ -27639,7 +27640,7 @@
       </c>
       <c r="S471" s="29"/>
     </row>
-    <row r="472" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <v>479</v>
       </c>
@@ -27688,7 +27689,7 @@
       </c>
       <c r="S472" s="29"/>
     </row>
-    <row r="473" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <v>480</v>
       </c>
@@ -27739,7 +27740,7 @@
       </c>
       <c r="S473" s="29"/>
     </row>
-    <row r="474" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="23">
         <v>481</v>
       </c>
@@ -27794,7 +27795,7 @@
       </c>
       <c r="S474" s="29"/>
     </row>
-    <row r="475" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="23">
         <v>482</v>
       </c>
@@ -27845,7 +27846,7 @@
       </c>
       <c r="S475" s="29"/>
     </row>
-    <row r="476" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="23">
         <v>483</v>
       </c>
@@ -27896,7 +27897,7 @@
       </c>
       <c r="S476" s="29"/>
     </row>
-    <row r="477" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="23">
         <v>484</v>
       </c>
@@ -27945,7 +27946,7 @@
       </c>
       <c r="S477" s="29"/>
     </row>
-    <row r="478" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="23">
         <v>485</v>
       </c>
@@ -27994,7 +27995,7 @@
       </c>
       <c r="S478" s="29"/>
     </row>
-    <row r="479" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <v>486</v>
       </c>
@@ -28043,7 +28044,7 @@
       </c>
       <c r="S479" s="29"/>
     </row>
-    <row r="480" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="23">
         <v>487</v>
       </c>
@@ -28092,7 +28093,7 @@
       </c>
       <c r="S480" s="29"/>
     </row>
-    <row r="481" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="23">
         <v>488</v>
       </c>
@@ -28141,7 +28142,7 @@
       </c>
       <c r="S481" s="29"/>
     </row>
-    <row r="482" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="23">
         <v>489</v>
       </c>
@@ -28190,7 +28191,7 @@
       </c>
       <c r="S482" s="29"/>
     </row>
-    <row r="483" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="23">
         <v>490</v>
       </c>
@@ -28243,7 +28244,7 @@
       </c>
       <c r="S483" s="29"/>
     </row>
-    <row r="484" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <v>491</v>
       </c>
@@ -28292,7 +28293,7 @@
       </c>
       <c r="S484" s="29"/>
     </row>
-    <row r="485" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <v>492</v>
       </c>
@@ -28341,7 +28342,7 @@
       </c>
       <c r="S485" s="29"/>
     </row>
-    <row r="486" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="23">
         <v>493</v>
       </c>
@@ -28396,7 +28397,7 @@
       </c>
       <c r="S486" s="29"/>
     </row>
-    <row r="487" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="23">
         <v>494</v>
       </c>
@@ -28447,7 +28448,7 @@
       </c>
       <c r="S487" s="29"/>
     </row>
-    <row r="488" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="23">
         <v>495</v>
       </c>
@@ -28498,7 +28499,7 @@
       </c>
       <c r="S488" s="29"/>
     </row>
-    <row r="489" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <v>496</v>
       </c>
@@ -28549,7 +28550,7 @@
       </c>
       <c r="S489" s="29"/>
     </row>
-    <row r="490" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <v>497</v>
       </c>
@@ -28598,7 +28599,7 @@
       </c>
       <c r="S490" s="29"/>
     </row>
-    <row r="491" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="23">
         <v>498</v>
       </c>
@@ -28651,7 +28652,7 @@
       </c>
       <c r="S491" s="29"/>
     </row>
-    <row r="492" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="23">
         <v>499</v>
       </c>
@@ -28700,7 +28701,7 @@
       </c>
       <c r="S492" s="29"/>
     </row>
-    <row r="493" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="23">
         <v>500</v>
       </c>
@@ -28751,7 +28752,7 @@
       </c>
       <c r="S493" s="29"/>
     </row>
-    <row r="494" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="23">
         <v>501</v>
       </c>
@@ -28806,7 +28807,7 @@
       </c>
       <c r="S494" s="29"/>
     </row>
-    <row r="495" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="23">
         <v>502</v>
       </c>
@@ -28857,7 +28858,7 @@
       </c>
       <c r="S495" s="29"/>
     </row>
-    <row r="496" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="23">
         <v>503</v>
       </c>
@@ -28908,7 +28909,7 @@
       </c>
       <c r="S496" s="29"/>
     </row>
-    <row r="497" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="23">
         <v>504</v>
       </c>
@@ -28957,7 +28958,7 @@
       </c>
       <c r="S497" s="29"/>
     </row>
-    <row r="498" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <v>505</v>
       </c>
@@ -29006,7 +29007,7 @@
       </c>
       <c r="S498" s="29"/>
     </row>
-    <row r="499" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="23">
         <v>506</v>
       </c>
@@ -29055,7 +29056,7 @@
       </c>
       <c r="S499" s="29"/>
     </row>
-    <row r="500" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="23">
         <v>507</v>
       </c>
@@ -29104,7 +29105,7 @@
       </c>
       <c r="S500" s="29"/>
     </row>
-    <row r="501" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="23">
         <v>508</v>
       </c>
@@ -29153,7 +29154,7 @@
       </c>
       <c r="S501" s="29"/>
     </row>
-    <row r="502" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="23">
         <v>509</v>
       </c>
@@ -29202,7 +29203,7 @@
       </c>
       <c r="S502" s="29"/>
     </row>
-    <row r="503" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="23">
         <v>510</v>
       </c>
@@ -29255,7 +29256,7 @@
       </c>
       <c r="S503" s="29"/>
     </row>
-    <row r="504" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="23">
         <v>511</v>
       </c>
@@ -29304,7 +29305,7 @@
       </c>
       <c r="S504" s="29"/>
     </row>
-    <row r="505" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="23">
         <v>512</v>
       </c>
@@ -29353,7 +29354,7 @@
       </c>
       <c r="S505" s="29"/>
     </row>
-    <row r="506" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="23">
         <v>513</v>
       </c>
@@ -29408,7 +29409,7 @@
       </c>
       <c r="S506" s="29"/>
     </row>
-    <row r="507" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="23">
         <v>514</v>
       </c>
@@ -29459,7 +29460,7 @@
       </c>
       <c r="S507" s="29"/>
     </row>
-    <row r="508" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="23">
         <v>515</v>
       </c>
@@ -29510,7 +29511,7 @@
       </c>
       <c r="S508" s="29"/>
     </row>
-    <row r="509" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="23">
         <v>516</v>
       </c>
@@ -29561,7 +29562,7 @@
       </c>
       <c r="S509" s="29"/>
     </row>
-    <row r="510" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="23">
         <v>517</v>
       </c>
@@ -29610,7 +29611,7 @@
       </c>
       <c r="S510" s="29"/>
     </row>
-    <row r="511" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="23">
         <v>518</v>
       </c>
@@ -29663,7 +29664,7 @@
       </c>
       <c r="S511" s="29"/>
     </row>
-    <row r="512" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="23">
         <v>519</v>
       </c>
@@ -29712,7 +29713,7 @@
       </c>
       <c r="S512" s="29"/>
     </row>
-    <row r="513" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="23">
         <v>520</v>
       </c>
@@ -29763,7 +29764,7 @@
       </c>
       <c r="S513" s="29"/>
     </row>
-    <row r="514" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="23">
         <v>521</v>
       </c>
@@ -29818,7 +29819,7 @@
       </c>
       <c r="S514" s="29"/>
     </row>
-    <row r="515" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="23">
         <v>522</v>
       </c>
@@ -29869,7 +29870,7 @@
       </c>
       <c r="S515" s="29"/>
     </row>
-    <row r="516" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="23">
         <v>523</v>
       </c>
@@ -29920,7 +29921,7 @@
       </c>
       <c r="S516" s="29"/>
     </row>
-    <row r="517" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="23">
         <v>524</v>
       </c>
@@ -29969,7 +29970,7 @@
       </c>
       <c r="S517" s="29"/>
     </row>
-    <row r="518" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="23">
         <v>525</v>
       </c>
@@ -30018,7 +30019,7 @@
       </c>
       <c r="S518" s="29"/>
     </row>
-    <row r="519" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="23">
         <v>526</v>
       </c>
@@ -30067,7 +30068,7 @@
       </c>
       <c r="S519" s="29"/>
     </row>
-    <row r="520" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="23">
         <v>527</v>
       </c>
@@ -30116,7 +30117,7 @@
       </c>
       <c r="S520" s="29"/>
     </row>
-    <row r="521" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="23">
         <v>528</v>
       </c>
@@ -30165,7 +30166,7 @@
       </c>
       <c r="S521" s="29"/>
     </row>
-    <row r="522" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="23">
         <v>529</v>
       </c>
@@ -30214,7 +30215,7 @@
       </c>
       <c r="S522" s="29"/>
     </row>
-    <row r="523" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="23">
         <v>530</v>
       </c>
@@ -30263,7 +30264,7 @@
       </c>
       <c r="S523" s="29"/>
     </row>
-    <row r="524" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="23">
         <v>531</v>
       </c>
@@ -30312,7 +30313,7 @@
       </c>
       <c r="S524" s="29"/>
     </row>
-    <row r="525" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="23">
         <v>532</v>
       </c>
@@ -30361,7 +30362,7 @@
       </c>
       <c r="S525" s="29"/>
     </row>
-    <row r="526" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="23">
         <v>533</v>
       </c>
@@ -30414,7 +30415,7 @@
       </c>
       <c r="S526" s="29"/>
     </row>
-    <row r="527" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="23">
         <v>534</v>
       </c>
@@ -30463,7 +30464,7 @@
       </c>
       <c r="S527" s="29"/>
     </row>
-    <row r="528" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="23">
         <v>535</v>
       </c>
@@ -30514,7 +30515,7 @@
       </c>
       <c r="S528" s="29"/>
     </row>
-    <row r="529" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="23">
         <v>536</v>
       </c>
@@ -30567,7 +30568,7 @@
       </c>
       <c r="S529" s="29"/>
     </row>
-    <row r="530" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="23">
         <v>537</v>
       </c>
@@ -30618,7 +30619,7 @@
       </c>
       <c r="S530" s="29"/>
     </row>
-    <row r="531" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="23">
         <v>538</v>
       </c>
@@ -30667,7 +30668,7 @@
       </c>
       <c r="S531" s="29"/>
     </row>
-    <row r="532" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="23">
         <v>539</v>
       </c>
@@ -30716,7 +30717,7 @@
       </c>
       <c r="S532" s="29"/>
     </row>
-    <row r="533" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="23">
         <v>540</v>
       </c>
@@ -30765,7 +30766,7 @@
       </c>
       <c r="S533" s="29"/>
     </row>
-    <row r="534" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="23">
         <v>541</v>
       </c>
@@ -30814,7 +30815,7 @@
       </c>
       <c r="S534" s="29"/>
     </row>
-    <row r="535" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="23">
         <v>542</v>
       </c>
@@ -30863,7 +30864,7 @@
       </c>
       <c r="S535" s="29"/>
     </row>
-    <row r="536" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="23">
         <v>543</v>
       </c>
@@ -30912,7 +30913,7 @@
       </c>
       <c r="S536" s="29"/>
     </row>
-    <row r="537" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="23">
         <v>544</v>
       </c>
@@ -30961,7 +30962,7 @@
       </c>
       <c r="S537" s="29"/>
     </row>
-    <row r="538" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="23">
         <v>545</v>
       </c>
@@ -31010,7 +31011,7 @@
       </c>
       <c r="S538" s="29"/>
     </row>
-    <row r="539" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="23">
         <v>546</v>
       </c>
@@ -31059,7 +31060,7 @@
       </c>
       <c r="S539" s="29"/>
     </row>
-    <row r="540" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="23">
         <v>547</v>
       </c>
@@ -31112,7 +31113,7 @@
       </c>
       <c r="S540" s="29"/>
     </row>
-    <row r="541" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="23">
         <v>548</v>
       </c>
@@ -31161,7 +31162,7 @@
       </c>
       <c r="S541" s="29"/>
     </row>
-    <row r="542" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="23">
         <v>549</v>
       </c>
@@ -31212,7 +31213,7 @@
       </c>
       <c r="S542" s="29"/>
     </row>
-    <row r="543" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="23">
         <v>550</v>
       </c>
@@ -31265,7 +31266,7 @@
       </c>
       <c r="S543" s="29"/>
     </row>
-    <row r="544" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="23">
         <v>551</v>
       </c>
@@ -31316,7 +31317,7 @@
       </c>
       <c r="S544" s="29"/>
     </row>
-    <row r="545" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="23">
         <v>552</v>
       </c>
@@ -31365,7 +31366,7 @@
       </c>
       <c r="S545" s="29"/>
     </row>
-    <row r="546" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="23">
         <v>553</v>
       </c>
@@ -31414,7 +31415,7 @@
       </c>
       <c r="S546" s="29"/>
     </row>
-    <row r="547" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="23">
         <v>554</v>
       </c>
@@ -31465,7 +31466,7 @@
       </c>
       <c r="S547" s="29"/>
     </row>
-    <row r="548" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="23">
         <v>555</v>
       </c>
@@ -31514,7 +31515,7 @@
       </c>
       <c r="S548" s="29"/>
     </row>
-    <row r="549" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="23">
         <v>556</v>
       </c>
@@ -31565,7 +31566,7 @@
       </c>
       <c r="S549" s="29"/>
     </row>
-    <row r="550" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="23">
         <v>557</v>
       </c>
@@ -31614,7 +31615,7 @@
       </c>
       <c r="S550" s="29"/>
     </row>
-    <row r="551" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="23">
         <v>558</v>
       </c>
@@ -31665,7 +31666,7 @@
       </c>
       <c r="S551" s="29"/>
     </row>
-    <row r="552" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="23">
         <v>559</v>
       </c>
@@ -31714,7 +31715,7 @@
       </c>
       <c r="S552" s="29"/>
     </row>
-    <row r="553" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="23">
         <v>560</v>
       </c>
@@ -31765,7 +31766,7 @@
       </c>
       <c r="S553" s="29"/>
     </row>
-    <row r="554" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="23">
         <v>561</v>
       </c>
@@ -31814,7 +31815,7 @@
       </c>
       <c r="S554" s="29"/>
     </row>
-    <row r="555" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="23">
         <v>562</v>
       </c>
@@ -31863,7 +31864,7 @@
       </c>
       <c r="S555" s="29"/>
     </row>
-    <row r="556" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="23">
         <v>563</v>
       </c>
@@ -31914,7 +31915,7 @@
       </c>
       <c r="S556" s="29"/>
     </row>
-    <row r="557" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="23">
         <v>564</v>
       </c>
@@ -31963,7 +31964,7 @@
       </c>
       <c r="S557" s="29"/>
     </row>
-    <row r="558" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="23">
         <v>565</v>
       </c>
@@ -32012,7 +32013,7 @@
       </c>
       <c r="S558" s="29"/>
     </row>
-    <row r="559" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="23">
         <v>566</v>
       </c>
@@ -32063,7 +32064,7 @@
       </c>
       <c r="S559" s="29"/>
     </row>
-    <row r="560" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="23">
         <v>567</v>
       </c>
@@ -32118,7 +32119,7 @@
       </c>
       <c r="S560" s="29"/>
     </row>
-    <row r="561" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="23">
         <v>568</v>
       </c>
@@ -32173,7 +32174,7 @@
       </c>
       <c r="S561" s="29"/>
     </row>
-    <row r="562" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="23">
         <v>569</v>
       </c>
@@ -32224,7 +32225,7 @@
       </c>
       <c r="S562" s="29"/>
     </row>
-    <row r="563" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="23">
         <v>570</v>
       </c>
@@ -32273,7 +32274,7 @@
       </c>
       <c r="S563" s="29"/>
     </row>
-    <row r="564" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="23">
         <v>571</v>
       </c>
@@ -32322,7 +32323,7 @@
       </c>
       <c r="S564" s="29"/>
     </row>
-    <row r="565" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="23">
         <v>572</v>
       </c>
@@ -32371,7 +32372,7 @@
       </c>
       <c r="S565" s="29"/>
     </row>
-    <row r="566" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="23">
         <v>573</v>
       </c>
@@ -32424,7 +32425,7 @@
       </c>
       <c r="S566" s="29"/>
     </row>
-    <row r="567" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="23">
         <v>574</v>
       </c>
@@ -32479,7 +32480,7 @@
       </c>
       <c r="S567" s="29"/>
     </row>
-    <row r="568" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="23">
         <v>575</v>
       </c>
@@ -32530,7 +32531,7 @@
       </c>
       <c r="S568" s="29"/>
     </row>
-    <row r="569" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="23">
         <v>576</v>
       </c>
@@ -32579,7 +32580,7 @@
       </c>
       <c r="S569" s="29"/>
     </row>
-    <row r="570" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="23">
         <v>577</v>
       </c>
@@ -32632,7 +32633,7 @@
       </c>
       <c r="S570" s="29"/>
     </row>
-    <row r="571" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="23">
         <v>578</v>
       </c>
@@ -32683,7 +32684,7 @@
       </c>
       <c r="S571" s="29"/>
     </row>
-    <row r="572" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="23">
         <v>580</v>
       </c>
@@ -32734,7 +32735,7 @@
       </c>
       <c r="S572" s="29"/>
     </row>
-    <row r="573" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="23">
         <v>581</v>
       </c>
@@ -32783,7 +32784,7 @@
       </c>
       <c r="S573" s="29"/>
     </row>
-    <row r="574" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="23">
         <v>582</v>
       </c>
@@ -32832,7 +32833,7 @@
       </c>
       <c r="S574" s="29"/>
     </row>
-    <row r="575" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="23">
         <v>583</v>
       </c>
@@ -32883,7 +32884,7 @@
       </c>
       <c r="S575" s="29"/>
     </row>
-    <row r="576" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="23">
         <v>584</v>
       </c>
@@ -32932,7 +32933,7 @@
       </c>
       <c r="S576" s="29"/>
     </row>
-    <row r="577" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="23">
         <v>585</v>
       </c>
@@ -32983,7 +32984,7 @@
       </c>
       <c r="S577" s="29"/>
     </row>
-    <row r="578" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="23">
         <v>586</v>
       </c>
@@ -33032,7 +33033,7 @@
       </c>
       <c r="S578" s="29"/>
     </row>
-    <row r="579" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="23">
         <v>587</v>
       </c>
@@ -33083,7 +33084,7 @@
       </c>
       <c r="S579" s="29"/>
     </row>
-    <row r="580" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="23">
         <v>588</v>
       </c>
@@ -33132,7 +33133,7 @@
       </c>
       <c r="S580" s="29"/>
     </row>
-    <row r="581" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="23">
         <v>589</v>
       </c>
@@ -33183,7 +33184,7 @@
       </c>
       <c r="S581" s="29"/>
     </row>
-    <row r="582" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="23">
         <v>590</v>
       </c>
@@ -33232,7 +33233,7 @@
       </c>
       <c r="S582" s="29"/>
     </row>
-    <row r="583" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="23">
         <v>591</v>
       </c>
@@ -33281,7 +33282,7 @@
       </c>
       <c r="S583" s="29"/>
     </row>
-    <row r="584" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="23">
         <v>592</v>
       </c>
@@ -33332,7 +33333,7 @@
       </c>
       <c r="S584" s="29"/>
     </row>
-    <row r="585" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="23">
         <v>593</v>
       </c>
@@ -33381,7 +33382,7 @@
       </c>
       <c r="S585" s="29"/>
     </row>
-    <row r="586" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="23">
         <v>594</v>
       </c>
@@ -33430,7 +33431,7 @@
       </c>
       <c r="S586" s="29"/>
     </row>
-    <row r="587" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="23">
         <v>595</v>
       </c>
@@ -33481,7 +33482,7 @@
       </c>
       <c r="S587" s="29"/>
     </row>
-    <row r="588" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="23">
         <v>596</v>
       </c>
@@ -33536,7 +33537,7 @@
       </c>
       <c r="S588" s="29"/>
     </row>
-    <row r="589" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="23">
         <v>597</v>
       </c>
@@ -33591,7 +33592,7 @@
       </c>
       <c r="S589" s="29"/>
     </row>
-    <row r="590" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="23">
         <v>598</v>
       </c>
@@ -33642,7 +33643,7 @@
       </c>
       <c r="S590" s="29"/>
     </row>
-    <row r="591" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="23">
         <v>599</v>
       </c>
@@ -33691,7 +33692,7 @@
       </c>
       <c r="S591" s="29"/>
     </row>
-    <row r="592" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="23">
         <v>600</v>
       </c>
@@ -33740,7 +33741,7 @@
       </c>
       <c r="S592" s="29"/>
     </row>
-    <row r="593" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="23">
         <v>601</v>
       </c>
@@ -33789,7 +33790,7 @@
       </c>
       <c r="S593" s="29"/>
     </row>
-    <row r="594" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="23">
         <v>602</v>
       </c>
@@ -33842,7 +33843,7 @@
       </c>
       <c r="S594" s="29"/>
     </row>
-    <row r="595" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="23">
         <v>603</v>
       </c>
@@ -33897,7 +33898,7 @@
       </c>
       <c r="S595" s="29"/>
     </row>
-    <row r="596" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="23">
         <v>604</v>
       </c>
@@ -33948,7 +33949,7 @@
       </c>
       <c r="S596" s="29"/>
     </row>
-    <row r="597" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="23">
         <v>605</v>
       </c>
@@ -33997,7 +33998,7 @@
       </c>
       <c r="S597" s="29"/>
     </row>
-    <row r="598" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="23">
         <v>606</v>
       </c>
@@ -34050,7 +34051,7 @@
       </c>
       <c r="S598" s="29"/>
     </row>
-    <row r="599" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="23">
         <v>607</v>
       </c>
@@ -34101,7 +34102,7 @@
       </c>
       <c r="S599" s="29"/>
     </row>
-    <row r="600" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="23">
         <v>608</v>
       </c>
@@ -34152,7 +34153,7 @@
       </c>
       <c r="S600" s="29"/>
     </row>
-    <row r="601" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="23">
         <v>609</v>
       </c>
@@ -34201,7 +34202,7 @@
       </c>
       <c r="S601" s="29"/>
     </row>
-    <row r="602" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="23">
         <v>610</v>
       </c>
@@ -34250,7 +34251,7 @@
       </c>
       <c r="S602" s="29"/>
     </row>
-    <row r="603" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="23">
         <v>611</v>
       </c>
@@ -34301,7 +34302,7 @@
       </c>
       <c r="S603" s="29"/>
     </row>
-    <row r="604" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="23">
         <v>612</v>
       </c>
@@ -34350,7 +34351,7 @@
       </c>
       <c r="S604" s="29"/>
     </row>
-    <row r="605" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="23">
         <v>613</v>
       </c>
@@ -34401,7 +34402,7 @@
       </c>
       <c r="S605" s="29"/>
     </row>
-    <row r="606" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="23">
         <v>614</v>
       </c>
@@ -34450,7 +34451,7 @@
       </c>
       <c r="S606" s="29"/>
     </row>
-    <row r="607" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="23">
         <v>615</v>
       </c>
@@ -34501,7 +34502,7 @@
       </c>
       <c r="S607" s="29"/>
     </row>
-    <row r="608" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="23">
         <v>616</v>
       </c>
@@ -34550,7 +34551,7 @@
       </c>
       <c r="S608" s="29"/>
     </row>
-    <row r="609" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="23">
         <v>617</v>
       </c>
@@ -34601,7 +34602,7 @@
       </c>
       <c r="S609" s="29"/>
     </row>
-    <row r="610" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="23">
         <v>618</v>
       </c>
@@ -34650,7 +34651,7 @@
       </c>
       <c r="S610" s="29"/>
     </row>
-    <row r="611" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="23">
         <v>619</v>
       </c>
@@ -34699,7 +34700,7 @@
       </c>
       <c r="S611" s="29"/>
     </row>
-    <row r="612" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="23">
         <v>620</v>
       </c>
@@ -34750,7 +34751,7 @@
       </c>
       <c r="S612" s="29"/>
     </row>
-    <row r="613" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="23">
         <v>621</v>
       </c>
@@ -34799,7 +34800,7 @@
       </c>
       <c r="S613" s="29"/>
     </row>
-    <row r="614" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="23">
         <v>622</v>
       </c>
@@ -34848,7 +34849,7 @@
       </c>
       <c r="S614" s="29"/>
     </row>
-    <row r="615" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="23">
         <v>623</v>
       </c>
@@ -34899,7 +34900,7 @@
       </c>
       <c r="S615" s="29"/>
     </row>
-    <row r="616" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="23">
         <v>624</v>
       </c>
@@ -34954,7 +34955,7 @@
       </c>
       <c r="S616" s="29"/>
     </row>
-    <row r="617" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="23">
         <v>625</v>
       </c>
@@ -35009,7 +35010,7 @@
       </c>
       <c r="S617" s="29"/>
     </row>
-    <row r="618" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="23">
         <v>626</v>
       </c>
@@ -35060,7 +35061,7 @@
       </c>
       <c r="S618" s="29"/>
     </row>
-    <row r="619" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="23">
         <v>627</v>
       </c>
@@ -35109,7 +35110,7 @@
       </c>
       <c r="S619" s="29"/>
     </row>
-    <row r="620" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="23">
         <v>628</v>
       </c>
@@ -35158,7 +35159,7 @@
       </c>
       <c r="S620" s="29"/>
     </row>
-    <row r="621" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="23">
         <v>629</v>
       </c>
@@ -35207,7 +35208,7 @@
       </c>
       <c r="S621" s="29"/>
     </row>
-    <row r="622" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="23">
         <v>630</v>
       </c>
@@ -35260,7 +35261,7 @@
       </c>
       <c r="S622" s="29"/>
     </row>
-    <row r="623" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="23">
         <v>631</v>
       </c>
@@ -35315,7 +35316,7 @@
       </c>
       <c r="S623" s="29"/>
     </row>
-    <row r="624" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="23">
         <v>632</v>
       </c>
@@ -35366,7 +35367,7 @@
       </c>
       <c r="S624" s="29"/>
     </row>
-    <row r="625" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="23">
         <v>633</v>
       </c>
@@ -35415,7 +35416,7 @@
       </c>
       <c r="S625" s="29"/>
     </row>
-    <row r="626" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="23">
         <v>634</v>
       </c>
@@ -35468,7 +35469,7 @@
       </c>
       <c r="S626" s="29"/>
     </row>
-    <row r="627" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="23">
         <v>635</v>
       </c>
@@ -35519,7 +35520,7 @@
       </c>
       <c r="S627" s="29"/>
     </row>
-    <row r="628" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="23">
         <v>636</v>
       </c>
@@ -35570,7 +35571,7 @@
       </c>
       <c r="S628" s="29"/>
     </row>
-    <row r="629" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="23">
         <v>637</v>
       </c>
@@ -35619,7 +35620,7 @@
       </c>
       <c r="S629" s="29"/>
     </row>
-    <row r="630" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="23">
         <v>638</v>
       </c>
@@ -35668,7 +35669,7 @@
       </c>
       <c r="S630" s="29"/>
     </row>
-    <row r="631" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="23">
         <v>639</v>
       </c>
@@ -35719,7 +35720,7 @@
       </c>
       <c r="S631" s="29"/>
     </row>
-    <row r="632" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="23">
         <v>640</v>
       </c>
@@ -35768,7 +35769,7 @@
       </c>
       <c r="S632" s="29"/>
     </row>
-    <row r="633" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="23">
         <v>641</v>
       </c>
@@ -35819,7 +35820,7 @@
       </c>
       <c r="S633" s="29"/>
     </row>
-    <row r="634" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="23">
         <v>642</v>
       </c>
@@ -35868,7 +35869,7 @@
       </c>
       <c r="S634" s="29"/>
     </row>
-    <row r="635" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="23">
         <v>643</v>
       </c>
@@ -35919,7 +35920,7 @@
       </c>
       <c r="S635" s="29"/>
     </row>
-    <row r="636" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="23">
         <v>644</v>
       </c>
@@ -35968,7 +35969,7 @@
       </c>
       <c r="S636" s="29"/>
     </row>
-    <row r="637" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="23">
         <v>645</v>
       </c>
@@ -36019,7 +36020,7 @@
       </c>
       <c r="S637" s="29"/>
     </row>
-    <row r="638" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="23">
         <v>646</v>
       </c>
@@ -36068,7 +36069,7 @@
       </c>
       <c r="S638" s="29"/>
     </row>
-    <row r="639" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="23">
         <v>647</v>
       </c>
@@ -36117,7 +36118,7 @@
       </c>
       <c r="S639" s="29"/>
     </row>
-    <row r="640" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="23">
         <v>648</v>
       </c>
@@ -36168,7 +36169,7 @@
       </c>
       <c r="S640" s="29"/>
     </row>
-    <row r="641" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="23">
         <v>649</v>
       </c>
@@ -36217,7 +36218,7 @@
       </c>
       <c r="S641" s="29"/>
     </row>
-    <row r="642" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="23">
         <v>650</v>
       </c>
@@ -36266,7 +36267,7 @@
       </c>
       <c r="S642" s="29"/>
     </row>
-    <row r="643" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="23">
         <v>651</v>
       </c>
@@ -36317,7 +36318,7 @@
       </c>
       <c r="S643" s="29"/>
     </row>
-    <row r="644" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="23">
         <v>652</v>
       </c>
@@ -36372,7 +36373,7 @@
       </c>
       <c r="S644" s="29"/>
     </row>
-    <row r="645" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="23">
         <v>653</v>
       </c>
@@ -36427,7 +36428,7 @@
       </c>
       <c r="S645" s="29"/>
     </row>
-    <row r="646" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="23">
         <v>654</v>
       </c>
@@ -36478,7 +36479,7 @@
       </c>
       <c r="S646" s="29"/>
     </row>
-    <row r="647" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="23">
         <v>655</v>
       </c>
@@ -36527,7 +36528,7 @@
       </c>
       <c r="S647" s="29"/>
     </row>
-    <row r="648" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="23">
         <v>657</v>
       </c>
@@ -36576,7 +36577,7 @@
       </c>
       <c r="S648" s="29"/>
     </row>
-    <row r="649" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="23">
         <v>658</v>
       </c>
@@ -36625,7 +36626,7 @@
       </c>
       <c r="S649" s="29"/>
     </row>
-    <row r="650" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="23">
         <v>659</v>
       </c>
@@ -36678,7 +36679,7 @@
       </c>
       <c r="S650" s="29"/>
     </row>
-    <row r="651" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="23">
         <v>660</v>
       </c>
@@ -36733,7 +36734,7 @@
       </c>
       <c r="S651" s="29"/>
     </row>
-    <row r="652" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="23">
         <v>661</v>
       </c>
@@ -36784,7 +36785,7 @@
       </c>
       <c r="S652" s="29"/>
     </row>
-    <row r="653" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="23">
         <v>662</v>
       </c>
@@ -36833,7 +36834,7 @@
       </c>
       <c r="S653" s="29"/>
     </row>
-    <row r="654" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="23">
         <v>663</v>
       </c>
@@ -36886,7 +36887,7 @@
       </c>
       <c r="S654" s="29"/>
     </row>
-    <row r="655" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="23">
         <v>664</v>
       </c>
@@ -36937,7 +36938,7 @@
       </c>
       <c r="S655" s="29"/>
     </row>
-    <row r="656" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="23">
         <v>665</v>
       </c>
@@ -36988,7 +36989,7 @@
       </c>
       <c r="S656" s="29"/>
     </row>
-    <row r="657" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="23">
         <v>666</v>
       </c>
@@ -37037,7 +37038,7 @@
       </c>
       <c r="S657" s="29"/>
     </row>
-    <row r="658" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="23">
         <v>667</v>
       </c>
@@ -37086,7 +37087,7 @@
       </c>
       <c r="S658" s="29"/>
     </row>
-    <row r="659" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="23">
         <v>668</v>
       </c>
@@ -37137,7 +37138,7 @@
       </c>
       <c r="S659" s="29"/>
     </row>
-    <row r="660" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="23">
         <v>669</v>
       </c>
@@ -37186,7 +37187,7 @@
       </c>
       <c r="S660" s="29"/>
     </row>
-    <row r="661" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="23">
         <v>670</v>
       </c>
@@ -37237,7 +37238,7 @@
       </c>
       <c r="S661" s="29"/>
     </row>
-    <row r="662" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="23">
         <v>671</v>
       </c>
@@ -37286,7 +37287,7 @@
       </c>
       <c r="S662" s="29"/>
     </row>
-    <row r="663" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="23">
         <v>672</v>
       </c>
@@ -37337,7 +37338,7 @@
       </c>
       <c r="S663" s="29"/>
     </row>
-    <row r="664" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="23">
         <v>673</v>
       </c>
@@ -37386,7 +37387,7 @@
       </c>
       <c r="S664" s="29"/>
     </row>
-    <row r="665" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="23">
         <v>674</v>
       </c>
@@ -37437,7 +37438,7 @@
       </c>
       <c r="S665" s="29"/>
     </row>
-    <row r="666" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="23">
         <v>675</v>
       </c>
@@ -37486,7 +37487,7 @@
       </c>
       <c r="S666" s="29"/>
     </row>
-    <row r="667" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="23">
         <v>676</v>
       </c>
@@ -37535,7 +37536,7 @@
       </c>
       <c r="S667" s="29"/>
     </row>
-    <row r="668" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="23">
         <v>677</v>
       </c>
@@ -37586,7 +37587,7 @@
       </c>
       <c r="S668" s="29"/>
     </row>
-    <row r="669" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="23">
         <v>678</v>
       </c>
@@ -37635,7 +37636,7 @@
       </c>
       <c r="S669" s="29"/>
     </row>
-    <row r="670" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="23">
         <v>679</v>
       </c>
@@ -37684,7 +37685,7 @@
       </c>
       <c r="S670" s="29"/>
     </row>
-    <row r="671" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="23">
         <v>680</v>
       </c>
@@ -37735,7 +37736,7 @@
       </c>
       <c r="S671" s="29"/>
     </row>
-    <row r="672" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="23">
         <v>681</v>
       </c>
@@ -37790,7 +37791,7 @@
       </c>
       <c r="S672" s="29"/>
     </row>
-    <row r="673" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="23">
         <v>682</v>
       </c>
@@ -37845,7 +37846,7 @@
       </c>
       <c r="S673" s="29"/>
     </row>
-    <row r="674" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="23">
         <v>683</v>
       </c>
@@ -37896,7 +37897,7 @@
       </c>
       <c r="S674" s="29"/>
     </row>
-    <row r="675" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="23">
         <v>684</v>
       </c>
@@ -37945,7 +37946,7 @@
       </c>
       <c r="S675" s="29"/>
     </row>
-    <row r="676" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="23">
         <v>685</v>
       </c>
@@ -37994,7 +37995,7 @@
       </c>
       <c r="S676" s="29"/>
     </row>
-    <row r="677" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="23">
         <v>686</v>
       </c>
@@ -38043,7 +38044,7 @@
       </c>
       <c r="S677" s="29"/>
     </row>
-    <row r="678" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="23">
         <v>687</v>
       </c>
@@ -38096,7 +38097,7 @@
       </c>
       <c r="S678" s="29"/>
     </row>
-    <row r="679" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="23">
         <v>688</v>
       </c>
@@ -38151,7 +38152,7 @@
       </c>
       <c r="S679" s="29"/>
     </row>
-    <row r="680" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="23">
         <v>689</v>
       </c>
@@ -38202,7 +38203,7 @@
       </c>
       <c r="S680" s="29"/>
     </row>
-    <row r="681" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="23">
         <v>690</v>
       </c>
@@ -38251,7 +38252,7 @@
       </c>
       <c r="S681" s="29"/>
     </row>
-    <row r="682" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="23">
         <v>691</v>
       </c>
@@ -38304,7 +38305,7 @@
       </c>
       <c r="S682" s="29"/>
     </row>
-    <row r="683" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="23">
         <v>692</v>
       </c>
@@ -38355,7 +38356,7 @@
       </c>
       <c r="S683" s="29"/>
     </row>
-    <row r="684" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="23">
         <v>693</v>
       </c>
@@ -38406,7 +38407,7 @@
       </c>
       <c r="S684" s="29"/>
     </row>
-    <row r="685" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="23">
         <v>694</v>
       </c>
@@ -38455,7 +38456,7 @@
       </c>
       <c r="S685" s="29"/>
     </row>
-    <row r="686" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="23">
         <v>695</v>
       </c>
@@ -38504,7 +38505,7 @@
       </c>
       <c r="S686" s="29"/>
     </row>
-    <row r="687" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="23">
         <v>696</v>
       </c>
@@ -38555,7 +38556,7 @@
       </c>
       <c r="S687" s="29"/>
     </row>
-    <row r="688" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="23">
         <v>697</v>
       </c>
@@ -38604,7 +38605,7 @@
       </c>
       <c r="S688" s="29"/>
     </row>
-    <row r="689" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="23">
         <v>698</v>
       </c>
@@ -38655,7 +38656,7 @@
       </c>
       <c r="S689" s="29"/>
     </row>
-    <row r="690" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="23">
         <v>699</v>
       </c>
@@ -38704,7 +38705,7 @@
       </c>
       <c r="S690" s="29"/>
     </row>
-    <row r="691" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="23">
         <v>700</v>
       </c>
@@ -38755,7 +38756,7 @@
       </c>
       <c r="S691" s="29"/>
     </row>
-    <row r="692" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="23">
         <v>701</v>
       </c>
@@ -38804,7 +38805,7 @@
       </c>
       <c r="S692" s="29"/>
     </row>
-    <row r="693" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="23">
         <v>702</v>
       </c>
@@ -38855,7 +38856,7 @@
       </c>
       <c r="S693" s="29"/>
     </row>
-    <row r="694" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="23">
         <v>703</v>
       </c>
@@ -38904,7 +38905,7 @@
       </c>
       <c r="S694" s="29"/>
     </row>
-    <row r="695" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="23">
         <v>704</v>
       </c>
@@ -38953,7 +38954,7 @@
       </c>
       <c r="S695" s="29"/>
     </row>
-    <row r="696" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="23">
         <v>705</v>
       </c>
@@ -39004,7 +39005,7 @@
       </c>
       <c r="S696" s="29"/>
     </row>
-    <row r="697" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="23">
         <v>706</v>
       </c>
@@ -39053,7 +39054,7 @@
       </c>
       <c r="S697" s="29"/>
     </row>
-    <row r="698" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="23">
         <v>707</v>
       </c>
@@ -39102,7 +39103,7 @@
       </c>
       <c r="S698" s="29"/>
     </row>
-    <row r="699" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="23">
         <v>708</v>
       </c>
@@ -39153,7 +39154,7 @@
       </c>
       <c r="S699" s="29"/>
     </row>
-    <row r="700" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="23">
         <v>709</v>
       </c>
@@ -39208,7 +39209,7 @@
       </c>
       <c r="S700" s="29"/>
     </row>
-    <row r="701" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="23">
         <v>710</v>
       </c>
@@ -39263,7 +39264,7 @@
       </c>
       <c r="S701" s="29"/>
     </row>
-    <row r="702" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="23">
         <v>711</v>
       </c>
@@ -39314,7 +39315,7 @@
       </c>
       <c r="S702" s="29"/>
     </row>
-    <row r="703" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="23">
         <v>712</v>
       </c>
@@ -39363,7 +39364,7 @@
       </c>
       <c r="S703" s="29"/>
     </row>
-    <row r="704" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="23">
         <v>713</v>
       </c>
@@ -39412,7 +39413,7 @@
       </c>
       <c r="S704" s="29"/>
     </row>
-    <row r="705" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="23">
         <v>714</v>
       </c>
@@ -39461,7 +39462,7 @@
       </c>
       <c r="S705" s="29"/>
     </row>
-    <row r="706" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="23">
         <v>715</v>
       </c>
@@ -39514,7 +39515,7 @@
       </c>
       <c r="S706" s="29"/>
     </row>
-    <row r="707" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="23">
         <v>716</v>
       </c>
@@ -39569,7 +39570,7 @@
       </c>
       <c r="S707" s="29"/>
     </row>
-    <row r="708" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="23">
         <v>717</v>
       </c>
@@ -39620,7 +39621,7 @@
       </c>
       <c r="S708" s="29"/>
     </row>
-    <row r="709" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="23">
         <v>718</v>
       </c>
@@ -39669,7 +39670,7 @@
       </c>
       <c r="S709" s="29"/>
     </row>
-    <row r="710" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="23">
         <v>719</v>
       </c>
@@ -39722,7 +39723,7 @@
       </c>
       <c r="S710" s="29"/>
     </row>
-    <row r="711" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="23">
         <v>720</v>
       </c>
@@ -39773,7 +39774,7 @@
       </c>
       <c r="S711" s="29"/>
     </row>
-    <row r="712" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="23">
         <v>721</v>
       </c>
@@ -39826,7 +39827,7 @@
       </c>
       <c r="S712" s="29"/>
     </row>
-    <row r="713" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="23">
         <v>722</v>
       </c>
@@ -39879,7 +39880,7 @@
       </c>
       <c r="S713" s="29"/>
     </row>
-    <row r="714" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="23">
         <v>723</v>
       </c>
@@ -39932,7 +39933,7 @@
       </c>
       <c r="S714" s="29"/>
     </row>
-    <row r="715" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="23">
         <v>724</v>
       </c>
@@ -39981,7 +39982,7 @@
       </c>
       <c r="S715" s="29"/>
     </row>
-    <row r="716" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="23">
         <v>725</v>
       </c>
@@ -40034,7 +40035,7 @@
       </c>
       <c r="S716" s="29"/>
     </row>
-    <row r="717" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="23">
         <v>726</v>
       </c>
@@ -40087,7 +40088,7 @@
       </c>
       <c r="S717" s="29"/>
     </row>
-    <row r="718" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="23">
         <v>727</v>
       </c>
@@ -40140,7 +40141,7 @@
       </c>
       <c r="S718" s="29"/>
     </row>
-    <row r="719" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="23">
         <v>728</v>
       </c>
@@ -40193,7 +40194,7 @@
       </c>
       <c r="S719" s="29"/>
     </row>
-    <row r="720" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="23">
         <v>729</v>
       </c>
@@ -40246,7 +40247,7 @@
       </c>
       <c r="S720" s="29"/>
     </row>
-    <row r="721" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="23">
         <v>730</v>
       </c>
@@ -40299,7 +40300,7 @@
       </c>
       <c r="S721" s="29"/>
     </row>
-    <row r="722" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="23">
         <v>731</v>
       </c>
@@ -40354,7 +40355,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="723" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="23">
         <v>732</v>
       </c>
@@ -40409,7 +40410,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="724" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="23">
         <v>733</v>
       </c>
@@ -40464,7 +40465,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="725" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="23">
         <v>734</v>
       </c>
@@ -40519,7 +40520,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="726" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="23">
         <v>735</v>
       </c>
@@ -40566,7 +40567,7 @@
       </c>
       <c r="S726" s="29"/>
     </row>
-    <row r="727" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="23">
         <v>736</v>
       </c>
@@ -40619,7 +40620,7 @@
       </c>
       <c r="S727" s="29"/>
     </row>
-    <row r="728" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="23">
         <v>737</v>
       </c>
@@ -40672,7 +40673,7 @@
       </c>
       <c r="S728" s="29"/>
     </row>
-    <row r="729" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="23">
         <v>738</v>
       </c>
@@ -40774,7 +40775,7 @@
       </c>
       <c r="S730" s="29"/>
     </row>
-    <row r="731" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="23">
         <v>740</v>
       </c>
@@ -40827,7 +40828,7 @@
       </c>
       <c r="S731" s="29"/>
     </row>
-    <row r="732" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="23">
         <v>741</v>
       </c>
@@ -40876,7 +40877,7 @@
       </c>
       <c r="S732" s="29"/>
     </row>
-    <row r="733" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="23">
         <v>742</v>
       </c>
@@ -40925,7 +40926,7 @@
       </c>
       <c r="S733" s="29"/>
     </row>
-    <row r="734" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="23">
         <v>743</v>
       </c>
@@ -40974,7 +40975,7 @@
       </c>
       <c r="S734" s="29"/>
     </row>
-    <row r="735" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="23">
         <v>744</v>
       </c>
@@ -41027,7 +41028,7 @@
       </c>
       <c r="S735" s="29"/>
     </row>
-    <row r="736" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="23">
         <v>745</v>
       </c>
@@ -41078,7 +41079,7 @@
       </c>
       <c r="S736" s="29"/>
     </row>
-    <row r="737" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="23">
         <v>746</v>
       </c>
@@ -41129,7 +41130,7 @@
       </c>
       <c r="S737" s="29"/>
     </row>
-    <row r="738" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="23">
         <v>747</v>
       </c>
@@ -41176,7 +41177,7 @@
       </c>
       <c r="S738" s="29"/>
     </row>
-    <row r="739" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="23">
         <v>748</v>
       </c>
@@ -41223,7 +41224,7 @@
       </c>
       <c r="S739" s="29"/>
     </row>
-    <row r="740" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="23">
         <v>749</v>
       </c>
@@ -41274,7 +41275,7 @@
       </c>
       <c r="S740" s="29"/>
     </row>
-    <row r="741" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="23">
         <v>750</v>
       </c>
@@ -41325,7 +41326,7 @@
       </c>
       <c r="S741" s="29"/>
     </row>
-    <row r="742" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="23">
         <v>751</v>
       </c>
@@ -41372,7 +41373,7 @@
       </c>
       <c r="S742" s="29"/>
     </row>
-    <row r="743" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="23">
         <v>752</v>
       </c>
@@ -41423,7 +41424,7 @@
       </c>
       <c r="S743" s="29"/>
     </row>
-    <row r="744" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="23">
         <v>753</v>
       </c>
@@ -41474,7 +41475,7 @@
       </c>
       <c r="S744" s="29"/>
     </row>
-    <row r="745" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="23">
         <v>754</v>
       </c>
@@ -41521,7 +41522,7 @@
       </c>
       <c r="S745" s="29"/>
     </row>
-    <row r="746" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="23">
         <v>755</v>
       </c>
@@ -41568,7 +41569,7 @@
       </c>
       <c r="S746" s="29"/>
     </row>
-    <row r="747" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="23">
         <v>756</v>
       </c>
@@ -41619,7 +41620,7 @@
       </c>
       <c r="S747" s="29"/>
     </row>
-    <row r="748" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="23">
         <v>757</v>
       </c>
@@ -41670,7 +41671,7 @@
       </c>
       <c r="S748" s="29"/>
     </row>
-    <row r="749" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="23">
         <v>758</v>
       </c>
@@ -41721,7 +41722,7 @@
       </c>
       <c r="S749" s="29"/>
     </row>
-    <row r="750" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="23">
         <v>759</v>
       </c>
@@ -41768,7 +41769,7 @@
       </c>
       <c r="S750" s="29"/>
     </row>
-    <row r="751" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="51">
         <v>764</v>
       </c>
@@ -41815,7 +41816,7 @@
       </c>
       <c r="S751" s="29"/>
     </row>
-    <row r="752" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="51">
         <v>765</v>
       </c>
@@ -41868,7 +41869,7 @@
       </c>
       <c r="S752" s="29"/>
     </row>
-    <row r="753" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="51">
         <v>766</v>
       </c>
@@ -41917,7 +41918,7 @@
       </c>
       <c r="S753" s="29"/>
     </row>
-    <row r="754" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="51">
         <v>767</v>
       </c>
@@ -41970,7 +41971,7 @@
       </c>
       <c r="S754" s="29"/>
     </row>
-    <row r="755" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="23">
         <v>768</v>
       </c>
@@ -42023,7 +42024,7 @@
       </c>
       <c r="S755" s="29"/>
     </row>
-    <row r="756" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="23">
         <v>769</v>
       </c>
@@ -42076,7 +42077,7 @@
       </c>
       <c r="S756" s="29"/>
     </row>
-    <row r="757" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="23">
         <v>770</v>
       </c>
@@ -42129,7 +42130,7 @@
       </c>
       <c r="S757" s="29"/>
     </row>
-    <row r="758" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="23">
         <v>771</v>
       </c>
@@ -42182,7 +42183,7 @@
       </c>
       <c r="S758" s="29"/>
     </row>
-    <row r="759" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="23">
         <v>772</v>
       </c>
@@ -42235,7 +42236,7 @@
       </c>
       <c r="S759" s="29"/>
     </row>
-    <row r="760" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="23">
         <v>773</v>
       </c>
@@ -42290,7 +42291,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="761" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="23">
         <v>774</v>
       </c>
@@ -42343,7 +42344,7 @@
       </c>
       <c r="S761" s="29"/>
     </row>
-    <row r="762" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="23">
         <v>775</v>
       </c>
@@ -42396,7 +42397,7 @@
       </c>
       <c r="S762" s="29"/>
     </row>
-    <row r="763" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="23">
         <v>776</v>
       </c>
@@ -42498,7 +42499,7 @@
       </c>
       <c r="S764" s="29"/>
     </row>
-    <row r="765" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="23">
         <v>778</v>
       </c>
@@ -42551,7 +42552,7 @@
       </c>
       <c r="S765" s="29"/>
     </row>
-    <row r="766" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="23">
         <v>779</v>
       </c>
@@ -42600,7 +42601,7 @@
       </c>
       <c r="S766" s="29"/>
     </row>
-    <row r="767" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="23">
         <v>781</v>
       </c>
@@ -42649,7 +42650,7 @@
       </c>
       <c r="S767" s="29"/>
     </row>
-    <row r="768" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="23">
         <v>782</v>
       </c>
@@ -42698,7 +42699,7 @@
       </c>
       <c r="S768" s="29"/>
     </row>
-    <row r="769" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="23">
         <v>783</v>
       </c>
@@ -42751,7 +42752,7 @@
       </c>
       <c r="S769" s="29"/>
     </row>
-    <row r="770" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="23">
         <v>784</v>
       </c>
@@ -42798,7 +42799,7 @@
       </c>
       <c r="S770" s="29"/>
     </row>
-    <row r="771" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="23">
         <v>784</v>
       </c>
@@ -42851,7 +42852,7 @@
       </c>
       <c r="S771" s="29"/>
     </row>
-    <row r="772" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="23">
         <v>785</v>
       </c>
@@ -42900,7 +42901,7 @@
       </c>
       <c r="S772" s="29"/>
     </row>
-    <row r="773" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="23">
         <v>786</v>
       </c>
@@ -42953,7 +42954,7 @@
       </c>
       <c r="S773" s="29"/>
     </row>
-    <row r="774" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="23">
         <v>787</v>
       </c>
@@ -43006,7 +43007,7 @@
       </c>
       <c r="S774" s="29"/>
     </row>
-    <row r="775" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="23">
         <v>788</v>
       </c>
@@ -43059,7 +43060,7 @@
       </c>
       <c r="S775" s="29"/>
     </row>
-    <row r="776" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="23">
         <v>789</v>
       </c>
@@ -43112,7 +43113,7 @@
       </c>
       <c r="S776" s="29"/>
     </row>
-    <row r="777" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="23">
         <v>790</v>
       </c>
@@ -43165,7 +43166,7 @@
       </c>
       <c r="S777" s="29"/>
     </row>
-    <row r="778" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="23">
         <v>791</v>
       </c>
@@ -43218,7 +43219,7 @@
       </c>
       <c r="S778" s="29"/>
     </row>
-    <row r="779" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="23">
         <v>792</v>
       </c>
@@ -43265,7 +43266,7 @@
       </c>
       <c r="S779" s="29"/>
     </row>
-    <row r="780" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="23">
         <v>793</v>
       </c>
@@ -43316,7 +43317,7 @@
       </c>
       <c r="S780" s="29"/>
     </row>
-    <row r="781" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="23">
         <v>794</v>
       </c>
@@ -43367,7 +43368,7 @@
       </c>
       <c r="S781" s="29"/>
     </row>
-    <row r="782" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="23">
         <v>795</v>
       </c>
@@ -43418,7 +43419,7 @@
       </c>
       <c r="S782" s="29"/>
     </row>
-    <row r="783" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="23">
         <v>796</v>
       </c>
@@ -43465,7 +43466,7 @@
       </c>
       <c r="S783" s="29"/>
     </row>
-    <row r="784" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="23">
         <v>797</v>
       </c>
@@ -43512,7 +43513,7 @@
       </c>
       <c r="S784" s="29"/>
     </row>
-    <row r="785" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="23">
         <v>798</v>
       </c>
@@ -43565,7 +43566,7 @@
       </c>
       <c r="S785" s="29"/>
     </row>
-    <row r="786" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="23">
         <v>799</v>
       </c>
@@ -43618,7 +43619,7 @@
       </c>
       <c r="S786" s="29"/>
     </row>
-    <row r="787" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="23">
         <v>800</v>
       </c>
@@ -43671,7 +43672,7 @@
       </c>
       <c r="S787" s="29"/>
     </row>
-    <row r="788" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="23">
         <v>801</v>
       </c>
@@ -43724,7 +43725,7 @@
       </c>
       <c r="S788" s="29"/>
     </row>
-    <row r="789" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="23">
         <v>802</v>
       </c>
@@ -43777,7 +43778,7 @@
       </c>
       <c r="S789" s="29"/>
     </row>
-    <row r="790" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="23">
         <v>803</v>
       </c>
@@ -43830,7 +43831,7 @@
       </c>
       <c r="S790" s="29"/>
     </row>
-    <row r="791" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="23">
         <v>804</v>
       </c>
@@ -43881,7 +43882,7 @@
       </c>
       <c r="S791" s="29"/>
     </row>
-    <row r="792" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="23">
         <v>805</v>
       </c>
@@ -43932,7 +43933,7 @@
       </c>
       <c r="S792" s="29"/>
     </row>
-    <row r="793" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="23">
         <v>806</v>
       </c>
@@ -43979,7 +43980,7 @@
       </c>
       <c r="S793" s="29"/>
     </row>
-    <row r="794" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="23">
         <v>807</v>
       </c>
@@ -44026,7 +44027,7 @@
       </c>
       <c r="S794" s="29"/>
     </row>
-    <row r="795" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="23">
         <v>808</v>
       </c>
@@ -44073,7 +44074,7 @@
       </c>
       <c r="S795" s="29"/>
     </row>
-    <row r="796" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="59">
         <v>814</v>
       </c>
@@ -44126,7 +44127,7 @@
       </c>
       <c r="S796" s="29"/>
     </row>
-    <row r="797" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="23">
         <v>815</v>
       </c>
@@ -44175,7 +44176,7 @@
       </c>
       <c r="S797" s="29"/>
     </row>
-    <row r="798" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="23">
         <v>816</v>
       </c>
@@ -44228,7 +44229,7 @@
       </c>
       <c r="S798" s="29"/>
     </row>
-    <row r="799" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="59">
         <v>817</v>
       </c>
@@ -44281,7 +44282,7 @@
       </c>
       <c r="S799" s="29"/>
     </row>
-    <row r="800" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="59">
         <v>818</v>
       </c>
@@ -44334,7 +44335,7 @@
       </c>
       <c r="S800" s="29"/>
     </row>
-    <row r="801" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="23">
         <v>819</v>
       </c>
@@ -44387,7 +44388,7 @@
       </c>
       <c r="S801" s="29"/>
     </row>
-    <row r="802" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="23">
         <v>820</v>
       </c>
@@ -44440,7 +44441,7 @@
       </c>
       <c r="S802" s="29"/>
     </row>
-    <row r="803" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="23">
         <v>821</v>
       </c>
@@ -44493,7 +44494,7 @@
       </c>
       <c r="S803" s="29"/>
     </row>
-    <row r="804" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="59">
         <v>822</v>
       </c>
@@ -44540,7 +44541,7 @@
       </c>
       <c r="S804" s="29"/>
     </row>
-    <row r="805" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="23">
         <v>822</v>
       </c>
@@ -44591,7 +44592,7 @@
       </c>
       <c r="S805" s="29"/>
     </row>
-    <row r="806" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="23">
         <v>823</v>
       </c>
@@ -44642,7 +44643,7 @@
       </c>
       <c r="S806" s="29"/>
     </row>
-    <row r="807" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="23">
         <v>824</v>
       </c>
@@ -44689,7 +44690,7 @@
       </c>
       <c r="S807" s="29"/>
     </row>
-    <row r="808" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="23">
         <v>825</v>
       </c>
@@ -44736,7 +44737,7 @@
       </c>
       <c r="S808" s="29"/>
     </row>
-    <row r="809" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="23">
         <v>826</v>
       </c>
@@ -44787,7 +44788,7 @@
       </c>
       <c r="S809" s="29"/>
     </row>
-    <row r="810" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="23">
         <v>827</v>
       </c>
@@ -44838,7 +44839,7 @@
       </c>
       <c r="S810" s="29"/>
     </row>
-    <row r="811" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="23">
         <v>828</v>
       </c>
@@ -44889,7 +44890,7 @@
       </c>
       <c r="S811" s="29"/>
     </row>
-    <row r="812" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="23">
         <v>829</v>
       </c>
@@ -44940,7 +44941,7 @@
       </c>
       <c r="S812" s="29"/>
     </row>
-    <row r="813" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="23">
         <v>830</v>
       </c>
@@ -44987,7 +44988,7 @@
       </c>
       <c r="S813" s="29"/>
     </row>
-    <row r="814" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="23">
         <v>832</v>
       </c>
@@ -45038,7 +45039,7 @@
       </c>
       <c r="S814" s="29"/>
     </row>
-    <row r="815" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="23">
         <v>833</v>
       </c>
@@ -45085,7 +45086,7 @@
       </c>
       <c r="S815" s="29"/>
     </row>
-    <row r="816" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="23">
         <v>834</v>
       </c>
@@ -45136,7 +45137,7 @@
       </c>
       <c r="S816" s="29"/>
     </row>
-    <row r="817" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="23">
         <v>835</v>
       </c>
@@ -45183,7 +45184,7 @@
       </c>
       <c r="S817" s="29"/>
     </row>
-    <row r="818" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="23">
         <v>836</v>
       </c>
@@ -45230,7 +45231,7 @@
       </c>
       <c r="S818" s="29"/>
     </row>
-    <row r="819" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="23">
         <v>838</v>
       </c>
@@ -45281,7 +45282,7 @@
       </c>
       <c r="S819" s="29"/>
     </row>
-    <row r="820" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="23">
         <v>839</v>
       </c>
@@ -45332,7 +45333,7 @@
       </c>
       <c r="S820" s="29"/>
     </row>
-    <row r="821" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="23">
         <v>840</v>
       </c>
@@ -45383,7 +45384,7 @@
       </c>
       <c r="S821" s="29"/>
     </row>
-    <row r="822" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="59">
         <v>841</v>
       </c>
@@ -45430,7 +45431,7 @@
       </c>
       <c r="S822" s="29"/>
     </row>
-    <row r="823" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="23">
         <v>842</v>
       </c>
@@ -45528,7 +45529,7 @@
       </c>
       <c r="S824" s="29"/>
     </row>
-    <row r="825" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="23">
         <v>844</v>
       </c>
@@ -45579,7 +45580,7 @@
       </c>
       <c r="S825" s="29"/>
     </row>
-    <row r="826" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="23">
         <v>845</v>
       </c>
@@ -45630,7 +45631,7 @@
       </c>
       <c r="S826" s="29"/>
     </row>
-    <row r="827" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="23">
         <v>846</v>
       </c>
@@ -45681,7 +45682,7 @@
       </c>
       <c r="S827" s="29"/>
     </row>
-    <row r="828" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="23">
         <v>847</v>
       </c>
@@ -45732,7 +45733,7 @@
       </c>
       <c r="S828" s="29"/>
     </row>
-    <row r="829" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="23">
         <v>848</v>
       </c>
@@ -45783,7 +45784,7 @@
       </c>
       <c r="S829" s="29"/>
     </row>
-    <row r="830" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="23">
         <v>849</v>
       </c>
@@ -45830,7 +45831,7 @@
       </c>
       <c r="S830" s="29"/>
     </row>
-    <row r="831" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="23">
         <v>850</v>
       </c>
@@ -45877,7 +45878,7 @@
       </c>
       <c r="S831" s="29"/>
     </row>
-    <row r="832" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="23">
         <v>851</v>
       </c>
@@ -45924,7 +45925,7 @@
       </c>
       <c r="S832" s="29"/>
     </row>
-    <row r="833" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="23">
         <v>852</v>
       </c>
@@ -45975,7 +45976,7 @@
       </c>
       <c r="S833" s="29"/>
     </row>
-    <row r="834" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="23">
         <v>853</v>
       </c>
@@ -46026,7 +46027,7 @@
       </c>
       <c r="S834" s="29"/>
     </row>
-    <row r="835" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="23">
         <v>854</v>
       </c>
@@ -46073,7 +46074,7 @@
       </c>
       <c r="S835" s="29"/>
     </row>
-    <row r="836" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="23">
         <v>855</v>
       </c>
@@ -46120,7 +46121,7 @@
       </c>
       <c r="S836" s="29"/>
     </row>
-    <row r="837" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="23">
         <v>856</v>
       </c>
@@ -46173,7 +46174,7 @@
       </c>
       <c r="S837" s="29"/>
     </row>
-    <row r="838" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="23">
         <v>857</v>
       </c>
@@ -46226,7 +46227,7 @@
       </c>
       <c r="S838" s="29"/>
     </row>
-    <row r="839" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="23">
         <v>858</v>
       </c>
@@ -46279,7 +46280,7 @@
       </c>
       <c r="S839" s="29"/>
     </row>
-    <row r="840" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="23">
         <v>859</v>
       </c>
@@ -46332,7 +46333,7 @@
       </c>
       <c r="S840" s="29"/>
     </row>
-    <row r="841" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="23">
         <v>860</v>
       </c>
@@ -46385,7 +46386,7 @@
       </c>
       <c r="S841" s="29"/>
     </row>
-    <row r="842" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="23">
         <v>861</v>
       </c>
@@ -46438,7 +46439,7 @@
       </c>
       <c r="S842" s="29"/>
     </row>
-    <row r="843" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="23">
         <v>862</v>
       </c>
@@ -46491,7 +46492,7 @@
       </c>
       <c r="S843" s="29"/>
     </row>
-    <row r="844" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="23">
         <v>863</v>
       </c>
@@ -46546,7 +46547,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="845" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="23">
         <v>864</v>
       </c>
@@ -46601,7 +46602,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="846" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="23">
         <v>865</v>
       </c>
@@ -46656,7 +46657,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="847" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="23">
         <v>866</v>
       </c>
@@ -46711,7 +46712,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="848" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="23">
         <v>867</v>
       </c>
@@ -46758,7 +46759,7 @@
       </c>
       <c r="S848" s="29"/>
     </row>
-    <row r="849" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="23">
         <v>868</v>
       </c>
@@ -46860,7 +46861,7 @@
       </c>
       <c r="S850" s="29"/>
     </row>
-    <row r="851" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="23">
         <v>870</v>
       </c>
@@ -46913,7 +46914,7 @@
       </c>
       <c r="S851" s="29"/>
     </row>
-    <row r="852" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="23">
         <v>871</v>
       </c>
@@ -46962,7 +46963,7 @@
       </c>
       <c r="S852" s="29"/>
     </row>
-    <row r="853" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="23">
         <v>872</v>
       </c>
@@ -47011,7 +47012,7 @@
       </c>
       <c r="S853" s="29"/>
     </row>
-    <row r="854" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="23">
         <v>873</v>
       </c>
@@ -47060,7 +47061,7 @@
       </c>
       <c r="S854" s="29"/>
     </row>
-    <row r="855" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="23">
         <v>874</v>
       </c>
@@ -47113,7 +47114,7 @@
       </c>
       <c r="S855" s="29"/>
     </row>
-    <row r="856" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="23">
         <v>875</v>
       </c>
@@ -47166,7 +47167,7 @@
       </c>
       <c r="S856" s="29"/>
     </row>
-    <row r="857" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="23">
         <v>876</v>
       </c>
@@ -47219,7 +47220,7 @@
       </c>
       <c r="S857" s="29"/>
     </row>
-    <row r="858" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="23">
         <v>877</v>
       </c>
@@ -47272,7 +47273,7 @@
       </c>
       <c r="S858" s="29"/>
     </row>
-    <row r="859" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="23">
         <v>878</v>
       </c>
@@ -47325,7 +47326,7 @@
       </c>
       <c r="S859" s="29"/>
     </row>
-    <row r="860" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="23">
         <v>879</v>
       </c>
@@ -47378,7 +47379,7 @@
       </c>
       <c r="S860" s="29"/>
     </row>
-    <row r="861" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="23">
         <v>880</v>
       </c>
@@ -47427,7 +47428,7 @@
       </c>
       <c r="S861" s="29"/>
     </row>
-    <row r="862" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="23">
         <v>881</v>
       </c>
@@ -47480,7 +47481,7 @@
       </c>
       <c r="S862" s="29"/>
     </row>
-    <row r="863" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="23">
         <v>882</v>
       </c>
@@ -47533,7 +47534,7 @@
       </c>
       <c r="S863" s="29"/>
     </row>
-    <row r="864" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="23">
         <v>883</v>
       </c>
@@ -47586,7 +47587,7 @@
       </c>
       <c r="S864" s="29"/>
     </row>
-    <row r="865" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="23">
         <v>884</v>
       </c>
@@ -47639,7 +47640,7 @@
       </c>
       <c r="S865" s="29"/>
     </row>
-    <row r="866" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="23">
         <v>885</v>
       </c>
@@ -47692,7 +47693,7 @@
       </c>
       <c r="S866" s="29"/>
     </row>
-    <row r="867" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="23">
         <v>886</v>
       </c>
@@ -47745,7 +47746,7 @@
       </c>
       <c r="S867" s="29"/>
     </row>
-    <row r="868" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="23">
         <v>887</v>
       </c>
@@ -47792,7 +47793,7 @@
       </c>
       <c r="S868" s="29"/>
     </row>
-    <row r="869" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="23">
         <v>888</v>
       </c>
@@ -47839,7 +47840,7 @@
       </c>
       <c r="S869" s="29"/>
     </row>
-    <row r="870" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="23">
         <v>889</v>
       </c>
@@ -47937,7 +47938,7 @@
       </c>
       <c r="S871" s="29"/>
     </row>
-    <row r="872" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="23">
         <v>891</v>
       </c>
@@ -47988,7 +47989,7 @@
       </c>
       <c r="S872" s="29"/>
     </row>
-    <row r="873" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="23">
         <v>892</v>
       </c>
@@ -48035,7 +48036,7 @@
       </c>
       <c r="S873" s="29"/>
     </row>
-    <row r="874" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="23">
         <v>893</v>
       </c>
@@ -48082,7 +48083,7 @@
       </c>
       <c r="S874" s="29"/>
     </row>
-    <row r="875" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="23">
         <v>894</v>
       </c>
@@ -48129,7 +48130,7 @@
       </c>
       <c r="S875" s="29"/>
     </row>
-    <row r="876" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="23">
         <v>895</v>
       </c>
@@ -48182,7 +48183,7 @@
       </c>
       <c r="S876" s="29"/>
     </row>
-    <row r="877" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="23">
         <v>896</v>
       </c>
@@ -48235,7 +48236,7 @@
       </c>
       <c r="S877" s="29"/>
     </row>
-    <row r="878" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="23">
         <v>897</v>
       </c>
@@ -48286,7 +48287,7 @@
       </c>
       <c r="S878" s="29"/>
     </row>
-    <row r="879" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="23">
         <v>898</v>
       </c>
@@ -48337,7 +48338,7 @@
       </c>
       <c r="S879" s="29"/>
     </row>
-    <row r="880" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="23">
         <v>899</v>
       </c>
@@ -48384,7 +48385,7 @@
       </c>
       <c r="S880" s="29"/>
     </row>
-    <row r="881" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="23">
         <v>900</v>
       </c>
@@ -48431,7 +48432,7 @@
       </c>
       <c r="S881" s="29"/>
     </row>
-    <row r="882" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="23">
         <v>901</v>
       </c>
@@ -48529,7 +48530,7 @@
       </c>
       <c r="S883" s="29"/>
     </row>
-    <row r="884" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="23">
         <v>903</v>
       </c>
@@ -48580,7 +48581,7 @@
       </c>
       <c r="S884" s="29"/>
     </row>
-    <row r="885" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="23">
         <v>904</v>
       </c>
@@ -48627,7 +48628,7 @@
       </c>
       <c r="S885" s="29"/>
     </row>
-    <row r="886" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="23">
         <v>905</v>
       </c>
@@ -48674,7 +48675,7 @@
       </c>
       <c r="S886" s="29"/>
     </row>
-    <row r="887" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="23">
         <v>906</v>
       </c>
@@ -48725,7 +48726,7 @@
       </c>
       <c r="S887" s="29"/>
     </row>
-    <row r="888" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="23">
         <v>907</v>
       </c>
@@ -48772,7 +48773,7 @@
       </c>
       <c r="S888" s="29"/>
     </row>
-    <row r="889" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="23">
         <v>908</v>
       </c>
@@ -48823,7 +48824,7 @@
       </c>
       <c r="S889" s="29"/>
     </row>
-    <row r="890" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="23">
         <v>909</v>
       </c>
@@ -48870,7 +48871,7 @@
       </c>
       <c r="S890" s="29"/>
     </row>
-    <row r="891" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="23">
         <v>910</v>
       </c>
@@ -48921,7 +48922,7 @@
       </c>
       <c r="S891" s="29"/>
     </row>
-    <row r="892" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="23">
         <v>911</v>
       </c>
@@ -48968,7 +48969,7 @@
       </c>
       <c r="S892" s="29"/>
     </row>
-    <row r="893" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="23">
         <v>912</v>
       </c>
@@ -49015,7 +49016,7 @@
       </c>
       <c r="S893" s="29"/>
     </row>
-    <row r="894" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="23">
         <v>913</v>
       </c>
@@ -49066,7 +49067,7 @@
       </c>
       <c r="S894" s="29"/>
     </row>
-    <row r="895" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="23">
         <v>914</v>
       </c>
@@ -49113,7 +49114,7 @@
       </c>
       <c r="S895" s="29"/>
     </row>
-    <row r="896" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="23">
         <v>915</v>
       </c>
@@ -49164,7 +49165,7 @@
       </c>
       <c r="S896" s="29"/>
     </row>
-    <row r="897" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="23">
         <v>916</v>
       </c>
@@ -49211,7 +49212,7 @@
       </c>
       <c r="S897" s="29"/>
     </row>
-    <row r="898" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="23">
         <v>917</v>
       </c>
@@ -49264,7 +49265,7 @@
       </c>
       <c r="S898" s="29"/>
     </row>
-    <row r="899" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="23">
         <v>918</v>
       </c>
@@ -49313,7 +49314,7 @@
       </c>
       <c r="S899" s="29"/>
     </row>
-    <row r="900" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="23">
         <v>919</v>
       </c>
@@ -49366,7 +49367,7 @@
       </c>
       <c r="S900" s="29"/>
     </row>
-    <row r="901" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="23">
         <v>920</v>
       </c>
@@ -49417,7 +49418,7 @@
       </c>
       <c r="S901" s="29"/>
     </row>
-    <row r="902" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="23">
         <v>921</v>
       </c>
@@ -49470,7 +49471,7 @@
       </c>
       <c r="S902" s="29"/>
     </row>
-    <row r="903" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="23">
         <v>922</v>
       </c>
@@ -49523,7 +49524,7 @@
       </c>
       <c r="S903" s="29"/>
     </row>
-    <row r="904" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="23">
         <v>923</v>
       </c>
@@ -49576,7 +49577,7 @@
       </c>
       <c r="S904" s="29"/>
     </row>
-    <row r="905" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="23">
         <v>924</v>
       </c>
@@ -49629,7 +49630,7 @@
       </c>
       <c r="S905" s="29"/>
     </row>
-    <row r="906" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="23">
         <v>925</v>
       </c>
@@ -49676,7 +49677,7 @@
       </c>
       <c r="S906" s="29"/>
     </row>
-    <row r="907" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="23">
         <v>926</v>
       </c>
@@ -49727,7 +49728,7 @@
       </c>
       <c r="S907" s="29"/>
     </row>
-    <row r="908" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="23">
         <v>927</v>
       </c>
@@ -49774,7 +49775,7 @@
       </c>
       <c r="S908" s="29"/>
     </row>
-    <row r="909" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="23">
         <v>928</v>
       </c>
@@ -49827,7 +49828,7 @@
       </c>
       <c r="S909" s="29"/>
     </row>
-    <row r="910" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="23">
         <v>929</v>
       </c>
@@ -49876,7 +49877,7 @@
       </c>
       <c r="S910" s="29"/>
     </row>
-    <row r="911" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="23">
         <v>930</v>
       </c>
@@ -49929,7 +49930,7 @@
       </c>
       <c r="S911" s="29"/>
     </row>
-    <row r="912" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="23">
         <v>931</v>
       </c>
@@ -49976,7 +49977,7 @@
       </c>
       <c r="S912" s="29"/>
     </row>
-    <row r="913" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="23">
         <v>932</v>
       </c>
@@ -50029,7 +50030,7 @@
       </c>
       <c r="S913" s="29"/>
     </row>
-    <row r="914" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="23">
         <v>933</v>
       </c>
@@ -50082,7 +50083,7 @@
       </c>
       <c r="S914" s="29"/>
     </row>
-    <row r="915" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="23">
         <v>934</v>
       </c>
@@ -50135,7 +50136,7 @@
       </c>
       <c r="S915" s="29"/>
     </row>
-    <row r="916" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="23">
         <v>935</v>
       </c>
@@ -50182,7 +50183,7 @@
       </c>
       <c r="S916" s="29"/>
     </row>
-    <row r="917" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="23">
         <v>936</v>
       </c>
@@ -50235,7 +50236,7 @@
       </c>
       <c r="S917" s="29"/>
     </row>
-    <row r="918" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="23">
         <v>937</v>
       </c>
@@ -50282,7 +50283,7 @@
       </c>
       <c r="S918" s="29"/>
     </row>
-    <row r="919" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="23">
         <v>938</v>
       </c>
@@ -50329,7 +50330,7 @@
       </c>
       <c r="S919" s="29"/>
     </row>
-    <row r="920" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="23">
         <v>939</v>
       </c>
@@ -50376,7 +50377,7 @@
       </c>
       <c r="S920" s="29"/>
     </row>
-    <row r="921" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="23">
         <v>940</v>
       </c>
@@ -50427,7 +50428,7 @@
       </c>
       <c r="S921" s="29"/>
     </row>
-    <row r="922" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="23">
         <v>941</v>
       </c>
@@ -50474,7 +50475,7 @@
       </c>
       <c r="S922" s="29"/>
     </row>
-    <row r="923" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="23">
         <v>942</v>
       </c>
@@ -50525,7 +50526,7 @@
       </c>
       <c r="S923" s="29"/>
     </row>
-    <row r="924" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="23">
         <v>943</v>
       </c>
@@ -50572,7 +50573,7 @@
       </c>
       <c r="S924" s="29"/>
     </row>
-    <row r="925" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="23">
         <v>944</v>
       </c>
@@ -50621,7 +50622,7 @@
       </c>
       <c r="S925" s="29"/>
     </row>
-    <row r="926" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="23">
         <v>945</v>
       </c>
@@ -50674,7 +50675,7 @@
       </c>
       <c r="S926" s="29"/>
     </row>
-    <row r="927" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="23">
         <v>946</v>
       </c>
@@ -50727,7 +50728,7 @@
       </c>
       <c r="S927" s="29"/>
     </row>
-    <row r="928" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="23">
         <v>947</v>
       </c>
@@ -50776,7 +50777,7 @@
       </c>
       <c r="S928" s="29"/>
     </row>
-    <row r="929" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="23">
         <v>948</v>
       </c>
@@ -50825,7 +50826,7 @@
       </c>
       <c r="S929" s="29"/>
     </row>
-    <row r="930" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="23">
         <v>949</v>
       </c>
@@ -50874,7 +50875,7 @@
       </c>
       <c r="S930" s="29"/>
     </row>
-    <row r="931" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="23">
         <v>950</v>
       </c>
@@ -50927,7 +50928,7 @@
       </c>
       <c r="S931" s="29"/>
     </row>
-    <row r="932" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="23">
         <v>951</v>
       </c>
@@ -50980,7 +50981,7 @@
       </c>
       <c r="S932" s="29"/>
     </row>
-    <row r="933" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="23">
         <v>952</v>
       </c>
@@ -51033,7 +51034,7 @@
       </c>
       <c r="S933" s="29"/>
     </row>
-    <row r="934" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="23">
         <v>953</v>
       </c>
@@ -51080,7 +51081,7 @@
       </c>
       <c r="S934" s="29"/>
     </row>
-    <row r="935" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="23">
         <v>954</v>
       </c>
@@ -51127,7 +51128,7 @@
       </c>
       <c r="S935" s="29"/>
     </row>
-    <row r="936" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="23">
         <v>955</v>
       </c>
@@ -51178,7 +51179,7 @@
       </c>
       <c r="S936" s="29"/>
     </row>
-    <row r="937" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="23">
         <v>956</v>
       </c>
@@ -51225,7 +51226,7 @@
       </c>
       <c r="S937" s="29"/>
     </row>
-    <row r="938" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="23">
         <v>957</v>
       </c>
@@ -51276,7 +51277,7 @@
       </c>
       <c r="S938" s="29"/>
     </row>
-    <row r="939" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="23">
         <v>958</v>
       </c>
@@ -51329,7 +51330,7 @@
       </c>
       <c r="S939" s="29"/>
     </row>
-    <row r="940" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="23">
         <v>959</v>
       </c>
@@ -51382,7 +51383,7 @@
       </c>
       <c r="S940" s="29"/>
     </row>
-    <row r="941" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="23">
         <v>960</v>
       </c>
@@ -51429,7 +51430,7 @@
       </c>
       <c r="S941" s="29"/>
     </row>
-    <row r="942" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="23">
         <v>961</v>
       </c>
@@ -51476,7 +51477,7 @@
       </c>
       <c r="S942" s="29"/>
     </row>
-    <row r="943" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="23">
         <v>962</v>
       </c>
@@ -51527,7 +51528,7 @@
       </c>
       <c r="S943" s="29"/>
     </row>
-    <row r="944" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="23">
         <v>963</v>
       </c>
@@ -51574,7 +51575,7 @@
       </c>
       <c r="S944" s="29"/>
     </row>
-    <row r="945" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="23">
         <v>964</v>
       </c>
@@ -51625,7 +51626,7 @@
       </c>
       <c r="S945" s="29"/>
     </row>
-    <row r="946" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="23">
         <v>965</v>
       </c>
@@ -51672,7 +51673,7 @@
       </c>
       <c r="S946" s="29"/>
     </row>
-    <row r="947" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="23">
         <v>966</v>
       </c>
@@ -51719,7 +51720,7 @@
       </c>
       <c r="S947" s="29"/>
     </row>
-    <row r="948" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="23">
         <v>967</v>
       </c>
@@ -51770,7 +51771,7 @@
       </c>
       <c r="S948" s="29"/>
     </row>
-    <row r="949" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="23">
         <v>968</v>
       </c>
@@ -51817,7 +51818,7 @@
       </c>
       <c r="S949" s="29"/>
     </row>
-    <row r="950" spans="1:19" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:19" s="14" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="63">
         <v>969</v>
       </c>
@@ -55997,6 +55998,11 @@
     <row r="1171" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:S950">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Calcium"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A796:S813">
       <sortCondition ref="A1:A950"/>
     </sortState>

--- a/VanCalster_etal_2020_Gunstig abiotisch bereik per milieuvariabele en habitatsubtype.xlsx
+++ b/VanCalster_etal_2020_Gunstig abiotisch bereik per milieuvariabele en habitatsubtype.xlsx
@@ -3799,7 +3799,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3882,7 +3881,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -3933,7 +3932,7 @@
       </c>
       <c r="S2" s="29"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -3984,7 +3983,7 @@
       </c>
       <c r="S3" s="29"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -4031,7 +4030,7 @@
       </c>
       <c r="S4" s="29"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -4082,7 +4081,7 @@
       </c>
       <c r="S5" s="29"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -4133,7 +4132,7 @@
       </c>
       <c r="S6" s="29"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -4180,7 +4179,7 @@
       </c>
       <c r="S7" s="29"/>
     </row>
-    <row r="8" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -4231,7 +4230,7 @@
       </c>
       <c r="S8" s="29"/>
     </row>
-    <row r="9" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>8</v>
       </c>
@@ -4284,7 +4283,7 @@
       </c>
       <c r="S9" s="29"/>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>9</v>
       </c>
@@ -4331,7 +4330,7 @@
       </c>
       <c r="S10" s="29"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -4382,7 +4381,7 @@
       </c>
       <c r="S11" s="29"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -4435,7 +4434,7 @@
       </c>
       <c r="S12" s="29"/>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -4488,7 +4487,7 @@
       </c>
       <c r="S13" s="29"/>
     </row>
-    <row r="14" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -4535,7 +4534,7 @@
       </c>
       <c r="S14" s="29"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -4586,7 +4585,7 @@
       </c>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -4633,7 +4632,7 @@
       </c>
       <c r="S16" s="29"/>
     </row>
-    <row r="17" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -4684,7 +4683,7 @@
       </c>
       <c r="S17" s="29"/>
     </row>
-    <row r="18" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -4733,7 +4732,7 @@
       </c>
       <c r="S18" s="29"/>
     </row>
-    <row r="19" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -4780,7 +4779,7 @@
       </c>
       <c r="S19" s="29"/>
     </row>
-    <row r="20" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>19</v>
       </c>
@@ -4831,7 +4830,7 @@
       </c>
       <c r="S20" s="29"/>
     </row>
-    <row r="21" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>20</v>
       </c>
@@ -4882,7 +4881,7 @@
       </c>
       <c r="S21" s="29"/>
     </row>
-    <row r="22" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>21</v>
       </c>
@@ -4935,7 +4934,7 @@
       </c>
       <c r="S22" s="29"/>
     </row>
-    <row r="23" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>22</v>
       </c>
@@ -4988,7 +4987,7 @@
       </c>
       <c r="S23" s="29"/>
     </row>
-    <row r="24" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>23</v>
       </c>
@@ -5037,7 +5036,7 @@
       </c>
       <c r="S24" s="29"/>
     </row>
-    <row r="25" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>24</v>
       </c>
@@ -5086,7 +5085,7 @@
       </c>
       <c r="S25" s="29"/>
     </row>
-    <row r="26" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -5135,7 +5134,7 @@
       </c>
       <c r="S26" s="29"/>
     </row>
-    <row r="27" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>26</v>
       </c>
@@ -5188,7 +5187,7 @@
       </c>
       <c r="S27" s="29"/>
     </row>
-    <row r="28" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>27</v>
       </c>
@@ -5241,7 +5240,7 @@
       </c>
       <c r="S28" s="29"/>
     </row>
-    <row r="29" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -5294,7 +5293,7 @@
       </c>
       <c r="S29" s="29"/>
     </row>
-    <row r="30" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>29</v>
       </c>
@@ -5347,7 +5346,7 @@
       </c>
       <c r="S30" s="29"/>
     </row>
-    <row r="31" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -5400,7 +5399,7 @@
       </c>
       <c r="S31" s="29"/>
     </row>
-    <row r="32" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>31</v>
       </c>
@@ -5453,7 +5452,7 @@
       </c>
       <c r="S32" s="29"/>
     </row>
-    <row r="33" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>32</v>
       </c>
@@ -5506,7 +5505,7 @@
       </c>
       <c r="S33" s="29"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>33</v>
       </c>
@@ -5559,7 +5558,7 @@
       </c>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>34</v>
       </c>
@@ -5612,7 +5611,7 @@
       </c>
       <c r="S35" s="29"/>
     </row>
-    <row r="36" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>35</v>
       </c>
@@ -5665,7 +5664,7 @@
       </c>
       <c r="S36" s="29"/>
     </row>
-    <row r="37" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36</v>
       </c>
@@ -5718,7 +5717,7 @@
       </c>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>37</v>
       </c>
@@ -5765,7 +5764,7 @@
       </c>
       <c r="S38" s="29"/>
     </row>
-    <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>38</v>
       </c>
@@ -5818,7 +5817,7 @@
       </c>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>39</v>
       </c>
@@ -5867,7 +5866,7 @@
       </c>
       <c r="S40" s="29"/>
     </row>
-    <row r="41" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>40</v>
       </c>
@@ -5920,7 +5919,7 @@
       </c>
       <c r="S41" s="29"/>
     </row>
-    <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>41</v>
       </c>
@@ -5973,7 +5972,7 @@
       </c>
       <c r="S42" s="29"/>
     </row>
-    <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>42</v>
       </c>
@@ -6026,7 +6025,7 @@
       </c>
       <c r="S43" s="29"/>
     </row>
-    <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>43</v>
       </c>
@@ -6079,7 +6078,7 @@
       </c>
       <c r="S44" s="29"/>
     </row>
-    <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>44</v>
       </c>
@@ -6132,7 +6131,7 @@
       </c>
       <c r="S45" s="29"/>
     </row>
-    <row r="46" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>45</v>
       </c>
@@ -6185,7 +6184,7 @@
       </c>
       <c r="S46" s="29"/>
     </row>
-    <row r="47" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>47</v>
       </c>
@@ -6236,7 +6235,7 @@
       </c>
       <c r="S47" s="29"/>
     </row>
-    <row r="48" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>48</v>
       </c>
@@ -6289,7 +6288,7 @@
       </c>
       <c r="S48" s="29"/>
     </row>
-    <row r="49" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>49</v>
       </c>
@@ -6342,7 +6341,7 @@
       </c>
       <c r="S49" s="29"/>
     </row>
-    <row r="50" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>50</v>
       </c>
@@ -6395,7 +6394,7 @@
       </c>
       <c r="S50" s="29"/>
     </row>
-    <row r="51" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>51</v>
       </c>
@@ -6446,7 +6445,7 @@
       </c>
       <c r="S51" s="29"/>
     </row>
-    <row r="52" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>52</v>
       </c>
@@ -6497,7 +6496,7 @@
       </c>
       <c r="S52" s="29"/>
     </row>
-    <row r="53" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>55</v>
       </c>
@@ -6544,7 +6543,7 @@
       </c>
       <c r="S53" s="29"/>
     </row>
-    <row r="54" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>56</v>
       </c>
@@ -6591,7 +6590,7 @@
       </c>
       <c r="S54" s="29"/>
     </row>
-    <row r="55" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>57</v>
       </c>
@@ -6638,7 +6637,7 @@
       </c>
       <c r="S55" s="29"/>
     </row>
-    <row r="56" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>58</v>
       </c>
@@ -6691,7 +6690,7 @@
       </c>
       <c r="S56" s="29"/>
     </row>
-    <row r="57" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>59</v>
       </c>
@@ -6740,7 +6739,7 @@
       </c>
       <c r="S57" s="29"/>
     </row>
-    <row r="58" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>60</v>
       </c>
@@ -6793,7 +6792,7 @@
       </c>
       <c r="S58" s="29"/>
     </row>
-    <row r="59" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>61</v>
       </c>
@@ -6846,7 +6845,7 @@
       </c>
       <c r="S59" s="29"/>
     </row>
-    <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>62</v>
       </c>
@@ -6899,7 +6898,7 @@
       </c>
       <c r="S60" s="29"/>
     </row>
-    <row r="61" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>63</v>
       </c>
@@ -6952,7 +6951,7 @@
       </c>
       <c r="S61" s="29"/>
     </row>
-    <row r="62" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>64</v>
       </c>
@@ -7005,7 +7004,7 @@
       </c>
       <c r="S62" s="29"/>
     </row>
-    <row r="63" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>65</v>
       </c>
@@ -7058,7 +7057,7 @@
       </c>
       <c r="S63" s="29"/>
     </row>
-    <row r="64" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>66</v>
       </c>
@@ -7105,7 +7104,7 @@
       </c>
       <c r="S64" s="29"/>
     </row>
-    <row r="65" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>72</v>
       </c>
@@ -7158,7 +7157,7 @@
       </c>
       <c r="S65" s="40"/>
     </row>
-    <row r="66" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>73</v>
       </c>
@@ -7207,7 +7206,7 @@
       </c>
       <c r="S66" s="29"/>
     </row>
-    <row r="67" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>74</v>
       </c>
@@ -7260,7 +7259,7 @@
       </c>
       <c r="S67" s="29"/>
     </row>
-    <row r="68" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>75</v>
       </c>
@@ -7313,7 +7312,7 @@
       </c>
       <c r="S68" s="29"/>
     </row>
-    <row r="69" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>76</v>
       </c>
@@ -7366,7 +7365,7 @@
       </c>
       <c r="S69" s="29"/>
     </row>
-    <row r="70" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>77</v>
       </c>
@@ -7419,7 +7418,7 @@
       </c>
       <c r="S70" s="29"/>
     </row>
-    <row r="71" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>78</v>
       </c>
@@ -7472,7 +7471,7 @@
       </c>
       <c r="S71" s="29"/>
     </row>
-    <row r="72" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>79</v>
       </c>
@@ -7525,7 +7524,7 @@
       </c>
       <c r="S72" s="29"/>
     </row>
-    <row r="73" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>80</v>
       </c>
@@ -7572,7 +7571,7 @@
       </c>
       <c r="S73" s="29"/>
     </row>
-    <row r="74" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>81</v>
       </c>
@@ -7623,7 +7622,7 @@
       </c>
       <c r="S74" s="29"/>
     </row>
-    <row r="75" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>82</v>
       </c>
@@ -7670,7 +7669,7 @@
       </c>
       <c r="S75" s="29"/>
     </row>
-    <row r="76" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>83</v>
       </c>
@@ -7721,7 +7720,7 @@
       </c>
       <c r="S76" s="29"/>
     </row>
-    <row r="77" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>84</v>
       </c>
@@ -7768,7 +7767,7 @@
       </c>
       <c r="S77" s="29"/>
     </row>
-    <row r="78" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>85</v>
       </c>
@@ -7819,7 +7818,7 @@
       </c>
       <c r="S78" s="29"/>
     </row>
-    <row r="79" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>86</v>
       </c>
@@ -7870,7 +7869,7 @@
       </c>
       <c r="S79" s="29"/>
     </row>
-    <row r="80" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>87</v>
       </c>
@@ -7921,7 +7920,7 @@
       </c>
       <c r="S80" s="29"/>
     </row>
-    <row r="81" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>88</v>
       </c>
@@ -7972,7 +7971,7 @@
       </c>
       <c r="S81" s="29"/>
     </row>
-    <row r="82" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>89</v>
       </c>
@@ -8023,7 +8022,7 @@
       </c>
       <c r="S82" s="29"/>
     </row>
-    <row r="83" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>90</v>
       </c>
@@ -8070,7 +8069,7 @@
       </c>
       <c r="S83" s="29"/>
     </row>
-    <row r="84" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>91</v>
       </c>
@@ -8117,7 +8116,7 @@
       </c>
       <c r="S84" s="29"/>
     </row>
-    <row r="85" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>92</v>
       </c>
@@ -8166,7 +8165,7 @@
       </c>
       <c r="S85" s="29"/>
     </row>
-    <row r="86" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>93</v>
       </c>
@@ -8213,7 +8212,7 @@
       </c>
       <c r="S86" s="29"/>
     </row>
-    <row r="87" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>94</v>
       </c>
@@ -8260,7 +8259,7 @@
       </c>
       <c r="S87" s="29"/>
     </row>
-    <row r="88" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>95</v>
       </c>
@@ -8307,7 +8306,7 @@
       </c>
       <c r="S88" s="29"/>
     </row>
-    <row r="89" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>96</v>
       </c>
@@ -8354,7 +8353,7 @@
       </c>
       <c r="S89" s="29"/>
     </row>
-    <row r="90" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>97</v>
       </c>
@@ -8401,7 +8400,7 @@
       </c>
       <c r="S90" s="29"/>
     </row>
-    <row r="91" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>98</v>
       </c>
@@ -8448,7 +8447,7 @@
       </c>
       <c r="S91" s="29"/>
     </row>
-    <row r="92" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>99</v>
       </c>
@@ -8495,7 +8494,7 @@
       </c>
       <c r="S92" s="29"/>
     </row>
-    <row r="93" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>100</v>
       </c>
@@ -8542,7 +8541,7 @@
       </c>
       <c r="S93" s="29"/>
     </row>
-    <row r="94" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>101</v>
       </c>
@@ -8595,7 +8594,7 @@
       </c>
       <c r="S94" s="29"/>
     </row>
-    <row r="95" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>102</v>
       </c>
@@ -8642,7 +8641,7 @@
       </c>
       <c r="S95" s="29"/>
     </row>
-    <row r="96" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>103</v>
       </c>
@@ -8689,7 +8688,7 @@
       </c>
       <c r="S96" s="29"/>
     </row>
-    <row r="97" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>104</v>
       </c>
@@ -8736,7 +8735,7 @@
       </c>
       <c r="S97" s="29"/>
     </row>
-    <row r="98" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>105</v>
       </c>
@@ -8787,7 +8786,7 @@
       </c>
       <c r="S98" s="29"/>
     </row>
-    <row r="99" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>106</v>
       </c>
@@ -8834,7 +8833,7 @@
       </c>
       <c r="S99" s="29"/>
     </row>
-    <row r="100" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>107</v>
       </c>
@@ -8881,7 +8880,7 @@
       </c>
       <c r="S100" s="29"/>
     </row>
-    <row r="101" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>108</v>
       </c>
@@ -8936,7 +8935,7 @@
       </c>
       <c r="S101" s="29"/>
     </row>
-    <row r="102" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>109</v>
       </c>
@@ -8989,7 +8988,7 @@
       </c>
       <c r="S102" s="29"/>
     </row>
-    <row r="103" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>110</v>
       </c>
@@ -9038,7 +9037,7 @@
       </c>
       <c r="S103" s="29"/>
     </row>
-    <row r="104" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>111</v>
       </c>
@@ -9089,7 +9088,7 @@
       </c>
       <c r="S104" s="29"/>
     </row>
-    <row r="105" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>112</v>
       </c>
@@ -9140,7 +9139,7 @@
       </c>
       <c r="S105" s="29"/>
     </row>
-    <row r="106" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>113</v>
       </c>
@@ -9195,7 +9194,7 @@
       </c>
       <c r="S106" s="29"/>
     </row>
-    <row r="107" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>114</v>
       </c>
@@ -9244,7 +9243,7 @@
       </c>
       <c r="S107" s="29"/>
     </row>
-    <row r="108" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>115</v>
       </c>
@@ -9293,7 +9292,7 @@
       </c>
       <c r="S108" s="29"/>
     </row>
-    <row r="109" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>116</v>
       </c>
@@ -9342,7 +9341,7 @@
       </c>
       <c r="S109" s="29"/>
     </row>
-    <row r="110" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>117</v>
       </c>
@@ -9442,7 +9441,7 @@
       </c>
       <c r="S111" s="29"/>
     </row>
-    <row r="112" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>119</v>
       </c>
@@ -9493,7 +9492,7 @@
       </c>
       <c r="S112" s="29"/>
     </row>
-    <row r="113" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>120</v>
       </c>
@@ -9544,7 +9543,7 @@
       </c>
       <c r="S113" s="29"/>
     </row>
-    <row r="114" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>121</v>
       </c>
@@ -9595,7 +9594,7 @@
       </c>
       <c r="S114" s="29"/>
     </row>
-    <row r="115" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>122</v>
       </c>
@@ -9646,7 +9645,7 @@
       </c>
       <c r="S115" s="29"/>
     </row>
-    <row r="116" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>123</v>
       </c>
@@ -9695,7 +9694,7 @@
       </c>
       <c r="S116" s="29"/>
     </row>
-    <row r="117" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>124</v>
       </c>
@@ -9744,7 +9743,7 @@
       </c>
       <c r="S117" s="29"/>
     </row>
-    <row r="118" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>125</v>
       </c>
@@ -9799,7 +9798,7 @@
       </c>
       <c r="S118" s="29"/>
     </row>
-    <row r="119" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>126</v>
       </c>
@@ -9850,7 +9849,7 @@
       </c>
       <c r="S119" s="29"/>
     </row>
-    <row r="120" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>127</v>
       </c>
@@ -9899,7 +9898,7 @@
       </c>
       <c r="S120" s="29"/>
     </row>
-    <row r="121" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>128</v>
       </c>
@@ -9950,7 +9949,7 @@
       </c>
       <c r="S121" s="29"/>
     </row>
-    <row r="122" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>129</v>
       </c>
@@ -10003,7 +10002,7 @@
       </c>
       <c r="S122" s="29"/>
     </row>
-    <row r="123" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>130</v>
       </c>
@@ -10052,7 +10051,7 @@
       </c>
       <c r="S123" s="29"/>
     </row>
-    <row r="124" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>131</v>
       </c>
@@ -10103,7 +10102,7 @@
       </c>
       <c r="S124" s="29"/>
     </row>
-    <row r="125" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>132</v>
       </c>
@@ -10156,7 +10155,7 @@
       </c>
       <c r="S125" s="29"/>
     </row>
-    <row r="126" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>133</v>
       </c>
@@ -10207,7 +10206,7 @@
       </c>
       <c r="S126" s="29"/>
     </row>
-    <row r="127" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>134</v>
       </c>
@@ -10258,7 +10257,7 @@
       </c>
       <c r="S127" s="29"/>
     </row>
-    <row r="128" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>135</v>
       </c>
@@ -10309,7 +10308,7 @@
       </c>
       <c r="S128" s="29"/>
     </row>
-    <row r="129" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>136</v>
       </c>
@@ -10364,7 +10363,7 @@
       </c>
       <c r="S129" s="29"/>
     </row>
-    <row r="130" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>137</v>
       </c>
@@ -10413,7 +10412,7 @@
       </c>
       <c r="S130" s="29"/>
     </row>
-    <row r="131" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>138</v>
       </c>
@@ -10462,7 +10461,7 @@
       </c>
       <c r="S131" s="29"/>
     </row>
-    <row r="132" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>139</v>
       </c>
@@ -10511,7 +10510,7 @@
       </c>
       <c r="S132" s="29"/>
     </row>
-    <row r="133" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>140</v>
       </c>
@@ -10611,7 +10610,7 @@
       </c>
       <c r="S134" s="29"/>
     </row>
-    <row r="135" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>142</v>
       </c>
@@ -10662,7 +10661,7 @@
       </c>
       <c r="S135" s="29"/>
     </row>
-    <row r="136" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>143</v>
       </c>
@@ -10713,7 +10712,7 @@
       </c>
       <c r="S136" s="29"/>
     </row>
-    <row r="137" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>144</v>
       </c>
@@ -10764,7 +10763,7 @@
       </c>
       <c r="S137" s="29"/>
     </row>
-    <row r="138" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>145</v>
       </c>
@@ -10815,7 +10814,7 @@
       </c>
       <c r="S138" s="29"/>
     </row>
-    <row r="139" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>146</v>
       </c>
@@ -10864,7 +10863,7 @@
       </c>
       <c r="S139" s="29"/>
     </row>
-    <row r="140" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>147</v>
       </c>
@@ -10913,7 +10912,7 @@
       </c>
       <c r="S140" s="29"/>
     </row>
-    <row r="141" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>148</v>
       </c>
@@ -10968,7 +10967,7 @@
       </c>
       <c r="S141" s="29"/>
     </row>
-    <row r="142" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>149</v>
       </c>
@@ -11019,7 +11018,7 @@
       </c>
       <c r="S142" s="29"/>
     </row>
-    <row r="143" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>150</v>
       </c>
@@ -11068,7 +11067,7 @@
       </c>
       <c r="S143" s="29"/>
     </row>
-    <row r="144" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>151</v>
       </c>
@@ -11119,7 +11118,7 @@
       </c>
       <c r="S144" s="29"/>
     </row>
-    <row r="145" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>152</v>
       </c>
@@ -11172,7 +11171,7 @@
       </c>
       <c r="S145" s="29"/>
     </row>
-    <row r="146" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>153</v>
       </c>
@@ -11221,7 +11220,7 @@
       </c>
       <c r="S146" s="29"/>
     </row>
-    <row r="147" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>154</v>
       </c>
@@ -11272,7 +11271,7 @@
       </c>
       <c r="S147" s="29"/>
     </row>
-    <row r="148" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>155</v>
       </c>
@@ -11325,7 +11324,7 @@
       </c>
       <c r="S148" s="29"/>
     </row>
-    <row r="149" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>156</v>
       </c>
@@ -11376,7 +11375,7 @@
       </c>
       <c r="S149" s="29"/>
     </row>
-    <row r="150" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>157</v>
       </c>
@@ -11427,7 +11426,7 @@
       </c>
       <c r="S150" s="29"/>
     </row>
-    <row r="151" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>158</v>
       </c>
@@ -11478,7 +11477,7 @@
       </c>
       <c r="S151" s="29"/>
     </row>
-    <row r="152" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>159</v>
       </c>
@@ -11533,7 +11532,7 @@
       </c>
       <c r="S152" s="29"/>
     </row>
-    <row r="153" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>160</v>
       </c>
@@ -11582,7 +11581,7 @@
       </c>
       <c r="S153" s="29"/>
     </row>
-    <row r="154" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>161</v>
       </c>
@@ -11631,7 +11630,7 @@
       </c>
       <c r="S154" s="29"/>
     </row>
-    <row r="155" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>162</v>
       </c>
@@ -11680,7 +11679,7 @@
       </c>
       <c r="S155" s="29"/>
     </row>
-    <row r="156" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>163</v>
       </c>
@@ -11780,7 +11779,7 @@
       </c>
       <c r="S157" s="29"/>
     </row>
-    <row r="158" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>165</v>
       </c>
@@ -11831,7 +11830,7 @@
       </c>
       <c r="S158" s="29"/>
     </row>
-    <row r="159" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>166</v>
       </c>
@@ -11882,7 +11881,7 @@
       </c>
       <c r="S159" s="29"/>
     </row>
-    <row r="160" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>167</v>
       </c>
@@ -11933,7 +11932,7 @@
       </c>
       <c r="S160" s="29"/>
     </row>
-    <row r="161" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>168</v>
       </c>
@@ -11984,7 +11983,7 @@
       </c>
       <c r="S161" s="29"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>169</v>
       </c>
@@ -12033,7 +12032,7 @@
       </c>
       <c r="S162" s="29"/>
     </row>
-    <row r="163" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>170</v>
       </c>
@@ -12082,7 +12081,7 @@
       </c>
       <c r="S163" s="29"/>
     </row>
-    <row r="164" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>171</v>
       </c>
@@ -12137,7 +12136,7 @@
       </c>
       <c r="S164" s="29"/>
     </row>
-    <row r="165" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>172</v>
       </c>
@@ -12188,7 +12187,7 @@
       </c>
       <c r="S165" s="29"/>
     </row>
-    <row r="166" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>173</v>
       </c>
@@ -12237,7 +12236,7 @@
       </c>
       <c r="S166" s="29"/>
     </row>
-    <row r="167" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>174</v>
       </c>
@@ -12288,7 +12287,7 @@
       </c>
       <c r="S167" s="29"/>
     </row>
-    <row r="168" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>175</v>
       </c>
@@ -12341,7 +12340,7 @@
       </c>
       <c r="S168" s="29"/>
     </row>
-    <row r="169" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>176</v>
       </c>
@@ -12390,7 +12389,7 @@
       </c>
       <c r="S169" s="29"/>
     </row>
-    <row r="170" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>177</v>
       </c>
@@ -12441,7 +12440,7 @@
       </c>
       <c r="S170" s="29"/>
     </row>
-    <row r="171" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>178</v>
       </c>
@@ -12494,7 +12493,7 @@
       </c>
       <c r="S171" s="29"/>
     </row>
-    <row r="172" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>179</v>
       </c>
@@ -12545,7 +12544,7 @@
       </c>
       <c r="S172" s="29"/>
     </row>
-    <row r="173" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>180</v>
       </c>
@@ -12596,7 +12595,7 @@
       </c>
       <c r="S173" s="29"/>
     </row>
-    <row r="174" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>181</v>
       </c>
@@ -12647,7 +12646,7 @@
       </c>
       <c r="S174" s="29"/>
     </row>
-    <row r="175" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>182</v>
       </c>
@@ -12702,7 +12701,7 @@
       </c>
       <c r="S175" s="29"/>
     </row>
-    <row r="176" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>183</v>
       </c>
@@ -12751,7 +12750,7 @@
       </c>
       <c r="S176" s="29"/>
     </row>
-    <row r="177" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>184</v>
       </c>
@@ -12800,7 +12799,7 @@
       </c>
       <c r="S177" s="29"/>
     </row>
-    <row r="178" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>185</v>
       </c>
@@ -12849,7 +12848,7 @@
       </c>
       <c r="S178" s="29"/>
     </row>
-    <row r="179" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>186</v>
       </c>
@@ -12949,7 +12948,7 @@
       </c>
       <c r="S180" s="29"/>
     </row>
-    <row r="181" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>188</v>
       </c>
@@ -13000,7 +12999,7 @@
       </c>
       <c r="S181" s="29"/>
     </row>
-    <row r="182" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>189</v>
       </c>
@@ -13051,7 +13050,7 @@
       </c>
       <c r="S182" s="29"/>
     </row>
-    <row r="183" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>190</v>
       </c>
@@ -13102,7 +13101,7 @@
       </c>
       <c r="S183" s="29"/>
     </row>
-    <row r="184" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>191</v>
       </c>
@@ -13153,7 +13152,7 @@
       </c>
       <c r="S184" s="29"/>
     </row>
-    <row r="185" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>192</v>
       </c>
@@ -13202,7 +13201,7 @@
       </c>
       <c r="S185" s="29"/>
     </row>
-    <row r="186" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>193</v>
       </c>
@@ -13251,7 +13250,7 @@
       </c>
       <c r="S186" s="29"/>
     </row>
-    <row r="187" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>194</v>
       </c>
@@ -13306,7 +13305,7 @@
       </c>
       <c r="S187" s="29"/>
     </row>
-    <row r="188" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>195</v>
       </c>
@@ -13357,7 +13356,7 @@
       </c>
       <c r="S188" s="29"/>
     </row>
-    <row r="189" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>196</v>
       </c>
@@ -13406,7 +13405,7 @@
       </c>
       <c r="S189" s="29"/>
     </row>
-    <row r="190" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>197</v>
       </c>
@@ -13457,7 +13456,7 @@
       </c>
       <c r="S190" s="29"/>
     </row>
-    <row r="191" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>198</v>
       </c>
@@ -13510,7 +13509,7 @@
       </c>
       <c r="S191" s="29"/>
     </row>
-    <row r="192" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>199</v>
       </c>
@@ -13559,7 +13558,7 @@
       </c>
       <c r="S192" s="29"/>
     </row>
-    <row r="193" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>200</v>
       </c>
@@ -13610,7 +13609,7 @@
       </c>
       <c r="S193" s="29"/>
     </row>
-    <row r="194" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>201</v>
       </c>
@@ -13663,7 +13662,7 @@
       </c>
       <c r="S194" s="29"/>
     </row>
-    <row r="195" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>202</v>
       </c>
@@ -13714,7 +13713,7 @@
       </c>
       <c r="S195" s="29"/>
     </row>
-    <row r="196" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>203</v>
       </c>
@@ -13765,7 +13764,7 @@
       </c>
       <c r="S196" s="29"/>
     </row>
-    <row r="197" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>204</v>
       </c>
@@ -13814,7 +13813,7 @@
       </c>
       <c r="S197" s="29"/>
     </row>
-    <row r="198" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>205</v>
       </c>
@@ -13869,7 +13868,7 @@
       </c>
       <c r="S198" s="29"/>
     </row>
-    <row r="199" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>206</v>
       </c>
@@ -13918,7 +13917,7 @@
       </c>
       <c r="S199" s="29"/>
     </row>
-    <row r="200" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>207</v>
       </c>
@@ -13967,7 +13966,7 @@
       </c>
       <c r="S200" s="29"/>
     </row>
-    <row r="201" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>208</v>
       </c>
@@ -14016,7 +14015,7 @@
       </c>
       <c r="S201" s="29"/>
     </row>
-    <row r="202" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>209</v>
       </c>
@@ -14065,7 +14064,7 @@
       </c>
       <c r="S202" s="29"/>
     </row>
-    <row r="203" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>210</v>
       </c>
@@ -14114,7 +14113,7 @@
       </c>
       <c r="S203" s="29"/>
     </row>
-    <row r="204" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>211</v>
       </c>
@@ -14165,7 +14164,7 @@
       </c>
       <c r="S204" s="29"/>
     </row>
-    <row r="205" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>212</v>
       </c>
@@ -14214,7 +14213,7 @@
       </c>
       <c r="S205" s="29"/>
     </row>
-    <row r="206" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>213</v>
       </c>
@@ -14263,7 +14262,7 @@
       </c>
       <c r="S206" s="29"/>
     </row>
-    <row r="207" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>214</v>
       </c>
@@ -14312,7 +14311,7 @@
       </c>
       <c r="S207" s="29"/>
     </row>
-    <row r="208" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>215</v>
       </c>
@@ -14367,7 +14366,7 @@
       </c>
       <c r="S208" s="29"/>
     </row>
-    <row r="209" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>216</v>
       </c>
@@ -14418,7 +14417,7 @@
       </c>
       <c r="S209" s="29"/>
     </row>
-    <row r="210" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>217</v>
       </c>
@@ -14467,7 +14466,7 @@
       </c>
       <c r="S210" s="29"/>
     </row>
-    <row r="211" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>218</v>
       </c>
@@ -14518,7 +14517,7 @@
       </c>
       <c r="S211" s="29"/>
     </row>
-    <row r="212" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>219</v>
       </c>
@@ -14571,7 +14570,7 @@
       </c>
       <c r="S212" s="29"/>
     </row>
-    <row r="213" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>220</v>
       </c>
@@ -14620,7 +14619,7 @@
       </c>
       <c r="S213" s="29"/>
     </row>
-    <row r="214" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>221</v>
       </c>
@@ -14671,7 +14670,7 @@
       </c>
       <c r="S214" s="29"/>
     </row>
-    <row r="215" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>222</v>
       </c>
@@ -14724,7 +14723,7 @@
       </c>
       <c r="S215" s="29"/>
     </row>
-    <row r="216" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>223</v>
       </c>
@@ -14775,7 +14774,7 @@
       </c>
       <c r="S216" s="29"/>
     </row>
-    <row r="217" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>224</v>
       </c>
@@ -14826,7 +14825,7 @@
       </c>
       <c r="S217" s="29"/>
     </row>
-    <row r="218" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>225</v>
       </c>
@@ -14875,7 +14874,7 @@
       </c>
       <c r="S218" s="29"/>
     </row>
-    <row r="219" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>226</v>
       </c>
@@ -14930,7 +14929,7 @@
       </c>
       <c r="S219" s="29"/>
     </row>
-    <row r="220" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>227</v>
       </c>
@@ -14979,7 +14978,7 @@
       </c>
       <c r="S220" s="29"/>
     </row>
-    <row r="221" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>228</v>
       </c>
@@ -15028,7 +15027,7 @@
       </c>
       <c r="S221" s="29"/>
     </row>
-    <row r="222" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>229</v>
       </c>
@@ -15077,7 +15076,7 @@
       </c>
       <c r="S222" s="29"/>
     </row>
-    <row r="223" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>230</v>
       </c>
@@ -15126,7 +15125,7 @@
       </c>
       <c r="S223" s="29"/>
     </row>
-    <row r="224" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>231</v>
       </c>
@@ -15175,7 +15174,7 @@
       </c>
       <c r="S224" s="29"/>
     </row>
-    <row r="225" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>232</v>
       </c>
@@ -15226,7 +15225,7 @@
       </c>
       <c r="S225" s="29"/>
     </row>
-    <row r="226" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>233</v>
       </c>
@@ -15275,7 +15274,7 @@
       </c>
       <c r="S226" s="29"/>
     </row>
-    <row r="227" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>234</v>
       </c>
@@ -15324,7 +15323,7 @@
       </c>
       <c r="S227" s="29"/>
     </row>
-    <row r="228" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>235</v>
       </c>
@@ -15373,7 +15372,7 @@
       </c>
       <c r="S228" s="29"/>
     </row>
-    <row r="229" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>236</v>
       </c>
@@ -15428,7 +15427,7 @@
       </c>
       <c r="S229" s="29"/>
     </row>
-    <row r="230" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>237</v>
       </c>
@@ -15479,7 +15478,7 @@
       </c>
       <c r="S230" s="29"/>
     </row>
-    <row r="231" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>238</v>
       </c>
@@ -15530,7 +15529,7 @@
       </c>
       <c r="S231" s="29"/>
     </row>
-    <row r="232" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>239</v>
       </c>
@@ -15579,7 +15578,7 @@
       </c>
       <c r="S232" s="29"/>
     </row>
-    <row r="233" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>240</v>
       </c>
@@ -15630,7 +15629,7 @@
       </c>
       <c r="S233" s="29"/>
     </row>
-    <row r="234" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>241</v>
       </c>
@@ -15683,7 +15682,7 @@
       </c>
       <c r="S234" s="29"/>
     </row>
-    <row r="235" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>242</v>
       </c>
@@ -15732,7 +15731,7 @@
       </c>
       <c r="S235" s="29"/>
     </row>
-    <row r="236" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>243</v>
       </c>
@@ -15783,7 +15782,7 @@
       </c>
       <c r="S236" s="29"/>
     </row>
-    <row r="237" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>244</v>
       </c>
@@ -15836,7 +15835,7 @@
       </c>
       <c r="S237" s="29"/>
     </row>
-    <row r="238" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>245</v>
       </c>
@@ -15887,7 +15886,7 @@
       </c>
       <c r="S238" s="29"/>
     </row>
-    <row r="239" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>246</v>
       </c>
@@ -15938,7 +15937,7 @@
       </c>
       <c r="S239" s="29"/>
     </row>
-    <row r="240" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>247</v>
       </c>
@@ -15987,7 +15986,7 @@
       </c>
       <c r="S240" s="29"/>
     </row>
-    <row r="241" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>248</v>
       </c>
@@ -16042,7 +16041,7 @@
       </c>
       <c r="S241" s="29"/>
     </row>
-    <row r="242" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>249</v>
       </c>
@@ -16091,7 +16090,7 @@
       </c>
       <c r="S242" s="29"/>
     </row>
-    <row r="243" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>250</v>
       </c>
@@ -16140,7 +16139,7 @@
       </c>
       <c r="S243" s="29"/>
     </row>
-    <row r="244" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>251</v>
       </c>
@@ -16189,7 +16188,7 @@
       </c>
       <c r="S244" s="29"/>
     </row>
-    <row r="245" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>252</v>
       </c>
@@ -16238,7 +16237,7 @@
       </c>
       <c r="S245" s="29"/>
     </row>
-    <row r="246" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>253</v>
       </c>
@@ -16287,7 +16286,7 @@
       </c>
       <c r="S246" s="29"/>
     </row>
-    <row r="247" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>254</v>
       </c>
@@ -16338,7 +16337,7 @@
       </c>
       <c r="S247" s="29"/>
     </row>
-    <row r="248" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>255</v>
       </c>
@@ -16387,7 +16386,7 @@
       </c>
       <c r="S248" s="29"/>
     </row>
-    <row r="249" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>256</v>
       </c>
@@ -16436,7 +16435,7 @@
       </c>
       <c r="S249" s="29"/>
     </row>
-    <row r="250" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>257</v>
       </c>
@@ -16485,7 +16484,7 @@
       </c>
       <c r="S250" s="29"/>
     </row>
-    <row r="251" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>258</v>
       </c>
@@ -16540,7 +16539,7 @@
       </c>
       <c r="S251" s="29"/>
     </row>
-    <row r="252" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>259</v>
       </c>
@@ -16591,7 +16590,7 @@
       </c>
       <c r="S252" s="29"/>
     </row>
-    <row r="253" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>260</v>
       </c>
@@ -16642,7 +16641,7 @@
       </c>
       <c r="S253" s="29"/>
     </row>
-    <row r="254" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>261</v>
       </c>
@@ -16691,7 +16690,7 @@
       </c>
       <c r="S254" s="29"/>
     </row>
-    <row r="255" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>262</v>
       </c>
@@ -16742,7 +16741,7 @@
       </c>
       <c r="S255" s="29"/>
     </row>
-    <row r="256" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>263</v>
       </c>
@@ -16795,7 +16794,7 @@
       </c>
       <c r="S256" s="29"/>
     </row>
-    <row r="257" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>264</v>
       </c>
@@ -16844,7 +16843,7 @@
       </c>
       <c r="S257" s="29"/>
     </row>
-    <row r="258" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>265</v>
       </c>
@@ -16895,7 +16894,7 @@
       </c>
       <c r="S258" s="29"/>
     </row>
-    <row r="259" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>266</v>
       </c>
@@ -16948,7 +16947,7 @@
       </c>
       <c r="S259" s="29"/>
     </row>
-    <row r="260" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>267</v>
       </c>
@@ -16999,7 +16998,7 @@
       </c>
       <c r="S260" s="29"/>
     </row>
-    <row r="261" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>268</v>
       </c>
@@ -17050,7 +17049,7 @@
       </c>
       <c r="S261" s="29"/>
     </row>
-    <row r="262" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>269</v>
       </c>
@@ -17099,7 +17098,7 @@
       </c>
       <c r="S262" s="29"/>
     </row>
-    <row r="263" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>270</v>
       </c>
@@ -17154,7 +17153,7 @@
       </c>
       <c r="S263" s="29"/>
     </row>
-    <row r="264" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>271</v>
       </c>
@@ -17203,7 +17202,7 @@
       </c>
       <c r="S264" s="29"/>
     </row>
-    <row r="265" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>272</v>
       </c>
@@ -17252,7 +17251,7 @@
       </c>
       <c r="S265" s="29"/>
     </row>
-    <row r="266" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>273</v>
       </c>
@@ -17301,7 +17300,7 @@
       </c>
       <c r="S266" s="29"/>
     </row>
-    <row r="267" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>274</v>
       </c>
@@ -17350,7 +17349,7 @@
       </c>
       <c r="S267" s="29"/>
     </row>
-    <row r="268" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>275</v>
       </c>
@@ -17399,7 +17398,7 @@
       </c>
       <c r="S268" s="29"/>
     </row>
-    <row r="269" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>276</v>
       </c>
@@ -17450,7 +17449,7 @@
       </c>
       <c r="S269" s="29"/>
     </row>
-    <row r="270" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>277</v>
       </c>
@@ -17499,7 +17498,7 @@
       </c>
       <c r="S270" s="29"/>
     </row>
-    <row r="271" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>278</v>
       </c>
@@ -17548,7 +17547,7 @@
       </c>
       <c r="S271" s="29"/>
     </row>
-    <row r="272" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>279</v>
       </c>
@@ -17597,7 +17596,7 @@
       </c>
       <c r="S272" s="29"/>
     </row>
-    <row r="273" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>280</v>
       </c>
@@ -17652,7 +17651,7 @@
       </c>
       <c r="S273" s="29"/>
     </row>
-    <row r="274" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>281</v>
       </c>
@@ -17703,7 +17702,7 @@
       </c>
       <c r="S274" s="29"/>
     </row>
-    <row r="275" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>282</v>
       </c>
@@ -17752,7 +17751,7 @@
       </c>
       <c r="S275" s="29"/>
     </row>
-    <row r="276" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>283</v>
       </c>
@@ -17803,7 +17802,7 @@
       </c>
       <c r="S276" s="29"/>
     </row>
-    <row r="277" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <v>284</v>
       </c>
@@ -17856,7 +17855,7 @@
       </c>
       <c r="S277" s="29"/>
     </row>
-    <row r="278" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>285</v>
       </c>
@@ -17905,7 +17904,7 @@
       </c>
       <c r="S278" s="29"/>
     </row>
-    <row r="279" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>286</v>
       </c>
@@ -17956,7 +17955,7 @@
       </c>
       <c r="S279" s="29"/>
     </row>
-    <row r="280" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>287</v>
       </c>
@@ -18009,7 +18008,7 @@
       </c>
       <c r="S280" s="29"/>
     </row>
-    <row r="281" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>288</v>
       </c>
@@ -18060,7 +18059,7 @@
       </c>
       <c r="S281" s="29"/>
     </row>
-    <row r="282" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>289</v>
       </c>
@@ -18111,7 +18110,7 @@
       </c>
       <c r="S282" s="29"/>
     </row>
-    <row r="283" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>290</v>
       </c>
@@ -18160,7 +18159,7 @@
       </c>
       <c r="S283" s="29"/>
     </row>
-    <row r="284" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>291</v>
       </c>
@@ -18209,7 +18208,7 @@
       </c>
       <c r="S284" s="29"/>
     </row>
-    <row r="285" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>292</v>
       </c>
@@ -18258,7 +18257,7 @@
       </c>
       <c r="S285" s="29"/>
     </row>
-    <row r="286" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>293</v>
       </c>
@@ -18307,7 +18306,7 @@
       </c>
       <c r="S286" s="29"/>
     </row>
-    <row r="287" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>294</v>
       </c>
@@ -18360,7 +18359,7 @@
       </c>
       <c r="S287" s="29"/>
     </row>
-    <row r="288" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>295</v>
       </c>
@@ -18409,7 +18408,7 @@
       </c>
       <c r="S288" s="29"/>
     </row>
-    <row r="289" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>296</v>
       </c>
@@ -18458,7 +18457,7 @@
       </c>
       <c r="S289" s="29"/>
     </row>
-    <row r="290" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>297</v>
       </c>
@@ -18507,7 +18506,7 @@
       </c>
       <c r="S290" s="29"/>
     </row>
-    <row r="291" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>298</v>
       </c>
@@ -18558,7 +18557,7 @@
       </c>
       <c r="S291" s="29"/>
     </row>
-    <row r="292" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>299</v>
       </c>
@@ -18607,7 +18606,7 @@
       </c>
       <c r="S292" s="29"/>
     </row>
-    <row r="293" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>300</v>
       </c>
@@ -18660,7 +18659,7 @@
       </c>
       <c r="S293" s="29"/>
     </row>
-    <row r="294" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>301</v>
       </c>
@@ -18711,7 +18710,7 @@
       </c>
       <c r="S294" s="29"/>
     </row>
-    <row r="295" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>302</v>
       </c>
@@ -18760,7 +18759,7 @@
       </c>
       <c r="S295" s="29"/>
     </row>
-    <row r="296" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>303</v>
       </c>
@@ -18809,7 +18808,7 @@
       </c>
       <c r="S296" s="29"/>
     </row>
-    <row r="297" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>304</v>
       </c>
@@ -18858,7 +18857,7 @@
       </c>
       <c r="S297" s="29"/>
     </row>
-    <row r="298" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>305</v>
       </c>
@@ -18907,7 +18906,7 @@
       </c>
       <c r="S298" s="29"/>
     </row>
-    <row r="299" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>306</v>
       </c>
@@ -18958,7 +18957,7 @@
       </c>
       <c r="S299" s="29"/>
     </row>
-    <row r="300" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>307</v>
       </c>
@@ -19007,7 +19006,7 @@
       </c>
       <c r="S300" s="29"/>
     </row>
-    <row r="301" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>308</v>
       </c>
@@ -19056,7 +19055,7 @@
       </c>
       <c r="S301" s="29"/>
     </row>
-    <row r="302" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>309</v>
       </c>
@@ -19105,7 +19104,7 @@
       </c>
       <c r="S302" s="29"/>
     </row>
-    <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>310</v>
       </c>
@@ -19160,7 +19159,7 @@
       </c>
       <c r="S303" s="29"/>
     </row>
-    <row r="304" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>311</v>
       </c>
@@ -19211,7 +19210,7 @@
       </c>
       <c r="S304" s="29"/>
     </row>
-    <row r="305" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>312</v>
       </c>
@@ -19262,7 +19261,7 @@
       </c>
       <c r="S305" s="29"/>
     </row>
-    <row r="306" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>313</v>
       </c>
@@ -19313,7 +19312,7 @@
       </c>
       <c r="S306" s="29"/>
     </row>
-    <row r="307" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>314</v>
       </c>
@@ -19366,7 +19365,7 @@
       </c>
       <c r="S307" s="29"/>
     </row>
-    <row r="308" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>315</v>
       </c>
@@ -19415,7 +19414,7 @@
       </c>
       <c r="S308" s="29"/>
     </row>
-    <row r="309" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>316</v>
       </c>
@@ -19464,7 +19463,7 @@
       </c>
       <c r="S309" s="29"/>
     </row>
-    <row r="310" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>317</v>
       </c>
@@ -19517,7 +19516,7 @@
       </c>
       <c r="S310" s="29"/>
     </row>
-    <row r="311" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>318</v>
       </c>
@@ -19568,7 +19567,7 @@
       </c>
       <c r="S311" s="29"/>
     </row>
-    <row r="312" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>319</v>
       </c>
@@ -19619,7 +19618,7 @@
       </c>
       <c r="S312" s="29"/>
     </row>
-    <row r="313" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>320</v>
       </c>
@@ -19668,7 +19667,7 @@
       </c>
       <c r="S313" s="29"/>
     </row>
-    <row r="314" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>321</v>
       </c>
@@ -19717,7 +19716,7 @@
       </c>
       <c r="S314" s="29"/>
     </row>
-    <row r="315" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>322</v>
       </c>
@@ -19766,7 +19765,7 @@
       </c>
       <c r="S315" s="29"/>
     </row>
-    <row r="316" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>323</v>
       </c>
@@ -19815,7 +19814,7 @@
       </c>
       <c r="S316" s="29"/>
     </row>
-    <row r="317" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>324</v>
       </c>
@@ -19866,7 +19865,7 @@
       </c>
       <c r="S317" s="29"/>
     </row>
-    <row r="318" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>325</v>
       </c>
@@ -19915,7 +19914,7 @@
       </c>
       <c r="S318" s="29"/>
     </row>
-    <row r="319" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>326</v>
       </c>
@@ -19964,7 +19963,7 @@
       </c>
       <c r="S319" s="29"/>
     </row>
-    <row r="320" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>327</v>
       </c>
@@ -20013,7 +20012,7 @@
       </c>
       <c r="S320" s="29"/>
     </row>
-    <row r="321" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>328</v>
       </c>
@@ -20068,7 +20067,7 @@
       </c>
       <c r="S321" s="29"/>
     </row>
-    <row r="322" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>329</v>
       </c>
@@ -20119,7 +20118,7 @@
       </c>
       <c r="S322" s="29"/>
     </row>
-    <row r="323" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>330</v>
       </c>
@@ -20170,7 +20169,7 @@
       </c>
       <c r="S323" s="29"/>
     </row>
-    <row r="324" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>331</v>
       </c>
@@ -20221,7 +20220,7 @@
       </c>
       <c r="S324" s="29"/>
     </row>
-    <row r="325" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>332</v>
       </c>
@@ -20274,7 +20273,7 @@
       </c>
       <c r="S325" s="29"/>
     </row>
-    <row r="326" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>333</v>
       </c>
@@ -20323,7 +20322,7 @@
       </c>
       <c r="S326" s="29"/>
     </row>
-    <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>334</v>
       </c>
@@ -20372,7 +20371,7 @@
       </c>
       <c r="S327" s="29"/>
     </row>
-    <row r="328" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>335</v>
       </c>
@@ -20425,7 +20424,7 @@
       </c>
       <c r="S328" s="29"/>
     </row>
-    <row r="329" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>336</v>
       </c>
@@ -20476,7 +20475,7 @@
       </c>
       <c r="S329" s="29"/>
     </row>
-    <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>337</v>
       </c>
@@ -20527,7 +20526,7 @@
       </c>
       <c r="S330" s="29"/>
     </row>
-    <row r="331" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>338</v>
       </c>
@@ -20576,7 +20575,7 @@
       </c>
       <c r="S331" s="29"/>
     </row>
-    <row r="332" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>339</v>
       </c>
@@ -20625,7 +20624,7 @@
       </c>
       <c r="S332" s="29"/>
     </row>
-    <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>340</v>
       </c>
@@ -20674,7 +20673,7 @@
       </c>
       <c r="S333" s="29"/>
     </row>
-    <row r="334" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>341</v>
       </c>
@@ -20723,7 +20722,7 @@
       </c>
       <c r="S334" s="29"/>
     </row>
-    <row r="335" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>342</v>
       </c>
@@ -20774,7 +20773,7 @@
       </c>
       <c r="S335" s="29"/>
     </row>
-    <row r="336" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>343</v>
       </c>
@@ -20823,7 +20822,7 @@
       </c>
       <c r="S336" s="29"/>
     </row>
-    <row r="337" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>344</v>
       </c>
@@ -20872,7 +20871,7 @@
       </c>
       <c r="S337" s="29"/>
     </row>
-    <row r="338" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>345</v>
       </c>
@@ -20921,7 +20920,7 @@
       </c>
       <c r="S338" s="29"/>
     </row>
-    <row r="339" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>346</v>
       </c>
@@ -20976,7 +20975,7 @@
       </c>
       <c r="S339" s="29"/>
     </row>
-    <row r="340" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>347</v>
       </c>
@@ -21027,7 +21026,7 @@
       </c>
       <c r="S340" s="29"/>
     </row>
-    <row r="341" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>348</v>
       </c>
@@ -21078,7 +21077,7 @@
       </c>
       <c r="S341" s="29"/>
     </row>
-    <row r="342" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>349</v>
       </c>
@@ -21129,7 +21128,7 @@
       </c>
       <c r="S342" s="29"/>
     </row>
-    <row r="343" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>350</v>
       </c>
@@ -21182,7 +21181,7 @@
       </c>
       <c r="S343" s="29"/>
     </row>
-    <row r="344" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <v>351</v>
       </c>
@@ -21231,7 +21230,7 @@
       </c>
       <c r="S344" s="29"/>
     </row>
-    <row r="345" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>352</v>
       </c>
@@ -21280,7 +21279,7 @@
       </c>
       <c r="S345" s="29"/>
     </row>
-    <row r="346" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>353</v>
       </c>
@@ -21333,7 +21332,7 @@
       </c>
       <c r="S346" s="29"/>
     </row>
-    <row r="347" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>354</v>
       </c>
@@ -21384,7 +21383,7 @@
       </c>
       <c r="S347" s="29"/>
     </row>
-    <row r="348" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>355</v>
       </c>
@@ -21435,7 +21434,7 @@
       </c>
       <c r="S348" s="29"/>
     </row>
-    <row r="349" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>356</v>
       </c>
@@ -21484,7 +21483,7 @@
       </c>
       <c r="S349" s="29"/>
     </row>
-    <row r="350" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>357</v>
       </c>
@@ -21533,7 +21532,7 @@
       </c>
       <c r="S350" s="29"/>
     </row>
-    <row r="351" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>358</v>
       </c>
@@ -21582,7 +21581,7 @@
       </c>
       <c r="S351" s="29"/>
     </row>
-    <row r="352" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>359</v>
       </c>
@@ -21631,7 +21630,7 @@
       </c>
       <c r="S352" s="29"/>
     </row>
-    <row r="353" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>360</v>
       </c>
@@ -21682,7 +21681,7 @@
       </c>
       <c r="S353" s="29"/>
     </row>
-    <row r="354" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <v>361</v>
       </c>
@@ -21731,7 +21730,7 @@
       </c>
       <c r="S354" s="29"/>
     </row>
-    <row r="355" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>362</v>
       </c>
@@ -21780,7 +21779,7 @@
       </c>
       <c r="S355" s="29"/>
     </row>
-    <row r="356" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>363</v>
       </c>
@@ -21829,7 +21828,7 @@
       </c>
       <c r="S356" s="29"/>
     </row>
-    <row r="357" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>364</v>
       </c>
@@ -21884,7 +21883,7 @@
       </c>
       <c r="S357" s="29"/>
     </row>
-    <row r="358" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <v>365</v>
       </c>
@@ -21935,7 +21934,7 @@
       </c>
       <c r="S358" s="29"/>
     </row>
-    <row r="359" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <v>366</v>
       </c>
@@ -21986,7 +21985,7 @@
       </c>
       <c r="S359" s="29"/>
     </row>
-    <row r="360" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>367</v>
       </c>
@@ -22037,7 +22036,7 @@
       </c>
       <c r="S360" s="29"/>
     </row>
-    <row r="361" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <v>368</v>
       </c>
@@ -22090,7 +22089,7 @@
       </c>
       <c r="S361" s="29"/>
     </row>
-    <row r="362" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <v>369</v>
       </c>
@@ -22139,7 +22138,7 @@
       </c>
       <c r="S362" s="29"/>
     </row>
-    <row r="363" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>370</v>
       </c>
@@ -22188,7 +22187,7 @@
       </c>
       <c r="S363" s="29"/>
     </row>
-    <row r="364" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <v>371</v>
       </c>
@@ -22241,7 +22240,7 @@
       </c>
       <c r="S364" s="29"/>
     </row>
-    <row r="365" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <v>372</v>
       </c>
@@ -22292,7 +22291,7 @@
       </c>
       <c r="S365" s="29"/>
     </row>
-    <row r="366" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>373</v>
       </c>
@@ -22343,7 +22342,7 @@
       </c>
       <c r="S366" s="29"/>
     </row>
-    <row r="367" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <v>374</v>
       </c>
@@ -22392,7 +22391,7 @@
       </c>
       <c r="S367" s="29"/>
     </row>
-    <row r="368" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>375</v>
       </c>
@@ -22441,7 +22440,7 @@
       </c>
       <c r="S368" s="29"/>
     </row>
-    <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>376</v>
       </c>
@@ -22490,7 +22489,7 @@
       </c>
       <c r="S369" s="29"/>
     </row>
-    <row r="370" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>377</v>
       </c>
@@ -22539,7 +22538,7 @@
       </c>
       <c r="S370" s="29"/>
     </row>
-    <row r="371" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>378</v>
       </c>
@@ -22590,7 +22589,7 @@
       </c>
       <c r="S371" s="29"/>
     </row>
-    <row r="372" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <v>379</v>
       </c>
@@ -22639,7 +22638,7 @@
       </c>
       <c r="S372" s="29"/>
     </row>
-    <row r="373" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <v>380</v>
       </c>
@@ -22688,7 +22687,7 @@
       </c>
       <c r="S373" s="29"/>
     </row>
-    <row r="374" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <v>381</v>
       </c>
@@ -22737,7 +22736,7 @@
       </c>
       <c r="S374" s="29"/>
     </row>
-    <row r="375" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>382</v>
       </c>
@@ -22792,7 +22791,7 @@
       </c>
       <c r="S375" s="29"/>
     </row>
-    <row r="376" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <v>383</v>
       </c>
@@ -22843,7 +22842,7 @@
       </c>
       <c r="S376" s="29"/>
     </row>
-    <row r="377" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <v>384</v>
       </c>
@@ -22894,7 +22893,7 @@
       </c>
       <c r="S377" s="29"/>
     </row>
-    <row r="378" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="23">
         <v>385</v>
       </c>
@@ -22945,7 +22944,7 @@
       </c>
       <c r="S378" s="29"/>
     </row>
-    <row r="379" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>386</v>
       </c>
@@ -22998,7 +22997,7 @@
       </c>
       <c r="S379" s="29"/>
     </row>
-    <row r="380" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>387</v>
       </c>
@@ -23047,7 +23046,7 @@
       </c>
       <c r="S380" s="29"/>
     </row>
-    <row r="381" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <v>388</v>
       </c>
@@ -23096,7 +23095,7 @@
       </c>
       <c r="S381" s="29"/>
     </row>
-    <row r="382" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <v>389</v>
       </c>
@@ -23149,7 +23148,7 @@
       </c>
       <c r="S382" s="29"/>
     </row>
-    <row r="383" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>390</v>
       </c>
@@ -23200,7 +23199,7 @@
       </c>
       <c r="S383" s="29"/>
     </row>
-    <row r="384" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <v>391</v>
       </c>
@@ -23251,7 +23250,7 @@
       </c>
       <c r="S384" s="29"/>
     </row>
-    <row r="385" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>392</v>
       </c>
@@ -23300,7 +23299,7 @@
       </c>
       <c r="S385" s="29"/>
     </row>
-    <row r="386" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <v>393</v>
       </c>
@@ -23349,7 +23348,7 @@
       </c>
       <c r="S386" s="29"/>
     </row>
-    <row r="387" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>394</v>
       </c>
@@ -23398,7 +23397,7 @@
       </c>
       <c r="S387" s="29"/>
     </row>
-    <row r="388" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <v>395</v>
       </c>
@@ -23447,7 +23446,7 @@
       </c>
       <c r="S388" s="29"/>
     </row>
-    <row r="389" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <v>396</v>
       </c>
@@ -23498,7 +23497,7 @@
       </c>
       <c r="S389" s="29"/>
     </row>
-    <row r="390" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <v>397</v>
       </c>
@@ -23547,7 +23546,7 @@
       </c>
       <c r="S390" s="29"/>
     </row>
-    <row r="391" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <v>398</v>
       </c>
@@ -23596,7 +23595,7 @@
       </c>
       <c r="S391" s="29"/>
     </row>
-    <row r="392" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <v>399</v>
       </c>
@@ -23645,7 +23644,7 @@
       </c>
       <c r="S392" s="29"/>
     </row>
-    <row r="393" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <v>400</v>
       </c>
@@ -23700,7 +23699,7 @@
       </c>
       <c r="S393" s="29"/>
     </row>
-    <row r="394" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>401</v>
       </c>
@@ -23751,7 +23750,7 @@
       </c>
       <c r="S394" s="29"/>
     </row>
-    <row r="395" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <v>402</v>
       </c>
@@ -23802,7 +23801,7 @@
       </c>
       <c r="S395" s="29"/>
     </row>
-    <row r="396" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <v>403</v>
       </c>
@@ -23853,7 +23852,7 @@
       </c>
       <c r="S396" s="29"/>
     </row>
-    <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <v>404</v>
       </c>
@@ -23906,7 +23905,7 @@
       </c>
       <c r="S397" s="29"/>
     </row>
-    <row r="398" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <v>405</v>
       </c>
@@ -23955,7 +23954,7 @@
       </c>
       <c r="S398" s="29"/>
     </row>
-    <row r="399" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <v>406</v>
       </c>
@@ -24004,7 +24003,7 @@
       </c>
       <c r="S399" s="29"/>
     </row>
-    <row r="400" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <v>407</v>
       </c>
@@ -24057,7 +24056,7 @@
       </c>
       <c r="S400" s="29"/>
     </row>
-    <row r="401" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <v>408</v>
       </c>
@@ -24108,7 +24107,7 @@
       </c>
       <c r="S401" s="29"/>
     </row>
-    <row r="402" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <v>409</v>
       </c>
@@ -24159,7 +24158,7 @@
       </c>
       <c r="S402" s="29"/>
     </row>
-    <row r="403" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>410</v>
       </c>
@@ -24208,7 +24207,7 @@
       </c>
       <c r="S403" s="29"/>
     </row>
-    <row r="404" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>411</v>
       </c>
@@ -24257,7 +24256,7 @@
       </c>
       <c r="S404" s="29"/>
     </row>
-    <row r="405" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>412</v>
       </c>
@@ -24306,7 +24305,7 @@
       </c>
       <c r="S405" s="29"/>
     </row>
-    <row r="406" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <v>413</v>
       </c>
@@ -24355,7 +24354,7 @@
       </c>
       <c r="S406" s="29"/>
     </row>
-    <row r="407" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <v>414</v>
       </c>
@@ -24406,7 +24405,7 @@
       </c>
       <c r="S407" s="29"/>
     </row>
-    <row r="408" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>415</v>
       </c>
@@ -24455,7 +24454,7 @@
       </c>
       <c r="S408" s="29"/>
     </row>
-    <row r="409" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>416</v>
       </c>
@@ -24504,7 +24503,7 @@
       </c>
       <c r="S409" s="29"/>
     </row>
-    <row r="410" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>417</v>
       </c>
@@ -24553,7 +24552,7 @@
       </c>
       <c r="S410" s="29"/>
     </row>
-    <row r="411" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>418</v>
       </c>
@@ -24608,7 +24607,7 @@
       </c>
       <c r="S411" s="29"/>
     </row>
-    <row r="412" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <v>419</v>
       </c>
@@ -24659,7 +24658,7 @@
       </c>
       <c r="S412" s="29"/>
     </row>
-    <row r="413" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <v>420</v>
       </c>
@@ -24710,7 +24709,7 @@
       </c>
       <c r="S413" s="29"/>
     </row>
-    <row r="414" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <v>421</v>
       </c>
@@ -24761,7 +24760,7 @@
       </c>
       <c r="S414" s="29"/>
     </row>
-    <row r="415" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>422</v>
       </c>
@@ -24814,7 +24813,7 @@
       </c>
       <c r="S415" s="29"/>
     </row>
-    <row r="416" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <v>423</v>
       </c>
@@ -24863,7 +24862,7 @@
       </c>
       <c r="S416" s="29"/>
     </row>
-    <row r="417" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <v>424</v>
       </c>
@@ -24912,7 +24911,7 @@
       </c>
       <c r="S417" s="29"/>
     </row>
-    <row r="418" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <v>425</v>
       </c>
@@ -24965,7 +24964,7 @@
       </c>
       <c r="S418" s="29"/>
     </row>
-    <row r="419" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>426</v>
       </c>
@@ -25016,7 +25015,7 @@
       </c>
       <c r="S419" s="29"/>
     </row>
-    <row r="420" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <v>427</v>
       </c>
@@ -25065,7 +25064,7 @@
       </c>
       <c r="S420" s="29"/>
     </row>
-    <row r="421" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <v>428</v>
       </c>
@@ -25114,7 +25113,7 @@
       </c>
       <c r="S421" s="29"/>
     </row>
-    <row r="422" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <v>429</v>
       </c>
@@ -25163,7 +25162,7 @@
       </c>
       <c r="S422" s="29"/>
     </row>
-    <row r="423" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <v>430</v>
       </c>
@@ -25212,7 +25211,7 @@
       </c>
       <c r="S423" s="29"/>
     </row>
-    <row r="424" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <v>431</v>
       </c>
@@ -25263,7 +25262,7 @@
       </c>
       <c r="S424" s="29"/>
     </row>
-    <row r="425" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="23">
         <v>432</v>
       </c>
@@ -25312,7 +25311,7 @@
       </c>
       <c r="S425" s="29"/>
     </row>
-    <row r="426" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <v>433</v>
       </c>
@@ -25361,7 +25360,7 @@
       </c>
       <c r="S426" s="29"/>
     </row>
-    <row r="427" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <v>434</v>
       </c>
@@ -25410,7 +25409,7 @@
       </c>
       <c r="S427" s="29"/>
     </row>
-    <row r="428" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <v>435</v>
       </c>
@@ -25465,7 +25464,7 @@
       </c>
       <c r="S428" s="29"/>
     </row>
-    <row r="429" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <v>436</v>
       </c>
@@ -25516,7 +25515,7 @@
       </c>
       <c r="S429" s="29"/>
     </row>
-    <row r="430" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <v>437</v>
       </c>
@@ -25567,7 +25566,7 @@
       </c>
       <c r="S430" s="29"/>
     </row>
-    <row r="431" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <v>438</v>
       </c>
@@ -25618,7 +25617,7 @@
       </c>
       <c r="S431" s="29"/>
     </row>
-    <row r="432" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <v>439</v>
       </c>
@@ -25671,7 +25670,7 @@
       </c>
       <c r="S432" s="29"/>
     </row>
-    <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <v>440</v>
       </c>
@@ -25720,7 +25719,7 @@
       </c>
       <c r="S433" s="29"/>
     </row>
-    <row r="434" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <v>441</v>
       </c>
@@ -25769,7 +25768,7 @@
       </c>
       <c r="S434" s="29"/>
     </row>
-    <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <v>442</v>
       </c>
@@ -25822,7 +25821,7 @@
       </c>
       <c r="S435" s="29"/>
     </row>
-    <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="23">
         <v>443</v>
       </c>
@@ -25873,7 +25872,7 @@
       </c>
       <c r="S436" s="29"/>
     </row>
-    <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <v>444</v>
       </c>
@@ -25924,7 +25923,7 @@
       </c>
       <c r="S437" s="29"/>
     </row>
-    <row r="438" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <v>445</v>
       </c>
@@ -25973,7 +25972,7 @@
       </c>
       <c r="S438" s="29"/>
     </row>
-    <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <v>446</v>
       </c>
@@ -26022,7 +26021,7 @@
       </c>
       <c r="S439" s="29"/>
     </row>
-    <row r="440" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <v>447</v>
       </c>
@@ -26071,7 +26070,7 @@
       </c>
       <c r="S440" s="29"/>
     </row>
-    <row r="441" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <v>448</v>
       </c>
@@ -26120,7 +26119,7 @@
       </c>
       <c r="S441" s="29"/>
     </row>
-    <row r="442" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="23">
         <v>449</v>
       </c>
@@ -26169,7 +26168,7 @@
       </c>
       <c r="S442" s="29"/>
     </row>
-    <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <v>450</v>
       </c>
@@ -26218,7 +26217,7 @@
       </c>
       <c r="S443" s="29"/>
     </row>
-    <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <v>451</v>
       </c>
@@ -26271,7 +26270,7 @@
       </c>
       <c r="S444" s="29"/>
     </row>
-    <row r="445" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <v>452</v>
       </c>
@@ -26320,7 +26319,7 @@
       </c>
       <c r="S445" s="29"/>
     </row>
-    <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <v>453</v>
       </c>
@@ -26369,7 +26368,7 @@
       </c>
       <c r="S446" s="29"/>
     </row>
-    <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <v>454</v>
       </c>
@@ -26424,7 +26423,7 @@
       </c>
       <c r="S447" s="29"/>
     </row>
-    <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="23">
         <v>455</v>
       </c>
@@ -26475,7 +26474,7 @@
       </c>
       <c r="S448" s="29"/>
     </row>
-    <row r="449" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <v>456</v>
       </c>
@@ -26526,7 +26525,7 @@
       </c>
       <c r="S449" s="29"/>
     </row>
-    <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <v>457</v>
       </c>
@@ -26577,7 +26576,7 @@
       </c>
       <c r="S450" s="29"/>
     </row>
-    <row r="451" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <v>458</v>
       </c>
@@ -26626,7 +26625,7 @@
       </c>
       <c r="S451" s="29"/>
     </row>
-    <row r="452" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="23">
         <v>459</v>
       </c>
@@ -26679,7 +26678,7 @@
       </c>
       <c r="S452" s="29"/>
     </row>
-    <row r="453" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="23">
         <v>460</v>
       </c>
@@ -26728,7 +26727,7 @@
       </c>
       <c r="S453" s="29"/>
     </row>
-    <row r="454" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <v>461</v>
       </c>
@@ -26779,7 +26778,7 @@
       </c>
       <c r="S454" s="29"/>
     </row>
-    <row r="455" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="23">
         <v>462</v>
       </c>
@@ -26834,7 +26833,7 @@
       </c>
       <c r="S455" s="29"/>
     </row>
-    <row r="456" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="23">
         <v>463</v>
       </c>
@@ -26885,7 +26884,7 @@
       </c>
       <c r="S456" s="29"/>
     </row>
-    <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="23">
         <v>464</v>
       </c>
@@ -26936,7 +26935,7 @@
       </c>
       <c r="S457" s="29"/>
     </row>
-    <row r="458" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="23">
         <v>465</v>
       </c>
@@ -26985,7 +26984,7 @@
       </c>
       <c r="S458" s="29"/>
     </row>
-    <row r="459" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <v>466</v>
       </c>
@@ -27034,7 +27033,7 @@
       </c>
       <c r="S459" s="29"/>
     </row>
-    <row r="460" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="23">
         <v>467</v>
       </c>
@@ -27083,7 +27082,7 @@
       </c>
       <c r="S460" s="29"/>
     </row>
-    <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="23">
         <v>468</v>
       </c>
@@ -27132,7 +27131,7 @@
       </c>
       <c r="S461" s="29"/>
     </row>
-    <row r="462" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <v>469</v>
       </c>
@@ -27181,7 +27180,7 @@
       </c>
       <c r="S462" s="29"/>
     </row>
-    <row r="463" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <v>470</v>
       </c>
@@ -27230,7 +27229,7 @@
       </c>
       <c r="S463" s="29"/>
     </row>
-    <row r="464" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <v>471</v>
       </c>
@@ -27283,7 +27282,7 @@
       </c>
       <c r="S464" s="29"/>
     </row>
-    <row r="465" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="23">
         <v>472</v>
       </c>
@@ -27332,7 +27331,7 @@
       </c>
       <c r="S465" s="29"/>
     </row>
-    <row r="466" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <v>473</v>
       </c>
@@ -27381,7 +27380,7 @@
       </c>
       <c r="S466" s="29"/>
     </row>
-    <row r="467" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="23">
         <v>474</v>
       </c>
@@ -27436,7 +27435,7 @@
       </c>
       <c r="S467" s="29"/>
     </row>
-    <row r="468" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="23">
         <v>475</v>
       </c>
@@ -27487,7 +27486,7 @@
       </c>
       <c r="S468" s="29"/>
     </row>
-    <row r="469" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <v>476</v>
       </c>
@@ -27538,7 +27537,7 @@
       </c>
       <c r="S469" s="29"/>
     </row>
-    <row r="470" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <v>477</v>
       </c>
@@ -27587,7 +27586,7 @@
       </c>
       <c r="S470" s="29"/>
     </row>
-    <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <v>478</v>
       </c>
@@ -27640,7 +27639,7 @@
       </c>
       <c r="S471" s="29"/>
     </row>
-    <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <v>479</v>
       </c>
@@ -27689,7 +27688,7 @@
       </c>
       <c r="S472" s="29"/>
     </row>
-    <row r="473" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <v>480</v>
       </c>
@@ -27740,7 +27739,7 @@
       </c>
       <c r="S473" s="29"/>
     </row>
-    <row r="474" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="23">
         <v>481</v>
       </c>
@@ -27795,7 +27794,7 @@
       </c>
       <c r="S474" s="29"/>
     </row>
-    <row r="475" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="23">
         <v>482</v>
       </c>
@@ -27846,7 +27845,7 @@
       </c>
       <c r="S475" s="29"/>
     </row>
-    <row r="476" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="23">
         <v>483</v>
       </c>
@@ -27897,7 +27896,7 @@
       </c>
       <c r="S476" s="29"/>
     </row>
-    <row r="477" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="23">
         <v>484</v>
       </c>
@@ -27946,7 +27945,7 @@
       </c>
       <c r="S477" s="29"/>
     </row>
-    <row r="478" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="23">
         <v>485</v>
       </c>
@@ -27995,7 +27994,7 @@
       </c>
       <c r="S478" s="29"/>
     </row>
-    <row r="479" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <v>486</v>
       </c>
@@ -28044,7 +28043,7 @@
       </c>
       <c r="S479" s="29"/>
     </row>
-    <row r="480" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="23">
         <v>487</v>
       </c>
@@ -28093,7 +28092,7 @@
       </c>
       <c r="S480" s="29"/>
     </row>
-    <row r="481" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="23">
         <v>488</v>
       </c>
@@ -28142,7 +28141,7 @@
       </c>
       <c r="S481" s="29"/>
     </row>
-    <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="23">
         <v>489</v>
       </c>
@@ -28191,7 +28190,7 @@
       </c>
       <c r="S482" s="29"/>
     </row>
-    <row r="483" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="23">
         <v>490</v>
       </c>
@@ -28244,7 +28243,7 @@
       </c>
       <c r="S483" s="29"/>
     </row>
-    <row r="484" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <v>491</v>
       </c>
@@ -28293,7 +28292,7 @@
       </c>
       <c r="S484" s="29"/>
     </row>
-    <row r="485" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <v>492</v>
       </c>
@@ -28342,7 +28341,7 @@
       </c>
       <c r="S485" s="29"/>
     </row>
-    <row r="486" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="23">
         <v>493</v>
       </c>
@@ -28397,7 +28396,7 @@
       </c>
       <c r="S486" s="29"/>
     </row>
-    <row r="487" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="23">
         <v>494</v>
       </c>
@@ -28448,7 +28447,7 @@
       </c>
       <c r="S487" s="29"/>
     </row>
-    <row r="488" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="23">
         <v>495</v>
       </c>
@@ -28499,7 +28498,7 @@
       </c>
       <c r="S488" s="29"/>
     </row>
-    <row r="489" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <v>496</v>
       </c>
@@ -28550,7 +28549,7 @@
       </c>
       <c r="S489" s="29"/>
     </row>
-    <row r="490" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <v>497</v>
       </c>
@@ -28599,7 +28598,7 @@
       </c>
       <c r="S490" s="29"/>
     </row>
-    <row r="491" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="23">
         <v>498</v>
       </c>
@@ -28652,7 +28651,7 @@
       </c>
       <c r="S491" s="29"/>
     </row>
-    <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="23">
         <v>499</v>
       </c>
@@ -28701,7 +28700,7 @@
       </c>
       <c r="S492" s="29"/>
     </row>
-    <row r="493" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="23">
         <v>500</v>
       </c>
@@ -28752,7 +28751,7 @@
       </c>
       <c r="S493" s="29"/>
     </row>
-    <row r="494" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="23">
         <v>501</v>
       </c>
@@ -28807,7 +28806,7 @@
       </c>
       <c r="S494" s="29"/>
     </row>
-    <row r="495" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="23">
         <v>502</v>
       </c>
@@ -28858,7 +28857,7 @@
       </c>
       <c r="S495" s="29"/>
     </row>
-    <row r="496" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="23">
         <v>503</v>
       </c>
@@ -28909,7 +28908,7 @@
       </c>
       <c r="S496" s="29"/>
     </row>
-    <row r="497" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="23">
         <v>504</v>
       </c>
@@ -28958,7 +28957,7 @@
       </c>
       <c r="S497" s="29"/>
     </row>
-    <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <v>505</v>
       </c>
@@ -29007,7 +29006,7 @@
       </c>
       <c r="S498" s="29"/>
     </row>
-    <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="23">
         <v>506</v>
       </c>
@@ -29056,7 +29055,7 @@
       </c>
       <c r="S499" s="29"/>
     </row>
-    <row r="500" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="23">
         <v>507</v>
       </c>
@@ -29105,7 +29104,7 @@
       </c>
       <c r="S500" s="29"/>
     </row>
-    <row r="501" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="23">
         <v>508</v>
       </c>
@@ -29154,7 +29153,7 @@
       </c>
       <c r="S501" s="29"/>
     </row>
-    <row r="502" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="23">
         <v>509</v>
       </c>
@@ -29203,7 +29202,7 @@
       </c>
       <c r="S502" s="29"/>
     </row>
-    <row r="503" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="23">
         <v>510</v>
       </c>
@@ -29256,7 +29255,7 @@
       </c>
       <c r="S503" s="29"/>
     </row>
-    <row r="504" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="23">
         <v>511</v>
       </c>
@@ -29305,7 +29304,7 @@
       </c>
       <c r="S504" s="29"/>
     </row>
-    <row r="505" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="23">
         <v>512</v>
       </c>
@@ -29354,7 +29353,7 @@
       </c>
       <c r="S505" s="29"/>
     </row>
-    <row r="506" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="23">
         <v>513</v>
       </c>
@@ -29409,7 +29408,7 @@
       </c>
       <c r="S506" s="29"/>
     </row>
-    <row r="507" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="23">
         <v>514</v>
       </c>
@@ -29460,7 +29459,7 @@
       </c>
       <c r="S507" s="29"/>
     </row>
-    <row r="508" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="23">
         <v>515</v>
       </c>
@@ -29511,7 +29510,7 @@
       </c>
       <c r="S508" s="29"/>
     </row>
-    <row r="509" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="23">
         <v>516</v>
       </c>
@@ -29562,7 +29561,7 @@
       </c>
       <c r="S509" s="29"/>
     </row>
-    <row r="510" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="23">
         <v>517</v>
       </c>
@@ -29611,7 +29610,7 @@
       </c>
       <c r="S510" s="29"/>
     </row>
-    <row r="511" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="23">
         <v>518</v>
       </c>
@@ -29664,7 +29663,7 @@
       </c>
       <c r="S511" s="29"/>
     </row>
-    <row r="512" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="23">
         <v>519</v>
       </c>
@@ -29713,7 +29712,7 @@
       </c>
       <c r="S512" s="29"/>
     </row>
-    <row r="513" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="23">
         <v>520</v>
       </c>
@@ -29764,7 +29763,7 @@
       </c>
       <c r="S513" s="29"/>
     </row>
-    <row r="514" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="23">
         <v>521</v>
       </c>
@@ -29819,7 +29818,7 @@
       </c>
       <c r="S514" s="29"/>
     </row>
-    <row r="515" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="23">
         <v>522</v>
       </c>
@@ -29870,7 +29869,7 @@
       </c>
       <c r="S515" s="29"/>
     </row>
-    <row r="516" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="23">
         <v>523</v>
       </c>
@@ -29921,7 +29920,7 @@
       </c>
       <c r="S516" s="29"/>
     </row>
-    <row r="517" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="23">
         <v>524</v>
       </c>
@@ -29970,7 +29969,7 @@
       </c>
       <c r="S517" s="29"/>
     </row>
-    <row r="518" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="23">
         <v>525</v>
       </c>
@@ -30019,7 +30018,7 @@
       </c>
       <c r="S518" s="29"/>
     </row>
-    <row r="519" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="23">
         <v>526</v>
       </c>
@@ -30068,7 +30067,7 @@
       </c>
       <c r="S519" s="29"/>
     </row>
-    <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="23">
         <v>527</v>
       </c>
@@ -30117,7 +30116,7 @@
       </c>
       <c r="S520" s="29"/>
     </row>
-    <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="23">
         <v>528</v>
       </c>
@@ -30166,7 +30165,7 @@
       </c>
       <c r="S521" s="29"/>
     </row>
-    <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="23">
         <v>529</v>
       </c>
@@ -30215,7 +30214,7 @@
       </c>
       <c r="S522" s="29"/>
     </row>
-    <row r="523" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="23">
         <v>530</v>
       </c>
@@ -30264,7 +30263,7 @@
       </c>
       <c r="S523" s="29"/>
     </row>
-    <row r="524" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="23">
         <v>531</v>
       </c>
@@ -30313,7 +30312,7 @@
       </c>
       <c r="S524" s="29"/>
     </row>
-    <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="23">
         <v>532</v>
       </c>
@@ -30362,7 +30361,7 @@
       </c>
       <c r="S525" s="29"/>
     </row>
-    <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="23">
         <v>533</v>
       </c>
@@ -30415,7 +30414,7 @@
       </c>
       <c r="S526" s="29"/>
     </row>
-    <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="23">
         <v>534</v>
       </c>
@@ -30464,7 +30463,7 @@
       </c>
       <c r="S527" s="29"/>
     </row>
-    <row r="528" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="23">
         <v>535</v>
       </c>
@@ -30515,7 +30514,7 @@
       </c>
       <c r="S528" s="29"/>
     </row>
-    <row r="529" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="23">
         <v>536</v>
       </c>
@@ -30568,7 +30567,7 @@
       </c>
       <c r="S529" s="29"/>
     </row>
-    <row r="530" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="23">
         <v>537</v>
       </c>
@@ -30619,7 +30618,7 @@
       </c>
       <c r="S530" s="29"/>
     </row>
-    <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="23">
         <v>538</v>
       </c>
@@ -30668,7 +30667,7 @@
       </c>
       <c r="S531" s="29"/>
     </row>
-    <row r="532" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="23">
         <v>539</v>
       </c>
@@ -30717,7 +30716,7 @@
       </c>
       <c r="S532" s="29"/>
     </row>
-    <row r="533" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="23">
         <v>540</v>
       </c>
@@ -30766,7 +30765,7 @@
       </c>
       <c r="S533" s="29"/>
     </row>
-    <row r="534" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="23">
         <v>541</v>
       </c>
@@ -30815,7 +30814,7 @@
       </c>
       <c r="S534" s="29"/>
     </row>
-    <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="23">
         <v>542</v>
       </c>
@@ -30864,7 +30863,7 @@
       </c>
       <c r="S535" s="29"/>
     </row>
-    <row r="536" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="23">
         <v>543</v>
       </c>
@@ -30913,7 +30912,7 @@
       </c>
       <c r="S536" s="29"/>
     </row>
-    <row r="537" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="23">
         <v>544</v>
       </c>
@@ -30962,7 +30961,7 @@
       </c>
       <c r="S537" s="29"/>
     </row>
-    <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="23">
         <v>545</v>
       </c>
@@ -31011,7 +31010,7 @@
       </c>
       <c r="S538" s="29"/>
     </row>
-    <row r="539" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="23">
         <v>546</v>
       </c>
@@ -31060,7 +31059,7 @@
       </c>
       <c r="S539" s="29"/>
     </row>
-    <row r="540" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="23">
         <v>547</v>
       </c>
@@ -31113,7 +31112,7 @@
       </c>
       <c r="S540" s="29"/>
     </row>
-    <row r="541" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="23">
         <v>548</v>
       </c>
@@ -31162,7 +31161,7 @@
       </c>
       <c r="S541" s="29"/>
     </row>
-    <row r="542" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="23">
         <v>549</v>
       </c>
@@ -31213,7 +31212,7 @@
       </c>
       <c r="S542" s="29"/>
     </row>
-    <row r="543" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="23">
         <v>550</v>
       </c>
@@ -31266,7 +31265,7 @@
       </c>
       <c r="S543" s="29"/>
     </row>
-    <row r="544" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="23">
         <v>551</v>
       </c>
@@ -31317,7 +31316,7 @@
       </c>
       <c r="S544" s="29"/>
     </row>
-    <row r="545" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="23">
         <v>552</v>
       </c>
@@ -31366,7 +31365,7 @@
       </c>
       <c r="S545" s="29"/>
     </row>
-    <row r="546" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="23">
         <v>553</v>
       </c>
@@ -31415,7 +31414,7 @@
       </c>
       <c r="S546" s="29"/>
     </row>
-    <row r="547" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="23">
         <v>554</v>
       </c>
@@ -31466,7 +31465,7 @@
       </c>
       <c r="S547" s="29"/>
     </row>
-    <row r="548" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="23">
         <v>555</v>
       </c>
@@ -31515,7 +31514,7 @@
       </c>
       <c r="S548" s="29"/>
     </row>
-    <row r="549" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="23">
         <v>556</v>
       </c>
@@ -31566,7 +31565,7 @@
       </c>
       <c r="S549" s="29"/>
     </row>
-    <row r="550" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="23">
         <v>557</v>
       </c>
@@ -31615,7 +31614,7 @@
       </c>
       <c r="S550" s="29"/>
     </row>
-    <row r="551" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="23">
         <v>558</v>
       </c>
@@ -31666,7 +31665,7 @@
       </c>
       <c r="S551" s="29"/>
     </row>
-    <row r="552" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="23">
         <v>559</v>
       </c>
@@ -31715,7 +31714,7 @@
       </c>
       <c r="S552" s="29"/>
     </row>
-    <row r="553" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="23">
         <v>560</v>
       </c>
@@ -31766,7 +31765,7 @@
       </c>
       <c r="S553" s="29"/>
     </row>
-    <row r="554" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="23">
         <v>561</v>
       </c>
@@ -31815,7 +31814,7 @@
       </c>
       <c r="S554" s="29"/>
     </row>
-    <row r="555" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="23">
         <v>562</v>
       </c>
@@ -31864,7 +31863,7 @@
       </c>
       <c r="S555" s="29"/>
     </row>
-    <row r="556" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="23">
         <v>563</v>
       </c>
@@ -31915,7 +31914,7 @@
       </c>
       <c r="S556" s="29"/>
     </row>
-    <row r="557" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="23">
         <v>564</v>
       </c>
@@ -31964,7 +31963,7 @@
       </c>
       <c r="S557" s="29"/>
     </row>
-    <row r="558" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="23">
         <v>565</v>
       </c>
@@ -32013,7 +32012,7 @@
       </c>
       <c r="S558" s="29"/>
     </row>
-    <row r="559" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="23">
         <v>566</v>
       </c>
@@ -32064,7 +32063,7 @@
       </c>
       <c r="S559" s="29"/>
     </row>
-    <row r="560" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="23">
         <v>567</v>
       </c>
@@ -32119,7 +32118,7 @@
       </c>
       <c r="S560" s="29"/>
     </row>
-    <row r="561" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="23">
         <v>568</v>
       </c>
@@ -32174,7 +32173,7 @@
       </c>
       <c r="S561" s="29"/>
     </row>
-    <row r="562" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="23">
         <v>569</v>
       </c>
@@ -32225,7 +32224,7 @@
       </c>
       <c r="S562" s="29"/>
     </row>
-    <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="23">
         <v>570</v>
       </c>
@@ -32274,7 +32273,7 @@
       </c>
       <c r="S563" s="29"/>
     </row>
-    <row r="564" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="23">
         <v>571</v>
       </c>
@@ -32323,7 +32322,7 @@
       </c>
       <c r="S564" s="29"/>
     </row>
-    <row r="565" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="23">
         <v>572</v>
       </c>
@@ -32372,7 +32371,7 @@
       </c>
       <c r="S565" s="29"/>
     </row>
-    <row r="566" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="23">
         <v>573</v>
       </c>
@@ -32425,7 +32424,7 @@
       </c>
       <c r="S566" s="29"/>
     </row>
-    <row r="567" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="23">
         <v>574</v>
       </c>
@@ -32480,7 +32479,7 @@
       </c>
       <c r="S567" s="29"/>
     </row>
-    <row r="568" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="23">
         <v>575</v>
       </c>
@@ -32531,7 +32530,7 @@
       </c>
       <c r="S568" s="29"/>
     </row>
-    <row r="569" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="23">
         <v>576</v>
       </c>
@@ -32580,7 +32579,7 @@
       </c>
       <c r="S569" s="29"/>
     </row>
-    <row r="570" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="23">
         <v>577</v>
       </c>
@@ -32633,7 +32632,7 @@
       </c>
       <c r="S570" s="29"/>
     </row>
-    <row r="571" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="23">
         <v>578</v>
       </c>
@@ -32684,7 +32683,7 @@
       </c>
       <c r="S571" s="29"/>
     </row>
-    <row r="572" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="23">
         <v>580</v>
       </c>
@@ -32735,7 +32734,7 @@
       </c>
       <c r="S572" s="29"/>
     </row>
-    <row r="573" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="23">
         <v>581</v>
       </c>
@@ -32784,7 +32783,7 @@
       </c>
       <c r="S573" s="29"/>
     </row>
-    <row r="574" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="23">
         <v>582</v>
       </c>
@@ -32833,7 +32832,7 @@
       </c>
       <c r="S574" s="29"/>
     </row>
-    <row r="575" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="23">
         <v>583</v>
       </c>
@@ -32884,7 +32883,7 @@
       </c>
       <c r="S575" s="29"/>
     </row>
-    <row r="576" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="23">
         <v>584</v>
       </c>
@@ -32933,7 +32932,7 @@
       </c>
       <c r="S576" s="29"/>
     </row>
-    <row r="577" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="23">
         <v>585</v>
       </c>
@@ -32984,7 +32983,7 @@
       </c>
       <c r="S577" s="29"/>
     </row>
-    <row r="578" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="23">
         <v>586</v>
       </c>
@@ -33033,7 +33032,7 @@
       </c>
       <c r="S578" s="29"/>
     </row>
-    <row r="579" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="23">
         <v>587</v>
       </c>
@@ -33084,7 +33083,7 @@
       </c>
       <c r="S579" s="29"/>
     </row>
-    <row r="580" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="23">
         <v>588</v>
       </c>
@@ -33133,7 +33132,7 @@
       </c>
       <c r="S580" s="29"/>
     </row>
-    <row r="581" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="23">
         <v>589</v>
       </c>
@@ -33184,7 +33183,7 @@
       </c>
       <c r="S581" s="29"/>
     </row>
-    <row r="582" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="23">
         <v>590</v>
       </c>
@@ -33233,7 +33232,7 @@
       </c>
       <c r="S582" s="29"/>
     </row>
-    <row r="583" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="23">
         <v>591</v>
       </c>
@@ -33282,7 +33281,7 @@
       </c>
       <c r="S583" s="29"/>
     </row>
-    <row r="584" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="23">
         <v>592</v>
       </c>
@@ -33333,7 +33332,7 @@
       </c>
       <c r="S584" s="29"/>
     </row>
-    <row r="585" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="23">
         <v>593</v>
       </c>
@@ -33382,7 +33381,7 @@
       </c>
       <c r="S585" s="29"/>
     </row>
-    <row r="586" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="23">
         <v>594</v>
       </c>
@@ -33431,7 +33430,7 @@
       </c>
       <c r="S586" s="29"/>
     </row>
-    <row r="587" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="23">
         <v>595</v>
       </c>
@@ -33482,7 +33481,7 @@
       </c>
       <c r="S587" s="29"/>
     </row>
-    <row r="588" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="23">
         <v>596</v>
       </c>
@@ -33537,7 +33536,7 @@
       </c>
       <c r="S588" s="29"/>
     </row>
-    <row r="589" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="23">
         <v>597</v>
       </c>
@@ -33592,7 +33591,7 @@
       </c>
       <c r="S589" s="29"/>
     </row>
-    <row r="590" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="23">
         <v>598</v>
       </c>
@@ -33643,7 +33642,7 @@
       </c>
       <c r="S590" s="29"/>
     </row>
-    <row r="591" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="23">
         <v>599</v>
       </c>
@@ -33692,7 +33691,7 @@
       </c>
       <c r="S591" s="29"/>
     </row>
-    <row r="592" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="23">
         <v>600</v>
       </c>
@@ -33741,7 +33740,7 @@
       </c>
       <c r="S592" s="29"/>
     </row>
-    <row r="593" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="23">
         <v>601</v>
       </c>
@@ -33790,7 +33789,7 @@
       </c>
       <c r="S593" s="29"/>
     </row>
-    <row r="594" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="23">
         <v>602</v>
       </c>
@@ -33843,7 +33842,7 @@
       </c>
       <c r="S594" s="29"/>
     </row>
-    <row r="595" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="23">
         <v>603</v>
       </c>
@@ -33898,7 +33897,7 @@
       </c>
       <c r="S595" s="29"/>
     </row>
-    <row r="596" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="23">
         <v>604</v>
       </c>
@@ -33949,7 +33948,7 @@
       </c>
       <c r="S596" s="29"/>
     </row>
-    <row r="597" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="23">
         <v>605</v>
       </c>
@@ -33998,7 +33997,7 @@
       </c>
       <c r="S597" s="29"/>
     </row>
-    <row r="598" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="23">
         <v>606</v>
       </c>
@@ -34051,7 +34050,7 @@
       </c>
       <c r="S598" s="29"/>
     </row>
-    <row r="599" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="23">
         <v>607</v>
       </c>
@@ -34102,7 +34101,7 @@
       </c>
       <c r="S599" s="29"/>
     </row>
-    <row r="600" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="23">
         <v>608</v>
       </c>
@@ -34153,7 +34152,7 @@
       </c>
       <c r="S600" s="29"/>
     </row>
-    <row r="601" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="23">
         <v>609</v>
       </c>
@@ -34202,7 +34201,7 @@
       </c>
       <c r="S601" s="29"/>
     </row>
-    <row r="602" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="23">
         <v>610</v>
       </c>
@@ -34251,7 +34250,7 @@
       </c>
       <c r="S602" s="29"/>
     </row>
-    <row r="603" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="23">
         <v>611</v>
       </c>
@@ -34302,7 +34301,7 @@
       </c>
       <c r="S603" s="29"/>
     </row>
-    <row r="604" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="23">
         <v>612</v>
       </c>
@@ -34351,7 +34350,7 @@
       </c>
       <c r="S604" s="29"/>
     </row>
-    <row r="605" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="23">
         <v>613</v>
       </c>
@@ -34402,7 +34401,7 @@
       </c>
       <c r="S605" s="29"/>
     </row>
-    <row r="606" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="23">
         <v>614</v>
       </c>
@@ -34451,7 +34450,7 @@
       </c>
       <c r="S606" s="29"/>
     </row>
-    <row r="607" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="23">
         <v>615</v>
       </c>
@@ -34502,7 +34501,7 @@
       </c>
       <c r="S607" s="29"/>
     </row>
-    <row r="608" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="23">
         <v>616</v>
       </c>
@@ -34551,7 +34550,7 @@
       </c>
       <c r="S608" s="29"/>
     </row>
-    <row r="609" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="23">
         <v>617</v>
       </c>
@@ -34602,7 +34601,7 @@
       </c>
       <c r="S609" s="29"/>
     </row>
-    <row r="610" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="23">
         <v>618</v>
       </c>
@@ -34651,7 +34650,7 @@
       </c>
       <c r="S610" s="29"/>
     </row>
-    <row r="611" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="23">
         <v>619</v>
       </c>
@@ -34700,7 +34699,7 @@
       </c>
       <c r="S611" s="29"/>
     </row>
-    <row r="612" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="23">
         <v>620</v>
       </c>
@@ -34751,7 +34750,7 @@
       </c>
       <c r="S612" s="29"/>
     </row>
-    <row r="613" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="23">
         <v>621</v>
       </c>
@@ -34800,7 +34799,7 @@
       </c>
       <c r="S613" s="29"/>
     </row>
-    <row r="614" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="23">
         <v>622</v>
       </c>
@@ -34849,7 +34848,7 @@
       </c>
       <c r="S614" s="29"/>
     </row>
-    <row r="615" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="23">
         <v>623</v>
       </c>
@@ -34900,7 +34899,7 @@
       </c>
       <c r="S615" s="29"/>
     </row>
-    <row r="616" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="23">
         <v>624</v>
       </c>
@@ -34955,7 +34954,7 @@
       </c>
       <c r="S616" s="29"/>
     </row>
-    <row r="617" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="23">
         <v>625</v>
       </c>
@@ -35010,7 +35009,7 @@
       </c>
       <c r="S617" s="29"/>
     </row>
-    <row r="618" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="23">
         <v>626</v>
       </c>
@@ -35061,7 +35060,7 @@
       </c>
       <c r="S618" s="29"/>
     </row>
-    <row r="619" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="23">
         <v>627</v>
       </c>
@@ -35110,7 +35109,7 @@
       </c>
       <c r="S619" s="29"/>
     </row>
-    <row r="620" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="23">
         <v>628</v>
       </c>
@@ -35159,7 +35158,7 @@
       </c>
       <c r="S620" s="29"/>
     </row>
-    <row r="621" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="23">
         <v>629</v>
       </c>
@@ -35208,7 +35207,7 @@
       </c>
       <c r="S621" s="29"/>
     </row>
-    <row r="622" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="23">
         <v>630</v>
       </c>
@@ -35261,7 +35260,7 @@
       </c>
       <c r="S622" s="29"/>
     </row>
-    <row r="623" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="23">
         <v>631</v>
       </c>
@@ -35316,7 +35315,7 @@
       </c>
       <c r="S623" s="29"/>
     </row>
-    <row r="624" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="23">
         <v>632</v>
       </c>
@@ -35367,7 +35366,7 @@
       </c>
       <c r="S624" s="29"/>
     </row>
-    <row r="625" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="23">
         <v>633</v>
       </c>
@@ -35416,7 +35415,7 @@
       </c>
       <c r="S625" s="29"/>
     </row>
-    <row r="626" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="23">
         <v>634</v>
       </c>
@@ -35469,7 +35468,7 @@
       </c>
       <c r="S626" s="29"/>
     </row>
-    <row r="627" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="23">
         <v>635</v>
       </c>
@@ -35520,7 +35519,7 @@
       </c>
       <c r="S627" s="29"/>
     </row>
-    <row r="628" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="23">
         <v>636</v>
       </c>
@@ -35571,7 +35570,7 @@
       </c>
       <c r="S628" s="29"/>
     </row>
-    <row r="629" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="23">
         <v>637</v>
       </c>
@@ -35620,7 +35619,7 @@
       </c>
       <c r="S629" s="29"/>
     </row>
-    <row r="630" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="23">
         <v>638</v>
       </c>
@@ -35669,7 +35668,7 @@
       </c>
       <c r="S630" s="29"/>
     </row>
-    <row r="631" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="23">
         <v>639</v>
       </c>
@@ -35720,7 +35719,7 @@
       </c>
       <c r="S631" s="29"/>
     </row>
-    <row r="632" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="23">
         <v>640</v>
       </c>
@@ -35769,7 +35768,7 @@
       </c>
       <c r="S632" s="29"/>
     </row>
-    <row r="633" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="23">
         <v>641</v>
       </c>
@@ -35820,7 +35819,7 @@
       </c>
       <c r="S633" s="29"/>
     </row>
-    <row r="634" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="23">
         <v>642</v>
       </c>
@@ -35869,7 +35868,7 @@
       </c>
       <c r="S634" s="29"/>
     </row>
-    <row r="635" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="23">
         <v>643</v>
       </c>
@@ -35920,7 +35919,7 @@
       </c>
       <c r="S635" s="29"/>
     </row>
-    <row r="636" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="23">
         <v>644</v>
       </c>
@@ -35969,7 +35968,7 @@
       </c>
       <c r="S636" s="29"/>
     </row>
-    <row r="637" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="23">
         <v>645</v>
       </c>
@@ -36020,7 +36019,7 @@
       </c>
       <c r="S637" s="29"/>
     </row>
-    <row r="638" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="23">
         <v>646</v>
       </c>
@@ -36069,7 +36068,7 @@
       </c>
       <c r="S638" s="29"/>
     </row>
-    <row r="639" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="23">
         <v>647</v>
       </c>
@@ -36118,7 +36117,7 @@
       </c>
       <c r="S639" s="29"/>
     </row>
-    <row r="640" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="23">
         <v>648</v>
       </c>
@@ -36169,7 +36168,7 @@
       </c>
       <c r="S640" s="29"/>
     </row>
-    <row r="641" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="23">
         <v>649</v>
       </c>
@@ -36218,7 +36217,7 @@
       </c>
       <c r="S641" s="29"/>
     </row>
-    <row r="642" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="23">
         <v>650</v>
       </c>
@@ -36267,7 +36266,7 @@
       </c>
       <c r="S642" s="29"/>
     </row>
-    <row r="643" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="23">
         <v>651</v>
       </c>
@@ -36318,7 +36317,7 @@
       </c>
       <c r="S643" s="29"/>
     </row>
-    <row r="644" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="23">
         <v>652</v>
       </c>
@@ -36373,7 +36372,7 @@
       </c>
       <c r="S644" s="29"/>
     </row>
-    <row r="645" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="23">
         <v>653</v>
       </c>
@@ -36428,7 +36427,7 @@
       </c>
       <c r="S645" s="29"/>
     </row>
-    <row r="646" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="23">
         <v>654</v>
       </c>
@@ -36479,7 +36478,7 @@
       </c>
       <c r="S646" s="29"/>
     </row>
-    <row r="647" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="23">
         <v>655</v>
       </c>
@@ -36528,7 +36527,7 @@
       </c>
       <c r="S647" s="29"/>
     </row>
-    <row r="648" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="23">
         <v>657</v>
       </c>
@@ -36577,7 +36576,7 @@
       </c>
       <c r="S648" s="29"/>
     </row>
-    <row r="649" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="23">
         <v>658</v>
       </c>
@@ -36626,7 +36625,7 @@
       </c>
       <c r="S649" s="29"/>
     </row>
-    <row r="650" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="23">
         <v>659</v>
       </c>
@@ -36679,7 +36678,7 @@
       </c>
       <c r="S650" s="29"/>
     </row>
-    <row r="651" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="23">
         <v>660</v>
       </c>
@@ -36734,7 +36733,7 @@
       </c>
       <c r="S651" s="29"/>
     </row>
-    <row r="652" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="23">
         <v>661</v>
       </c>
@@ -36785,7 +36784,7 @@
       </c>
       <c r="S652" s="29"/>
     </row>
-    <row r="653" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="23">
         <v>662</v>
       </c>
@@ -36834,7 +36833,7 @@
       </c>
       <c r="S653" s="29"/>
     </row>
-    <row r="654" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="23">
         <v>663</v>
       </c>
@@ -36887,7 +36886,7 @@
       </c>
       <c r="S654" s="29"/>
     </row>
-    <row r="655" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="23">
         <v>664</v>
       </c>
@@ -36938,7 +36937,7 @@
       </c>
       <c r="S655" s="29"/>
     </row>
-    <row r="656" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="23">
         <v>665</v>
       </c>
@@ -36989,7 +36988,7 @@
       </c>
       <c r="S656" s="29"/>
     </row>
-    <row r="657" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="23">
         <v>666</v>
       </c>
@@ -37038,7 +37037,7 @@
       </c>
       <c r="S657" s="29"/>
     </row>
-    <row r="658" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="23">
         <v>667</v>
       </c>
@@ -37087,7 +37086,7 @@
       </c>
       <c r="S658" s="29"/>
     </row>
-    <row r="659" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="23">
         <v>668</v>
       </c>
@@ -37138,7 +37137,7 @@
       </c>
       <c r="S659" s="29"/>
     </row>
-    <row r="660" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="23">
         <v>669</v>
       </c>
@@ -37187,7 +37186,7 @@
       </c>
       <c r="S660" s="29"/>
     </row>
-    <row r="661" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="23">
         <v>670</v>
       </c>
@@ -37238,7 +37237,7 @@
       </c>
       <c r="S661" s="29"/>
     </row>
-    <row r="662" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="23">
         <v>671</v>
       </c>
@@ -37287,7 +37286,7 @@
       </c>
       <c r="S662" s="29"/>
     </row>
-    <row r="663" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="23">
         <v>672</v>
       </c>
@@ -37338,7 +37337,7 @@
       </c>
       <c r="S663" s="29"/>
     </row>
-    <row r="664" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="23">
         <v>673</v>
       </c>
@@ -37387,7 +37386,7 @@
       </c>
       <c r="S664" s="29"/>
     </row>
-    <row r="665" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="23">
         <v>674</v>
       </c>
@@ -37438,7 +37437,7 @@
       </c>
       <c r="S665" s="29"/>
     </row>
-    <row r="666" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="23">
         <v>675</v>
       </c>
@@ -37487,7 +37486,7 @@
       </c>
       <c r="S666" s="29"/>
     </row>
-    <row r="667" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="23">
         <v>676</v>
       </c>
@@ -37536,7 +37535,7 @@
       </c>
       <c r="S667" s="29"/>
     </row>
-    <row r="668" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="23">
         <v>677</v>
       </c>
@@ -37587,7 +37586,7 @@
       </c>
       <c r="S668" s="29"/>
     </row>
-    <row r="669" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="23">
         <v>678</v>
       </c>
@@ -37636,7 +37635,7 @@
       </c>
       <c r="S669" s="29"/>
     </row>
-    <row r="670" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="23">
         <v>679</v>
       </c>
@@ -37685,7 +37684,7 @@
       </c>
       <c r="S670" s="29"/>
     </row>
-    <row r="671" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="23">
         <v>680</v>
       </c>
@@ -37736,7 +37735,7 @@
       </c>
       <c r="S671" s="29"/>
     </row>
-    <row r="672" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="23">
         <v>681</v>
       </c>
@@ -37791,7 +37790,7 @@
       </c>
       <c r="S672" s="29"/>
     </row>
-    <row r="673" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="23">
         <v>682</v>
       </c>
@@ -37846,7 +37845,7 @@
       </c>
       <c r="S673" s="29"/>
     </row>
-    <row r="674" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="23">
         <v>683</v>
       </c>
@@ -37897,7 +37896,7 @@
       </c>
       <c r="S674" s="29"/>
     </row>
-    <row r="675" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="23">
         <v>684</v>
       </c>
@@ -37946,7 +37945,7 @@
       </c>
       <c r="S675" s="29"/>
     </row>
-    <row r="676" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="23">
         <v>685</v>
       </c>
@@ -37995,7 +37994,7 @@
       </c>
       <c r="S676" s="29"/>
     </row>
-    <row r="677" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="23">
         <v>686</v>
       </c>
@@ -38044,7 +38043,7 @@
       </c>
       <c r="S677" s="29"/>
     </row>
-    <row r="678" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="23">
         <v>687</v>
       </c>
@@ -38097,7 +38096,7 @@
       </c>
       <c r="S678" s="29"/>
     </row>
-    <row r="679" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="23">
         <v>688</v>
       </c>
@@ -38152,7 +38151,7 @@
       </c>
       <c r="S679" s="29"/>
     </row>
-    <row r="680" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="23">
         <v>689</v>
       </c>
@@ -38203,7 +38202,7 @@
       </c>
       <c r="S680" s="29"/>
     </row>
-    <row r="681" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="23">
         <v>690</v>
       </c>
@@ -38252,7 +38251,7 @@
       </c>
       <c r="S681" s="29"/>
     </row>
-    <row r="682" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="23">
         <v>691</v>
       </c>
@@ -38305,7 +38304,7 @@
       </c>
       <c r="S682" s="29"/>
     </row>
-    <row r="683" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="23">
         <v>692</v>
       </c>
@@ -38356,7 +38355,7 @@
       </c>
       <c r="S683" s="29"/>
     </row>
-    <row r="684" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="23">
         <v>693</v>
       </c>
@@ -38407,7 +38406,7 @@
       </c>
       <c r="S684" s="29"/>
     </row>
-    <row r="685" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="23">
         <v>694</v>
       </c>
@@ -38456,7 +38455,7 @@
       </c>
       <c r="S685" s="29"/>
     </row>
-    <row r="686" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="23">
         <v>695</v>
       </c>
@@ -38505,7 +38504,7 @@
       </c>
       <c r="S686" s="29"/>
     </row>
-    <row r="687" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="23">
         <v>696</v>
       </c>
@@ -38556,7 +38555,7 @@
       </c>
       <c r="S687" s="29"/>
     </row>
-    <row r="688" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="23">
         <v>697</v>
       </c>
@@ -38605,7 +38604,7 @@
       </c>
       <c r="S688" s="29"/>
     </row>
-    <row r="689" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="23">
         <v>698</v>
       </c>
@@ -38656,7 +38655,7 @@
       </c>
       <c r="S689" s="29"/>
     </row>
-    <row r="690" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="23">
         <v>699</v>
       </c>
@@ -38705,7 +38704,7 @@
       </c>
       <c r="S690" s="29"/>
     </row>
-    <row r="691" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="23">
         <v>700</v>
       </c>
@@ -38756,7 +38755,7 @@
       </c>
       <c r="S691" s="29"/>
     </row>
-    <row r="692" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="23">
         <v>701</v>
       </c>
@@ -38805,7 +38804,7 @@
       </c>
       <c r="S692" s="29"/>
     </row>
-    <row r="693" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="23">
         <v>702</v>
       </c>
@@ -38856,7 +38855,7 @@
       </c>
       <c r="S693" s="29"/>
     </row>
-    <row r="694" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="23">
         <v>703</v>
       </c>
@@ -38905,7 +38904,7 @@
       </c>
       <c r="S694" s="29"/>
     </row>
-    <row r="695" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="23">
         <v>704</v>
       </c>
@@ -38954,7 +38953,7 @@
       </c>
       <c r="S695" s="29"/>
     </row>
-    <row r="696" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="23">
         <v>705</v>
       </c>
@@ -39005,7 +39004,7 @@
       </c>
       <c r="S696" s="29"/>
     </row>
-    <row r="697" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="23">
         <v>706</v>
       </c>
@@ -39054,7 +39053,7 @@
       </c>
       <c r="S697" s="29"/>
     </row>
-    <row r="698" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="23">
         <v>707</v>
       </c>
@@ -39103,7 +39102,7 @@
       </c>
       <c r="S698" s="29"/>
     </row>
-    <row r="699" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="23">
         <v>708</v>
       </c>
@@ -39154,7 +39153,7 @@
       </c>
       <c r="S699" s="29"/>
     </row>
-    <row r="700" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="23">
         <v>709</v>
       </c>
@@ -39209,7 +39208,7 @@
       </c>
       <c r="S700" s="29"/>
     </row>
-    <row r="701" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="23">
         <v>710</v>
       </c>
@@ -39264,7 +39263,7 @@
       </c>
       <c r="S701" s="29"/>
     </row>
-    <row r="702" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="23">
         <v>711</v>
       </c>
@@ -39315,7 +39314,7 @@
       </c>
       <c r="S702" s="29"/>
     </row>
-    <row r="703" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="23">
         <v>712</v>
       </c>
@@ -39364,7 +39363,7 @@
       </c>
       <c r="S703" s="29"/>
     </row>
-    <row r="704" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="23">
         <v>713</v>
       </c>
@@ -39413,7 +39412,7 @@
       </c>
       <c r="S704" s="29"/>
     </row>
-    <row r="705" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="23">
         <v>714</v>
       </c>
@@ -39462,7 +39461,7 @@
       </c>
       <c r="S705" s="29"/>
     </row>
-    <row r="706" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="23">
         <v>715</v>
       </c>
@@ -39515,7 +39514,7 @@
       </c>
       <c r="S706" s="29"/>
     </row>
-    <row r="707" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="23">
         <v>716</v>
       </c>
@@ -39570,7 +39569,7 @@
       </c>
       <c r="S707" s="29"/>
     </row>
-    <row r="708" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="23">
         <v>717</v>
       </c>
@@ -39621,7 +39620,7 @@
       </c>
       <c r="S708" s="29"/>
     </row>
-    <row r="709" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="23">
         <v>718</v>
       </c>
@@ -39670,7 +39669,7 @@
       </c>
       <c r="S709" s="29"/>
     </row>
-    <row r="710" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="23">
         <v>719</v>
       </c>
@@ -39723,7 +39722,7 @@
       </c>
       <c r="S710" s="29"/>
     </row>
-    <row r="711" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="23">
         <v>720</v>
       </c>
@@ -39774,7 +39773,7 @@
       </c>
       <c r="S711" s="29"/>
     </row>
-    <row r="712" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="23">
         <v>721</v>
       </c>
@@ -39827,7 +39826,7 @@
       </c>
       <c r="S712" s="29"/>
     </row>
-    <row r="713" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="23">
         <v>722</v>
       </c>
@@ -39880,7 +39879,7 @@
       </c>
       <c r="S713" s="29"/>
     </row>
-    <row r="714" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="23">
         <v>723</v>
       </c>
@@ -39933,7 +39932,7 @@
       </c>
       <c r="S714" s="29"/>
     </row>
-    <row r="715" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="23">
         <v>724</v>
       </c>
@@ -39982,7 +39981,7 @@
       </c>
       <c r="S715" s="29"/>
     </row>
-    <row r="716" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="23">
         <v>725</v>
       </c>
@@ -40035,7 +40034,7 @@
       </c>
       <c r="S716" s="29"/>
     </row>
-    <row r="717" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="23">
         <v>726</v>
       </c>
@@ -40088,7 +40087,7 @@
       </c>
       <c r="S717" s="29"/>
     </row>
-    <row r="718" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="23">
         <v>727</v>
       </c>
@@ -40141,7 +40140,7 @@
       </c>
       <c r="S718" s="29"/>
     </row>
-    <row r="719" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="23">
         <v>728</v>
       </c>
@@ -40194,7 +40193,7 @@
       </c>
       <c r="S719" s="29"/>
     </row>
-    <row r="720" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="23">
         <v>729</v>
       </c>
@@ -40247,7 +40246,7 @@
       </c>
       <c r="S720" s="29"/>
     </row>
-    <row r="721" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="23">
         <v>730</v>
       </c>
@@ -40300,7 +40299,7 @@
       </c>
       <c r="S721" s="29"/>
     </row>
-    <row r="722" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="23">
         <v>731</v>
       </c>
@@ -40355,7 +40354,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="723" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="23">
         <v>732</v>
       </c>
@@ -40410,7 +40409,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="724" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="23">
         <v>733</v>
       </c>
@@ -40465,7 +40464,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="725" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="23">
         <v>734</v>
       </c>
@@ -40520,7 +40519,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="726" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="23">
         <v>735</v>
       </c>
@@ -40567,7 +40566,7 @@
       </c>
       <c r="S726" s="29"/>
     </row>
-    <row r="727" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="23">
         <v>736</v>
       </c>
@@ -40620,7 +40619,7 @@
       </c>
       <c r="S727" s="29"/>
     </row>
-    <row r="728" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="23">
         <v>737</v>
       </c>
@@ -40673,7 +40672,7 @@
       </c>
       <c r="S728" s="29"/>
     </row>
-    <row r="729" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="23">
         <v>738</v>
       </c>
@@ -40775,7 +40774,7 @@
       </c>
       <c r="S730" s="29"/>
     </row>
-    <row r="731" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="23">
         <v>740</v>
       </c>
@@ -40828,7 +40827,7 @@
       </c>
       <c r="S731" s="29"/>
     </row>
-    <row r="732" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="23">
         <v>741</v>
       </c>
@@ -40877,7 +40876,7 @@
       </c>
       <c r="S732" s="29"/>
     </row>
-    <row r="733" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="23">
         <v>742</v>
       </c>
@@ -40926,7 +40925,7 @@
       </c>
       <c r="S733" s="29"/>
     </row>
-    <row r="734" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="23">
         <v>743</v>
       </c>
@@ -40975,7 +40974,7 @@
       </c>
       <c r="S734" s="29"/>
     </row>
-    <row r="735" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="23">
         <v>744</v>
       </c>
@@ -41028,7 +41027,7 @@
       </c>
       <c r="S735" s="29"/>
     </row>
-    <row r="736" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="23">
         <v>745</v>
       </c>
@@ -41079,7 +41078,7 @@
       </c>
       <c r="S736" s="29"/>
     </row>
-    <row r="737" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="23">
         <v>746</v>
       </c>
@@ -41130,7 +41129,7 @@
       </c>
       <c r="S737" s="29"/>
     </row>
-    <row r="738" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="23">
         <v>747</v>
       </c>
@@ -41177,7 +41176,7 @@
       </c>
       <c r="S738" s="29"/>
     </row>
-    <row r="739" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="23">
         <v>748</v>
       </c>
@@ -41224,7 +41223,7 @@
       </c>
       <c r="S739" s="29"/>
     </row>
-    <row r="740" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="23">
         <v>749</v>
       </c>
@@ -41275,7 +41274,7 @@
       </c>
       <c r="S740" s="29"/>
     </row>
-    <row r="741" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="23">
         <v>750</v>
       </c>
@@ -41326,7 +41325,7 @@
       </c>
       <c r="S741" s="29"/>
     </row>
-    <row r="742" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="23">
         <v>751</v>
       </c>
@@ -41373,7 +41372,7 @@
       </c>
       <c r="S742" s="29"/>
     </row>
-    <row r="743" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="23">
         <v>752</v>
       </c>
@@ -41424,7 +41423,7 @@
       </c>
       <c r="S743" s="29"/>
     </row>
-    <row r="744" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="23">
         <v>753</v>
       </c>
@@ -41475,7 +41474,7 @@
       </c>
       <c r="S744" s="29"/>
     </row>
-    <row r="745" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="23">
         <v>754</v>
       </c>
@@ -41522,7 +41521,7 @@
       </c>
       <c r="S745" s="29"/>
     </row>
-    <row r="746" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="23">
         <v>755</v>
       </c>
@@ -41569,7 +41568,7 @@
       </c>
       <c r="S746" s="29"/>
     </row>
-    <row r="747" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="23">
         <v>756</v>
       </c>
@@ -41620,7 +41619,7 @@
       </c>
       <c r="S747" s="29"/>
     </row>
-    <row r="748" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="23">
         <v>757</v>
       </c>
@@ -41671,7 +41670,7 @@
       </c>
       <c r="S748" s="29"/>
     </row>
-    <row r="749" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="23">
         <v>758</v>
       </c>
@@ -41722,7 +41721,7 @@
       </c>
       <c r="S749" s="29"/>
     </row>
-    <row r="750" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="23">
         <v>759</v>
       </c>
@@ -41769,7 +41768,7 @@
       </c>
       <c r="S750" s="29"/>
     </row>
-    <row r="751" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="51">
         <v>764</v>
       </c>
@@ -41816,7 +41815,7 @@
       </c>
       <c r="S751" s="29"/>
     </row>
-    <row r="752" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="51">
         <v>765</v>
       </c>
@@ -41869,7 +41868,7 @@
       </c>
       <c r="S752" s="29"/>
     </row>
-    <row r="753" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="51">
         <v>766</v>
       </c>
@@ -41918,7 +41917,7 @@
       </c>
       <c r="S753" s="29"/>
     </row>
-    <row r="754" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="51">
         <v>767</v>
       </c>
@@ -41971,7 +41970,7 @@
       </c>
       <c r="S754" s="29"/>
     </row>
-    <row r="755" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="23">
         <v>768</v>
       </c>
@@ -42024,7 +42023,7 @@
       </c>
       <c r="S755" s="29"/>
     </row>
-    <row r="756" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="23">
         <v>769</v>
       </c>
@@ -42077,7 +42076,7 @@
       </c>
       <c r="S756" s="29"/>
     </row>
-    <row r="757" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="23">
         <v>770</v>
       </c>
@@ -42130,7 +42129,7 @@
       </c>
       <c r="S757" s="29"/>
     </row>
-    <row r="758" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="23">
         <v>771</v>
       </c>
@@ -42183,7 +42182,7 @@
       </c>
       <c r="S758" s="29"/>
     </row>
-    <row r="759" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="23">
         <v>772</v>
       </c>
@@ -42236,7 +42235,7 @@
       </c>
       <c r="S759" s="29"/>
     </row>
-    <row r="760" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="23">
         <v>773</v>
       </c>
@@ -42291,7 +42290,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="761" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="23">
         <v>774</v>
       </c>
@@ -42344,7 +42343,7 @@
       </c>
       <c r="S761" s="29"/>
     </row>
-    <row r="762" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="23">
         <v>775</v>
       </c>
@@ -42397,7 +42396,7 @@
       </c>
       <c r="S762" s="29"/>
     </row>
-    <row r="763" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="23">
         <v>776</v>
       </c>
@@ -42499,7 +42498,7 @@
       </c>
       <c r="S764" s="29"/>
     </row>
-    <row r="765" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="23">
         <v>778</v>
       </c>
@@ -42552,7 +42551,7 @@
       </c>
       <c r="S765" s="29"/>
     </row>
-    <row r="766" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="23">
         <v>779</v>
       </c>
@@ -42601,7 +42600,7 @@
       </c>
       <c r="S766" s="29"/>
     </row>
-    <row r="767" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="23">
         <v>781</v>
       </c>
@@ -42650,7 +42649,7 @@
       </c>
       <c r="S767" s="29"/>
     </row>
-    <row r="768" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="23">
         <v>782</v>
       </c>
@@ -42699,7 +42698,7 @@
       </c>
       <c r="S768" s="29"/>
     </row>
-    <row r="769" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="23">
         <v>783</v>
       </c>
@@ -42752,7 +42751,7 @@
       </c>
       <c r="S769" s="29"/>
     </row>
-    <row r="770" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="23">
         <v>784</v>
       </c>
@@ -42799,7 +42798,7 @@
       </c>
       <c r="S770" s="29"/>
     </row>
-    <row r="771" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="23">
         <v>784</v>
       </c>
@@ -42852,7 +42851,7 @@
       </c>
       <c r="S771" s="29"/>
     </row>
-    <row r="772" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="23">
         <v>785</v>
       </c>
@@ -42901,7 +42900,7 @@
       </c>
       <c r="S772" s="29"/>
     </row>
-    <row r="773" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="23">
         <v>786</v>
       </c>
@@ -42954,7 +42953,7 @@
       </c>
       <c r="S773" s="29"/>
     </row>
-    <row r="774" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="23">
         <v>787</v>
       </c>
@@ -43007,7 +43006,7 @@
       </c>
       <c r="S774" s="29"/>
     </row>
-    <row r="775" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="23">
         <v>788</v>
       </c>
@@ -43060,7 +43059,7 @@
       </c>
       <c r="S775" s="29"/>
     </row>
-    <row r="776" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="23">
         <v>789</v>
       </c>
@@ -43113,7 +43112,7 @@
       </c>
       <c r="S776" s="29"/>
     </row>
-    <row r="777" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="23">
         <v>790</v>
       </c>
@@ -43166,7 +43165,7 @@
       </c>
       <c r="S777" s="29"/>
     </row>
-    <row r="778" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="23">
         <v>791</v>
       </c>
@@ -43219,7 +43218,7 @@
       </c>
       <c r="S778" s="29"/>
     </row>
-    <row r="779" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="23">
         <v>792</v>
       </c>
@@ -43266,7 +43265,7 @@
       </c>
       <c r="S779" s="29"/>
     </row>
-    <row r="780" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="23">
         <v>793</v>
       </c>
@@ -43317,7 +43316,7 @@
       </c>
       <c r="S780" s="29"/>
     </row>
-    <row r="781" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="23">
         <v>794</v>
       </c>
@@ -43368,7 +43367,7 @@
       </c>
       <c r="S781" s="29"/>
     </row>
-    <row r="782" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="23">
         <v>795</v>
       </c>
@@ -43419,7 +43418,7 @@
       </c>
       <c r="S782" s="29"/>
     </row>
-    <row r="783" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="23">
         <v>796</v>
       </c>
@@ -43466,7 +43465,7 @@
       </c>
       <c r="S783" s="29"/>
     </row>
-    <row r="784" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="23">
         <v>797</v>
       </c>
@@ -43513,7 +43512,7 @@
       </c>
       <c r="S784" s="29"/>
     </row>
-    <row r="785" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="23">
         <v>798</v>
       </c>
@@ -43566,7 +43565,7 @@
       </c>
       <c r="S785" s="29"/>
     </row>
-    <row r="786" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="23">
         <v>799</v>
       </c>
@@ -43619,7 +43618,7 @@
       </c>
       <c r="S786" s="29"/>
     </row>
-    <row r="787" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="23">
         <v>800</v>
       </c>
@@ -43672,7 +43671,7 @@
       </c>
       <c r="S787" s="29"/>
     </row>
-    <row r="788" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="23">
         <v>801</v>
       </c>
@@ -43725,7 +43724,7 @@
       </c>
       <c r="S788" s="29"/>
     </row>
-    <row r="789" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="23">
         <v>802</v>
       </c>
@@ -43778,7 +43777,7 @@
       </c>
       <c r="S789" s="29"/>
     </row>
-    <row r="790" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="23">
         <v>803</v>
       </c>
@@ -43831,7 +43830,7 @@
       </c>
       <c r="S790" s="29"/>
     </row>
-    <row r="791" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="23">
         <v>804</v>
       </c>
@@ -43882,7 +43881,7 @@
       </c>
       <c r="S791" s="29"/>
     </row>
-    <row r="792" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="23">
         <v>805</v>
       </c>
@@ -43933,7 +43932,7 @@
       </c>
       <c r="S792" s="29"/>
     </row>
-    <row r="793" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="23">
         <v>806</v>
       </c>
@@ -43980,7 +43979,7 @@
       </c>
       <c r="S793" s="29"/>
     </row>
-    <row r="794" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="23">
         <v>807</v>
       </c>
@@ -44027,7 +44026,7 @@
       </c>
       <c r="S794" s="29"/>
     </row>
-    <row r="795" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="23">
         <v>808</v>
       </c>
@@ -44074,7 +44073,7 @@
       </c>
       <c r="S795" s="29"/>
     </row>
-    <row r="796" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="59">
         <v>814</v>
       </c>
@@ -44127,7 +44126,7 @@
       </c>
       <c r="S796" s="29"/>
     </row>
-    <row r="797" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="23">
         <v>815</v>
       </c>
@@ -44176,7 +44175,7 @@
       </c>
       <c r="S797" s="29"/>
     </row>
-    <row r="798" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="23">
         <v>816</v>
       </c>
@@ -44229,7 +44228,7 @@
       </c>
       <c r="S798" s="29"/>
     </row>
-    <row r="799" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="59">
         <v>817</v>
       </c>
@@ -44282,7 +44281,7 @@
       </c>
       <c r="S799" s="29"/>
     </row>
-    <row r="800" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="59">
         <v>818</v>
       </c>
@@ -44335,7 +44334,7 @@
       </c>
       <c r="S800" s="29"/>
     </row>
-    <row r="801" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="23">
         <v>819</v>
       </c>
@@ -44388,7 +44387,7 @@
       </c>
       <c r="S801" s="29"/>
     </row>
-    <row r="802" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="23">
         <v>820</v>
       </c>
@@ -44441,7 +44440,7 @@
       </c>
       <c r="S802" s="29"/>
     </row>
-    <row r="803" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="23">
         <v>821</v>
       </c>
@@ -44494,7 +44493,7 @@
       </c>
       <c r="S803" s="29"/>
     </row>
-    <row r="804" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="59">
         <v>822</v>
       </c>
@@ -44541,7 +44540,7 @@
       </c>
       <c r="S804" s="29"/>
     </row>
-    <row r="805" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="23">
         <v>822</v>
       </c>
@@ -44592,7 +44591,7 @@
       </c>
       <c r="S805" s="29"/>
     </row>
-    <row r="806" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="23">
         <v>823</v>
       </c>
@@ -44643,7 +44642,7 @@
       </c>
       <c r="S806" s="29"/>
     </row>
-    <row r="807" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="23">
         <v>824</v>
       </c>
@@ -44690,7 +44689,7 @@
       </c>
       <c r="S807" s="29"/>
     </row>
-    <row r="808" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="23">
         <v>825</v>
       </c>
@@ -44737,7 +44736,7 @@
       </c>
       <c r="S808" s="29"/>
     </row>
-    <row r="809" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="23">
         <v>826</v>
       </c>
@@ -44788,7 +44787,7 @@
       </c>
       <c r="S809" s="29"/>
     </row>
-    <row r="810" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="23">
         <v>827</v>
       </c>
@@ -44839,7 +44838,7 @@
       </c>
       <c r="S810" s="29"/>
     </row>
-    <row r="811" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="23">
         <v>828</v>
       </c>
@@ -44890,7 +44889,7 @@
       </c>
       <c r="S811" s="29"/>
     </row>
-    <row r="812" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="23">
         <v>829</v>
       </c>
@@ -44941,7 +44940,7 @@
       </c>
       <c r="S812" s="29"/>
     </row>
-    <row r="813" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="23">
         <v>830</v>
       </c>
@@ -44988,7 +44987,7 @@
       </c>
       <c r="S813" s="29"/>
     </row>
-    <row r="814" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="23">
         <v>832</v>
       </c>
@@ -45039,7 +45038,7 @@
       </c>
       <c r="S814" s="29"/>
     </row>
-    <row r="815" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="23">
         <v>833</v>
       </c>
@@ -45086,7 +45085,7 @@
       </c>
       <c r="S815" s="29"/>
     </row>
-    <row r="816" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="23">
         <v>834</v>
       </c>
@@ -45137,7 +45136,7 @@
       </c>
       <c r="S816" s="29"/>
     </row>
-    <row r="817" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="23">
         <v>835</v>
       </c>
@@ -45184,7 +45183,7 @@
       </c>
       <c r="S817" s="29"/>
     </row>
-    <row r="818" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="23">
         <v>836</v>
       </c>
@@ -45231,7 +45230,7 @@
       </c>
       <c r="S818" s="29"/>
     </row>
-    <row r="819" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="23">
         <v>838</v>
       </c>
@@ -45282,7 +45281,7 @@
       </c>
       <c r="S819" s="29"/>
     </row>
-    <row r="820" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="23">
         <v>839</v>
       </c>
@@ -45333,7 +45332,7 @@
       </c>
       <c r="S820" s="29"/>
     </row>
-    <row r="821" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="23">
         <v>840</v>
       </c>
@@ -45384,7 +45383,7 @@
       </c>
       <c r="S821" s="29"/>
     </row>
-    <row r="822" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="59">
         <v>841</v>
       </c>
@@ -45431,7 +45430,7 @@
       </c>
       <c r="S822" s="29"/>
     </row>
-    <row r="823" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="23">
         <v>842</v>
       </c>
@@ -45529,7 +45528,7 @@
       </c>
       <c r="S824" s="29"/>
     </row>
-    <row r="825" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="23">
         <v>844</v>
       </c>
@@ -45580,7 +45579,7 @@
       </c>
       <c r="S825" s="29"/>
     </row>
-    <row r="826" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="23">
         <v>845</v>
       </c>
@@ -45631,7 +45630,7 @@
       </c>
       <c r="S826" s="29"/>
     </row>
-    <row r="827" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="23">
         <v>846</v>
       </c>
@@ -45682,7 +45681,7 @@
       </c>
       <c r="S827" s="29"/>
     </row>
-    <row r="828" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="23">
         <v>847</v>
       </c>
@@ -45733,7 +45732,7 @@
       </c>
       <c r="S828" s="29"/>
     </row>
-    <row r="829" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="23">
         <v>848</v>
       </c>
@@ -45784,7 +45783,7 @@
       </c>
       <c r="S829" s="29"/>
     </row>
-    <row r="830" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="23">
         <v>849</v>
       </c>
@@ -45831,7 +45830,7 @@
       </c>
       <c r="S830" s="29"/>
     </row>
-    <row r="831" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="23">
         <v>850</v>
       </c>
@@ -45878,7 +45877,7 @@
       </c>
       <c r="S831" s="29"/>
     </row>
-    <row r="832" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="23">
         <v>851</v>
       </c>
@@ -45925,7 +45924,7 @@
       </c>
       <c r="S832" s="29"/>
     </row>
-    <row r="833" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="23">
         <v>852</v>
       </c>
@@ -45976,7 +45975,7 @@
       </c>
       <c r="S833" s="29"/>
     </row>
-    <row r="834" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="23">
         <v>853</v>
       </c>
@@ -46027,7 +46026,7 @@
       </c>
       <c r="S834" s="29"/>
     </row>
-    <row r="835" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="23">
         <v>854</v>
       </c>
@@ -46074,7 +46073,7 @@
       </c>
       <c r="S835" s="29"/>
     </row>
-    <row r="836" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="23">
         <v>855</v>
       </c>
@@ -46121,7 +46120,7 @@
       </c>
       <c r="S836" s="29"/>
     </row>
-    <row r="837" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="23">
         <v>856</v>
       </c>
@@ -46174,7 +46173,7 @@
       </c>
       <c r="S837" s="29"/>
     </row>
-    <row r="838" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="23">
         <v>857</v>
       </c>
@@ -46227,7 +46226,7 @@
       </c>
       <c r="S838" s="29"/>
     </row>
-    <row r="839" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="23">
         <v>858</v>
       </c>
@@ -46280,7 +46279,7 @@
       </c>
       <c r="S839" s="29"/>
     </row>
-    <row r="840" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="23">
         <v>859</v>
       </c>
@@ -46333,7 +46332,7 @@
       </c>
       <c r="S840" s="29"/>
     </row>
-    <row r="841" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="23">
         <v>860</v>
       </c>
@@ -46386,7 +46385,7 @@
       </c>
       <c r="S841" s="29"/>
     </row>
-    <row r="842" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="23">
         <v>861</v>
       </c>
@@ -46439,7 +46438,7 @@
       </c>
       <c r="S842" s="29"/>
     </row>
-    <row r="843" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="23">
         <v>862</v>
       </c>
@@ -46492,7 +46491,7 @@
       </c>
       <c r="S843" s="29"/>
     </row>
-    <row r="844" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="23">
         <v>863</v>
       </c>
@@ -46547,7 +46546,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="845" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="23">
         <v>864</v>
       </c>
@@ -46602,7 +46601,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="846" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="23">
         <v>865</v>
       </c>
@@ -46657,7 +46656,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="847" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="23">
         <v>866</v>
       </c>
@@ -46712,7 +46711,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="848" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="23">
         <v>867</v>
       </c>
@@ -46759,7 +46758,7 @@
       </c>
       <c r="S848" s="29"/>
     </row>
-    <row r="849" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="23">
         <v>868</v>
       </c>
@@ -46861,7 +46860,7 @@
       </c>
       <c r="S850" s="29"/>
     </row>
-    <row r="851" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="23">
         <v>870</v>
       </c>
@@ -46914,7 +46913,7 @@
       </c>
       <c r="S851" s="29"/>
     </row>
-    <row r="852" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="23">
         <v>871</v>
       </c>
@@ -46963,7 +46962,7 @@
       </c>
       <c r="S852" s="29"/>
     </row>
-    <row r="853" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="23">
         <v>872</v>
       </c>
@@ -47012,7 +47011,7 @@
       </c>
       <c r="S853" s="29"/>
     </row>
-    <row r="854" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="23">
         <v>873</v>
       </c>
@@ -47061,7 +47060,7 @@
       </c>
       <c r="S854" s="29"/>
     </row>
-    <row r="855" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="23">
         <v>874</v>
       </c>
@@ -47114,7 +47113,7 @@
       </c>
       <c r="S855" s="29"/>
     </row>
-    <row r="856" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="23">
         <v>875</v>
       </c>
@@ -47167,7 +47166,7 @@
       </c>
       <c r="S856" s="29"/>
     </row>
-    <row r="857" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="23">
         <v>876</v>
       </c>
@@ -47220,7 +47219,7 @@
       </c>
       <c r="S857" s="29"/>
     </row>
-    <row r="858" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="23">
         <v>877</v>
       </c>
@@ -47273,7 +47272,7 @@
       </c>
       <c r="S858" s="29"/>
     </row>
-    <row r="859" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="23">
         <v>878</v>
       </c>
@@ -47326,7 +47325,7 @@
       </c>
       <c r="S859" s="29"/>
     </row>
-    <row r="860" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="23">
         <v>879</v>
       </c>
@@ -47379,7 +47378,7 @@
       </c>
       <c r="S860" s="29"/>
     </row>
-    <row r="861" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="23">
         <v>880</v>
       </c>
@@ -47428,7 +47427,7 @@
       </c>
       <c r="S861" s="29"/>
     </row>
-    <row r="862" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="23">
         <v>881</v>
       </c>
@@ -47481,7 +47480,7 @@
       </c>
       <c r="S862" s="29"/>
     </row>
-    <row r="863" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="23">
         <v>882</v>
       </c>
@@ -47534,7 +47533,7 @@
       </c>
       <c r="S863" s="29"/>
     </row>
-    <row r="864" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="23">
         <v>883</v>
       </c>
@@ -47587,7 +47586,7 @@
       </c>
       <c r="S864" s="29"/>
     </row>
-    <row r="865" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="23">
         <v>884</v>
       </c>
@@ -47640,7 +47639,7 @@
       </c>
       <c r="S865" s="29"/>
     </row>
-    <row r="866" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="23">
         <v>885</v>
       </c>
@@ -47693,7 +47692,7 @@
       </c>
       <c r="S866" s="29"/>
     </row>
-    <row r="867" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="23">
         <v>886</v>
       </c>
@@ -47746,7 +47745,7 @@
       </c>
       <c r="S867" s="29"/>
     </row>
-    <row r="868" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="23">
         <v>887</v>
       </c>
@@ -47793,7 +47792,7 @@
       </c>
       <c r="S868" s="29"/>
     </row>
-    <row r="869" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="23">
         <v>888</v>
       </c>
@@ -47840,7 +47839,7 @@
       </c>
       <c r="S869" s="29"/>
     </row>
-    <row r="870" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="23">
         <v>889</v>
       </c>
@@ -47938,7 +47937,7 @@
       </c>
       <c r="S871" s="29"/>
     </row>
-    <row r="872" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="23">
         <v>891</v>
       </c>
@@ -47989,7 +47988,7 @@
       </c>
       <c r="S872" s="29"/>
     </row>
-    <row r="873" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="23">
         <v>892</v>
       </c>
@@ -48036,7 +48035,7 @@
       </c>
       <c r="S873" s="29"/>
     </row>
-    <row r="874" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="23">
         <v>893</v>
       </c>
@@ -48083,7 +48082,7 @@
       </c>
       <c r="S874" s="29"/>
     </row>
-    <row r="875" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="23">
         <v>894</v>
       </c>
@@ -48130,7 +48129,7 @@
       </c>
       <c r="S875" s="29"/>
     </row>
-    <row r="876" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="23">
         <v>895</v>
       </c>
@@ -48183,7 +48182,7 @@
       </c>
       <c r="S876" s="29"/>
     </row>
-    <row r="877" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="23">
         <v>896</v>
       </c>
@@ -48236,7 +48235,7 @@
       </c>
       <c r="S877" s="29"/>
     </row>
-    <row r="878" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="23">
         <v>897</v>
       </c>
@@ -48287,7 +48286,7 @@
       </c>
       <c r="S878" s="29"/>
     </row>
-    <row r="879" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="23">
         <v>898</v>
       </c>
@@ -48338,7 +48337,7 @@
       </c>
       <c r="S879" s="29"/>
     </row>
-    <row r="880" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="23">
         <v>899</v>
       </c>
@@ -48385,7 +48384,7 @@
       </c>
       <c r="S880" s="29"/>
     </row>
-    <row r="881" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="23">
         <v>900</v>
       </c>
@@ -48432,7 +48431,7 @@
       </c>
       <c r="S881" s="29"/>
     </row>
-    <row r="882" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="23">
         <v>901</v>
       </c>
@@ -48530,7 +48529,7 @@
       </c>
       <c r="S883" s="29"/>
     </row>
-    <row r="884" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="23">
         <v>903</v>
       </c>
@@ -48581,7 +48580,7 @@
       </c>
       <c r="S884" s="29"/>
     </row>
-    <row r="885" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="23">
         <v>904</v>
       </c>
@@ -48628,7 +48627,7 @@
       </c>
       <c r="S885" s="29"/>
     </row>
-    <row r="886" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="23">
         <v>905</v>
       </c>
@@ -48675,7 +48674,7 @@
       </c>
       <c r="S886" s="29"/>
     </row>
-    <row r="887" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="23">
         <v>906</v>
       </c>
@@ -48726,7 +48725,7 @@
       </c>
       <c r="S887" s="29"/>
     </row>
-    <row r="888" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="23">
         <v>907</v>
       </c>
@@ -48773,7 +48772,7 @@
       </c>
       <c r="S888" s="29"/>
     </row>
-    <row r="889" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="23">
         <v>908</v>
       </c>
@@ -48824,7 +48823,7 @@
       </c>
       <c r="S889" s="29"/>
     </row>
-    <row r="890" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="23">
         <v>909</v>
       </c>
@@ -48871,7 +48870,7 @@
       </c>
       <c r="S890" s="29"/>
     </row>
-    <row r="891" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="23">
         <v>910</v>
       </c>
@@ -48922,7 +48921,7 @@
       </c>
       <c r="S891" s="29"/>
     </row>
-    <row r="892" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="23">
         <v>911</v>
       </c>
@@ -48969,7 +48968,7 @@
       </c>
       <c r="S892" s="29"/>
     </row>
-    <row r="893" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="23">
         <v>912</v>
       </c>
@@ -49016,7 +49015,7 @@
       </c>
       <c r="S893" s="29"/>
     </row>
-    <row r="894" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="23">
         <v>913</v>
       </c>
@@ -49067,7 +49066,7 @@
       </c>
       <c r="S894" s="29"/>
     </row>
-    <row r="895" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="23">
         <v>914</v>
       </c>
@@ -49114,7 +49113,7 @@
       </c>
       <c r="S895" s="29"/>
     </row>
-    <row r="896" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="23">
         <v>915</v>
       </c>
@@ -49165,7 +49164,7 @@
       </c>
       <c r="S896" s="29"/>
     </row>
-    <row r="897" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="23">
         <v>916</v>
       </c>
@@ -49212,7 +49211,7 @@
       </c>
       <c r="S897" s="29"/>
     </row>
-    <row r="898" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="23">
         <v>917</v>
       </c>
@@ -49265,7 +49264,7 @@
       </c>
       <c r="S898" s="29"/>
     </row>
-    <row r="899" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="23">
         <v>918</v>
       </c>
@@ -49314,7 +49313,7 @@
       </c>
       <c r="S899" s="29"/>
     </row>
-    <row r="900" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="23">
         <v>919</v>
       </c>
@@ -49367,7 +49366,7 @@
       </c>
       <c r="S900" s="29"/>
     </row>
-    <row r="901" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="23">
         <v>920</v>
       </c>
@@ -49418,7 +49417,7 @@
       </c>
       <c r="S901" s="29"/>
     </row>
-    <row r="902" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="23">
         <v>921</v>
       </c>
@@ -49471,7 +49470,7 @@
       </c>
       <c r="S902" s="29"/>
     </row>
-    <row r="903" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="23">
         <v>922</v>
       </c>
@@ -49524,7 +49523,7 @@
       </c>
       <c r="S903" s="29"/>
     </row>
-    <row r="904" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="23">
         <v>923</v>
       </c>
@@ -49577,7 +49576,7 @@
       </c>
       <c r="S904" s="29"/>
     </row>
-    <row r="905" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="23">
         <v>924</v>
       </c>
@@ -49630,7 +49629,7 @@
       </c>
       <c r="S905" s="29"/>
     </row>
-    <row r="906" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="23">
         <v>925</v>
       </c>
@@ -49677,7 +49676,7 @@
       </c>
       <c r="S906" s="29"/>
     </row>
-    <row r="907" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="23">
         <v>926</v>
       </c>
@@ -49728,7 +49727,7 @@
       </c>
       <c r="S907" s="29"/>
     </row>
-    <row r="908" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="23">
         <v>927</v>
       </c>
@@ -49775,7 +49774,7 @@
       </c>
       <c r="S908" s="29"/>
     </row>
-    <row r="909" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="23">
         <v>928</v>
       </c>
@@ -49828,7 +49827,7 @@
       </c>
       <c r="S909" s="29"/>
     </row>
-    <row r="910" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="23">
         <v>929</v>
       </c>
@@ -49877,7 +49876,7 @@
       </c>
       <c r="S910" s="29"/>
     </row>
-    <row r="911" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="23">
         <v>930</v>
       </c>
@@ -49930,7 +49929,7 @@
       </c>
       <c r="S911" s="29"/>
     </row>
-    <row r="912" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="23">
         <v>931</v>
       </c>
@@ -49977,7 +49976,7 @@
       </c>
       <c r="S912" s="29"/>
     </row>
-    <row r="913" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="23">
         <v>932</v>
       </c>
@@ -50030,7 +50029,7 @@
       </c>
       <c r="S913" s="29"/>
     </row>
-    <row r="914" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="23">
         <v>933</v>
       </c>
@@ -50083,7 +50082,7 @@
       </c>
       <c r="S914" s="29"/>
     </row>
-    <row r="915" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="23">
         <v>934</v>
       </c>
@@ -50136,7 +50135,7 @@
       </c>
       <c r="S915" s="29"/>
     </row>
-    <row r="916" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="23">
         <v>935</v>
       </c>
@@ -50183,7 +50182,7 @@
       </c>
       <c r="S916" s="29"/>
     </row>
-    <row r="917" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="23">
         <v>936</v>
       </c>
@@ -50236,7 +50235,7 @@
       </c>
       <c r="S917" s="29"/>
     </row>
-    <row r="918" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="23">
         <v>937</v>
       </c>
@@ -50283,7 +50282,7 @@
       </c>
       <c r="S918" s="29"/>
     </row>
-    <row r="919" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="23">
         <v>938</v>
       </c>
@@ -50330,7 +50329,7 @@
       </c>
       <c r="S919" s="29"/>
     </row>
-    <row r="920" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="23">
         <v>939</v>
       </c>
@@ -50377,7 +50376,7 @@
       </c>
       <c r="S920" s="29"/>
     </row>
-    <row r="921" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="23">
         <v>940</v>
       </c>
@@ -50428,7 +50427,7 @@
       </c>
       <c r="S921" s="29"/>
     </row>
-    <row r="922" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="23">
         <v>941</v>
       </c>
@@ -50475,7 +50474,7 @@
       </c>
       <c r="S922" s="29"/>
     </row>
-    <row r="923" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="23">
         <v>942</v>
       </c>
@@ -50526,7 +50525,7 @@
       </c>
       <c r="S923" s="29"/>
     </row>
-    <row r="924" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="23">
         <v>943</v>
       </c>
@@ -50573,7 +50572,7 @@
       </c>
       <c r="S924" s="29"/>
     </row>
-    <row r="925" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="23">
         <v>944</v>
       </c>
@@ -50622,7 +50621,7 @@
       </c>
       <c r="S925" s="29"/>
     </row>
-    <row r="926" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="23">
         <v>945</v>
       </c>
@@ -50675,7 +50674,7 @@
       </c>
       <c r="S926" s="29"/>
     </row>
-    <row r="927" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="23">
         <v>946</v>
       </c>
@@ -50728,7 +50727,7 @@
       </c>
       <c r="S927" s="29"/>
     </row>
-    <row r="928" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="23">
         <v>947</v>
       </c>
@@ -50777,7 +50776,7 @@
       </c>
       <c r="S928" s="29"/>
     </row>
-    <row r="929" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="23">
         <v>948</v>
       </c>
@@ -50826,7 +50825,7 @@
       </c>
       <c r="S929" s="29"/>
     </row>
-    <row r="930" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="23">
         <v>949</v>
       </c>
@@ -50875,7 +50874,7 @@
       </c>
       <c r="S930" s="29"/>
     </row>
-    <row r="931" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="23">
         <v>950</v>
       </c>
@@ -50928,7 +50927,7 @@
       </c>
       <c r="S931" s="29"/>
     </row>
-    <row r="932" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="23">
         <v>951</v>
       </c>
@@ -50981,7 +50980,7 @@
       </c>
       <c r="S932" s="29"/>
     </row>
-    <row r="933" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="23">
         <v>952</v>
       </c>
@@ -51034,7 +51033,7 @@
       </c>
       <c r="S933" s="29"/>
     </row>
-    <row r="934" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="23">
         <v>953</v>
       </c>
@@ -51081,7 +51080,7 @@
       </c>
       <c r="S934" s="29"/>
     </row>
-    <row r="935" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="23">
         <v>954</v>
       </c>
@@ -51128,7 +51127,7 @@
       </c>
       <c r="S935" s="29"/>
     </row>
-    <row r="936" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="23">
         <v>955</v>
       </c>
@@ -51179,7 +51178,7 @@
       </c>
       <c r="S936" s="29"/>
     </row>
-    <row r="937" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="23">
         <v>956</v>
       </c>
@@ -51226,7 +51225,7 @@
       </c>
       <c r="S937" s="29"/>
     </row>
-    <row r="938" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="23">
         <v>957</v>
       </c>
@@ -51277,7 +51276,7 @@
       </c>
       <c r="S938" s="29"/>
     </row>
-    <row r="939" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="23">
         <v>958</v>
       </c>
@@ -51330,7 +51329,7 @@
       </c>
       <c r="S939" s="29"/>
     </row>
-    <row r="940" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="23">
         <v>959</v>
       </c>
@@ -51383,7 +51382,7 @@
       </c>
       <c r="S940" s="29"/>
     </row>
-    <row r="941" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="23">
         <v>960</v>
       </c>
@@ -51430,7 +51429,7 @@
       </c>
       <c r="S941" s="29"/>
     </row>
-    <row r="942" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="23">
         <v>961</v>
       </c>
@@ -51477,7 +51476,7 @@
       </c>
       <c r="S942" s="29"/>
     </row>
-    <row r="943" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="23">
         <v>962</v>
       </c>
@@ -51528,7 +51527,7 @@
       </c>
       <c r="S943" s="29"/>
     </row>
-    <row r="944" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="23">
         <v>963</v>
       </c>
@@ -51575,7 +51574,7 @@
       </c>
       <c r="S944" s="29"/>
     </row>
-    <row r="945" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="23">
         <v>964</v>
       </c>
@@ -51626,7 +51625,7 @@
       </c>
       <c r="S945" s="29"/>
     </row>
-    <row r="946" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="23">
         <v>965</v>
       </c>
@@ -51673,7 +51672,7 @@
       </c>
       <c r="S946" s="29"/>
     </row>
-    <row r="947" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="23">
         <v>966</v>
       </c>
@@ -51720,7 +51719,7 @@
       </c>
       <c r="S947" s="29"/>
     </row>
-    <row r="948" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="23">
         <v>967</v>
       </c>
@@ -51771,7 +51770,7 @@
       </c>
       <c r="S948" s="29"/>
     </row>
-    <row r="949" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="23">
         <v>968</v>
       </c>
@@ -51818,7 +51817,7 @@
       </c>
       <c r="S949" s="29"/>
     </row>
-    <row r="950" spans="1:19" s="14" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:19" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="63">
         <v>969</v>
       </c>
@@ -55997,16 +55996,6 @@
     <row r="1170" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1171" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:S950">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Calcium"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A796:S813">
-      <sortCondition ref="A1:A950"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
